--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="420" windowWidth="34260" windowHeight="19840" tabRatio="712"/>
+    <workbookView xWindow="1185" yWindow="420" windowWidth="19440" windowHeight="12240" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="GMAT成绩单" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$AA$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$AG$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">网申进度表!$A$1:$AA$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="163">
   <si>
     <t>编号</t>
   </si>
@@ -360,18 +361,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>Goldey-Beacom College</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suffolk U</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>UTDallas</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>Master of Science in Finance</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -387,14 +376,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>link
-Minimum undergraduate GPA of 3.0
-GMAT
-TOEFL score of 90 or above (IELTS, Kaplan IBT, and Pearson Test of English will also be accepted)
-Two letters of recommendation
-Work experience preferred but not required</t>
-  </si>
-  <si>
     <t>utdallas</t>
   </si>
   <si>
@@ -404,9 +385,6 @@
     <t>drexel</t>
   </si>
   <si>
-    <t>Portland SU</t>
-  </si>
-  <si>
     <t>GMAT Code</t>
   </si>
   <si>
@@ -434,79 +412,13 @@
     <t>PaceU</t>
   </si>
   <si>
-    <r>
-      <t>Pace U，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Garamond"/>
-      </rPr>
-      <t>New York City</t>
-    </r>
-  </si>
-  <si>
-    <t>Clark University，克拉克大学, near to Boston</t>
-  </si>
-  <si>
     <t>Hofstra University霍夫斯特拉大学, New York</t>
   </si>
   <si>
-    <t>Loyola University Chicago 芝加哥洛约拉大学, CA</t>
-  </si>
-  <si>
     <t>Master of Science in Finance</t>
   </si>
   <si>
-    <t>Drexel U 爵硕大学, Philadelphia</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Portland S U  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Garamond"/>
-      </rPr>
-      <t>专业</t>
-    </r>
-  </si>
-  <si>
     <t>其他费用</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Depaul University </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="ヒラギノ明朝 Pro W3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>德保尔大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Garamond"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="ヒラギノ明朝 Pro W3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>芝加哥</t>
-    </r>
   </si>
   <si>
     <t>resume</t>
@@ -526,6 +438,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">封，必须密封邮寄！推荐表在这里下载：http://www.pace.edu/prospectivestudents/sites/pace.edu.prospectivestudents/files/media/GraduateFiles/Grad%20App%20Recommendation%20Form.pdf
@@ -571,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最低分：</t>
@@ -580,6 +494,7 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>100 (Internet-based version)</t>
     </r>
@@ -588,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，录取可以参加语言学校</t>
@@ -611,6 +527,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">New York City
 </t>
@@ -629,6 +546,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -646,6 +564,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -725,6 +644,7 @@
         <sz val="12"/>
         <color rgb="FF222222"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -742,6 +662,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>成绩单邮寄地址：
@@ -762,6 +683,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 Naveen Jindal School of Management 
@@ -797,9 +719,676 @@
         <sz val="12"/>
         <color rgb="FF222222"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>, near to Boston</t>
     </r>
+  </si>
+  <si>
+    <t>GMAT Code (MSF): Q4X-6X-07</t>
+  </si>
+  <si>
+    <t>TOEFL Code: 5969 (www.toefl.org)</t>
+  </si>
+  <si>
+    <t>Mailed directly from the institution to:
+Clark University
+Graduate School of Management - Admissions
+950 Main Street
+Worcester, MA 01610
+USA</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.clarku.edu/gsom/pdfs/InternationalStudentInfoSheet2012-2013MSF-MSA.pdf</t>
+  </si>
+  <si>
+    <t>here</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup5</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Depaul University </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="ヒラギノ明朝 Pro W3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>德保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="ヒラギノ明朝 Pro W3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="ヒラギノ明朝 Pro W3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>芝加哥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="ヒラギノ明朝 Pro W3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要求工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经验，要面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loyola University Chicago </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芝加哥洛约拉大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>, CA</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页，行距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Please discuss how the Graduate School of Business at Loyola University Chicago and our focus on responsible leadership 
+will prepare you for your future career and why you have chosen this program. Your statement should be 2 - 3 pages in length, double-spaced. </t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ECE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成绩认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Applicants who completed post-secondary education abroad are required to submit non-U.S. transcripts to Educational Credential Evaluators, Inc. (ECE) for evaluation of credentials. You must request a course-by-course transcript evaluation, and it must show that your non-U.S. education is equivalent to a U.S. bachelor's degree to be considered for admission.
+Educational Credential Evaluators, INC. (ECE)
+Phone: 414.289.3400
+Please request a course-by-course evaluation report and have the official report sent to: 
+Graduate &amp; Professional Enrollment Management
+Loyola University Chicago
+820 N. Michigan Ave., Suite 800
+Chicago, IL 60611</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Drexel U </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爵硕大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Philadelphia</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">无需认证
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">International students must list all colleges, universities, and graduate and professional schools attended. Along with your application, you must enclose official transcripts (mark sheets and degree certificates) in your native language and in English from all colleges and graduate or professional schools attended. </t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2份包裹，分送学校与商学院</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Portland S U  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要面试）</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校与商学院的网申入口</t>
+  </si>
+  <si>
+    <t>backup6</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">纽约州立大学水牛城分校
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>University at Buffalo, the State University of New York</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">100+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>89</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">罗彻斯特理工学院
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rochester Institute of Technology</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">雪城大学
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Syracuse University </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">62  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">德州大学奥斯汀分校
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">University of Texas at Austin  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">45   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">波斯顿学院
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Boston College </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">31  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗彻斯特大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">University of Rochester   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,16 +1396,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="d\/mmm\/yy"/>
-    <numFmt numFmtId="167" formatCode="d\/mmm"/>
-    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="170" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="171" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="d\/mmm\/yy"/>
+    <numFmt numFmtId="177" formatCode="d\/mmm"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1080,6 +1669,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1093,48 +1683,57 @@
       <sz val="12"/>
       <color indexed="16"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1152,29 +1751,99 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF464645"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1428,7 +2097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1462,7 +2131,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,16 +2140,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +2203,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,7 +2248,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,7 +2263,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1603,10 +2272,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1651,10 +2320,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1666,11 +2335,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1690,140 +2503,34 @@
     <xf numFmtId="0" fontId="35" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -2142,657 +2849,906 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="26" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="13" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="11" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8" style="49" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="49" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="49" customWidth="1"/>
-    <col min="20" max="20" width="15.5" style="49" customWidth="1"/>
-    <col min="21" max="21" width="10" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="49" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="49" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="49" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="49" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="49"/>
+    <col min="1" max="5" width="15.375" style="49" customWidth="1"/>
+    <col min="6" max="7" width="18.25" style="49" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="17" style="49" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="49" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="49" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="13" style="49" customWidth="1"/>
+    <col min="15" max="15" width="21.875" style="49" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11" style="49" customWidth="1"/>
+    <col min="18" max="18" width="8" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="49" customWidth="1"/>
+    <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="49" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="49" customWidth="1"/>
+    <col min="23" max="24" width="12.125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="49" customWidth="1"/>
+    <col min="26" max="26" width="15.5" style="49" customWidth="1"/>
+    <col min="27" max="27" width="10" style="49" customWidth="1"/>
+    <col min="28" max="28" width="16.125" style="49" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="49" customWidth="1"/>
+    <col min="30" max="30" width="15.125" style="49" customWidth="1"/>
+    <col min="31" max="31" width="17.875" style="49" customWidth="1"/>
+    <col min="32" max="32" width="18.375" style="49" customWidth="1"/>
+    <col min="33" max="33" width="16.125" style="49" customWidth="1"/>
+    <col min="34" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A1" s="81">
         <v>0</v>
       </c>
-      <c r="B1" s="90">
+      <c r="B1" s="81">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81">
+        <v>3</v>
+      </c>
+      <c r="E1" s="81">
+        <v>4</v>
+      </c>
+      <c r="F1" s="85">
+        <v>5</v>
+      </c>
+      <c r="G1" s="85">
+        <v>7</v>
+      </c>
+      <c r="H1" s="83">
+        <v>6</v>
+      </c>
+      <c r="I1" s="83">
+        <v>8</v>
+      </c>
+      <c r="J1" s="83">
         <v>9</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="K1" s="85">
+        <v>10</v>
+      </c>
+      <c r="L1" s="83">
+        <v>11</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A2" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+    </row>
+    <row r="5" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="113">
+        <v>41395</v>
+      </c>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113">
+        <v>41306</v>
+      </c>
+      <c r="I5" s="113"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="111">
+        <v>41470</v>
+      </c>
+      <c r="L5" s="115">
+        <v>41281</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="110">
+        <v>41487</v>
+      </c>
+      <c r="Q5" s="112">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A6" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A7" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="118"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A8" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="85"/>
+    </row>
+    <row r="9" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A9" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="107"/>
+      <c r="M9" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="99"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A10" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+    </row>
+    <row r="11" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A11" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="90"/>
+    </row>
+    <row r="12" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A12" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" ht="96" customHeight="1">
+      <c r="A13" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="85"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="90"/>
+    </row>
+    <row r="14" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A14" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" ht="83.1" customHeight="1">
+      <c r="A15" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85">
+        <v>2</v>
+      </c>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="85">
+        <v>2</v>
+      </c>
+      <c r="L15" s="85">
+        <v>2</v>
+      </c>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+    </row>
+    <row r="16" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A16" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" customFormat="1" ht="129.75" customHeight="1">
+      <c r="A17" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="123"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A18" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" customFormat="1" ht="188.1" customHeight="1">
+      <c r="A19" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A20" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="85"/>
+      <c r="M20" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="123"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A21" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A22" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="92">
-        <v>5</v>
-      </c>
-      <c r="F1" s="90">
-        <v>5</v>
-      </c>
-      <c r="G1" s="92">
-        <v>6</v>
-      </c>
-      <c r="H1" s="90">
-        <v>6</v>
-      </c>
-      <c r="I1" s="92">
-        <v>8</v>
-      </c>
-      <c r="J1" s="90">
-        <v>9</v>
-      </c>
-      <c r="K1" s="92">
+      <c r="G22" s="85"/>
+      <c r="H22" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="92"/>
+    </row>
+    <row r="23" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A23" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+    </row>
+    <row r="24" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A24" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="92"/>
+    </row>
+    <row r="25" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A25" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="94"/>
+    </row>
+    <row r="26" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A26" s="81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" ht="110" customHeight="1">
-      <c r="A2" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A3" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A4" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A5" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="120">
-        <v>41395</v>
-      </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="94"/>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A6" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="109" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A7" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="110" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" customFormat="1" ht="100" customHeight="1">
-      <c r="A8" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-    </row>
-    <row r="9" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A9" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="95"/>
-    </row>
-    <row r="10" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A10" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="96"/>
-    </row>
-    <row r="11" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A11" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="97"/>
-    </row>
-    <row r="12" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A12" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-    </row>
-    <row r="13" spans="1:11" customFormat="1" ht="96" customHeight="1">
-      <c r="A13" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="115" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="97"/>
-    </row>
-    <row r="14" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A14" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-    </row>
-    <row r="15" spans="1:11" customFormat="1" ht="83" customHeight="1">
-      <c r="A15" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92">
-        <v>2</v>
-      </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-    </row>
-    <row r="16" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A16" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-    </row>
-    <row r="17" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A17" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-    </row>
-    <row r="18" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A18" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="92"/>
-    </row>
-    <row r="19" spans="1:11" customFormat="1" ht="188" customHeight="1">
-      <c r="A19" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-    </row>
-    <row r="20" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A20" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-    </row>
-    <row r="21" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A21" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-    </row>
-    <row r="22" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A22" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="99"/>
-    </row>
-    <row r="23" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A23" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="99"/>
-    </row>
-    <row r="24" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A24" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="99"/>
-    </row>
-    <row r="25" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A25" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="101"/>
-    </row>
-    <row r="26" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A26" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-    </row>
-    <row r="27" spans="1:11" customFormat="1" ht="52" customHeight="1">
-      <c r="A27" s="88" t="s">
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+    </row>
+    <row r="27" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A27" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-    </row>
-    <row r="28" spans="1:11" customFormat="1" ht="52" customHeight="1"/>
-    <row r="29" spans="1:11" customFormat="1" ht="52" customHeight="1"/>
-    <row r="30" spans="1:11" customFormat="1" ht="52" customHeight="1"/>
-    <row r="31" spans="1:11" customFormat="1" ht="52" customHeight="1"/>
-    <row r="32" spans="1:11" customFormat="1" ht="52" customHeight="1"/>
-    <row r="33" customFormat="1" ht="52" customHeight="1"/>
-    <row r="34" customFormat="1" ht="52" customHeight="1"/>
-    <row r="35" customFormat="1" ht="52" customHeight="1"/>
-    <row r="36" customFormat="1" ht="52" customHeight="1"/>
-    <row r="37" customFormat="1" ht="52" customHeight="1"/>
-    <row r="38" customFormat="1" ht="52" customHeight="1"/>
-    <row r="39" customFormat="1" ht="52" customHeight="1"/>
-    <row r="40" customFormat="1" ht="52" customHeight="1"/>
-    <row r="41" customFormat="1" ht="52" customHeight="1"/>
-    <row r="42" customFormat="1" ht="52" customHeight="1"/>
-    <row r="43" customFormat="1" ht="52" customHeight="1"/>
-    <row r="44" customFormat="1" ht="52" customHeight="1"/>
-    <row r="45" customFormat="1" ht="52" customHeight="1"/>
-    <row r="46" customFormat="1" ht="52" customHeight="1"/>
-    <row r="47" customFormat="1" ht="52" customHeight="1"/>
-    <row r="48" customFormat="1" ht="52" customHeight="1"/>
-    <row r="49" customFormat="1" ht="52" customHeight="1"/>
-    <row r="50" customFormat="1" ht="52" customHeight="1"/>
-    <row r="51" customFormat="1" ht="52" customHeight="1"/>
-    <row r="52" customFormat="1" ht="52" customHeight="1"/>
-    <row r="53" customFormat="1" ht="52" customHeight="1"/>
-    <row r="54" customFormat="1" ht="52" customHeight="1"/>
-    <row r="55" customFormat="1" ht="52" customHeight="1"/>
-    <row r="56" customFormat="1" ht="52" customHeight="1"/>
-    <row r="57" customFormat="1" ht="52" customHeight="1"/>
-    <row r="58" customFormat="1" ht="52" customHeight="1"/>
-    <row r="59" customFormat="1" ht="52" customHeight="1"/>
-    <row r="60" customFormat="1" ht="52" customHeight="1"/>
-    <row r="61" customFormat="1" ht="52" customHeight="1"/>
-    <row r="62" customFormat="1" ht="52" customHeight="1"/>
-    <row r="63" customFormat="1" ht="52" customHeight="1"/>
-    <row r="64" customFormat="1" ht="52" customHeight="1"/>
-    <row r="65" customFormat="1" ht="52" customHeight="1"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+    </row>
+    <row r="28" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="29" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="30" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="31" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="32" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="33" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="34" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="35" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="36" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="37" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="38" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="39" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="40" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="41" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="42" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="43" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="44" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="45" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="46" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="47" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="48" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="49" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="50" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="51" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="52" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="53" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="54" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="55" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="56" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="57" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="58" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="59" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="60" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="61" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="62" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="63" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="64" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="65" customFormat="1" ht="51.95" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="B4:K4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <sortState columnSort="1" ref="A1:K27">
+    <sortCondition ref="A1:K1"/>
+  </sortState>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <conditionalFormatting sqref="F4:Q4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" display="https://app.applyyourself.com/AYApplicantLogin/ApplicantConnectLogin.asp?id=pdxsba"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php"/>
-    <hyperlink ref="J6" display="http://sacramento.drexel.edu/programs/masters-finance/_x000d_Minimum undergraduate GPA of 3.0_x000d_GMAT_x000d_TOEFL score of 90 or above (IELTS, Kaplan IBT, and Pearson Test of English will also be accepted)_x000d_Two letters of recommendation_x000d_Work experience preferred but not "/>
-    <hyperlink ref="J7" r:id="rId4" display="https://banner.drexel.edu/pls/duprod/bwskalog.P_ProcNewApp"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
-    <hyperlink ref="K6" r:id="rId6" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
-    <hyperlink ref="C6" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
-    <hyperlink ref="D6" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
-    <hyperlink ref="E6" r:id="rId9" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="I6" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="I7" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F6" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
-    <hyperlink ref="G6" r:id="rId13" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
+    <hyperlink ref="Q7" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php"/>
+    <hyperlink ref="L7" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
+    <hyperlink ref="Q6" r:id="rId6" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
+    <hyperlink ref="M6" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
+    <hyperlink ref="N6" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
+    <hyperlink ref="F6" r:id="rId9" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
+    <hyperlink ref="K6" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
+    <hyperlink ref="K7" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
+    <hyperlink ref="O6" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
+    <hyperlink ref="P6" r:id="rId13" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
     <hyperlink ref="H6" r:id="rId14" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
     <hyperlink ref="H17" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
-    <hyperlink ref="C9" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
-    <hyperlink ref="C20" r:id="rId15" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
-    <hyperlink ref="C7" r:id="rId16"/>
-    <hyperlink ref="D7" r:id="rId17"/>
-    <hyperlink ref="E9" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
+    <hyperlink ref="M9" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
+    <hyperlink ref="M20" r:id="rId15" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="M7" r:id="rId16"/>
+    <hyperlink ref="N7" r:id="rId17"/>
+    <hyperlink ref="F9" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
+    <hyperlink ref="O13" r:id="rId18" display="http://www.toefl.org/"/>
+    <hyperlink ref="O7" r:id="rId19"/>
+    <hyperlink ref="P7" r:id="rId20"/>
+    <hyperlink ref="K9" r:id="rId21"/>
+    <hyperlink ref="L6" r:id="rId22"/>
+    <hyperlink ref="Q9" r:id="rId23"/>
+    <hyperlink ref="G6" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
+    <hyperlink ref="E6" r:id="rId26"/>
+    <hyperlink ref="D6" r:id="rId27"/>
+    <hyperlink ref="C6" r:id="rId28"/>
+    <hyperlink ref="B6" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2814,511 +3770,415 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA11" sqref="A1:AA11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="49" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="49" customWidth="1"/>
     <col min="11" max="11" width="11" style="49" customWidth="1"/>
     <col min="12" max="12" width="8" style="49" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="49" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="49" customWidth="1"/>
+    <col min="17" max="18" width="12.125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="49" customWidth="1"/>
     <col min="20" max="20" width="15.5" style="49" customWidth="1"/>
     <col min="21" max="21" width="10" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="49" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="49" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="49" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="49" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="49"/>
+    <col min="22" max="22" width="16.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="49" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="17.875" style="49" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="49" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="49" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="52" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="str">
+      <c r="B1" s="81" t="str">
         <f>学校列表!C1</f>
         <v>SCHOOL</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="88" t="s">
+      <c r="D1" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="88" t="s">
+      <c r="Z1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="88" t="s">
+      <c r="AA1" s="81" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="52" customHeight="1">
-      <c r="A2" s="90">
-        <v>9</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="92"/>
-    </row>
-    <row r="3" spans="1:27" ht="52" customHeight="1">
-      <c r="A3" s="92">
-        <v>2</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-    </row>
-    <row r="4" spans="1:27" ht="52" customHeight="1">
-      <c r="A4" s="90">
-        <v>3</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-    </row>
-    <row r="5" spans="1:27" ht="52" customHeight="1">
-      <c r="A5" s="92">
-        <v>4</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-    </row>
-    <row r="6" spans="1:27" ht="52" customHeight="1">
-      <c r="A6" s="90">
-        <v>5</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-    </row>
-    <row r="7" spans="1:27" ht="52" customHeight="1">
-      <c r="A7" s="92">
-        <v>6</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-    </row>
-    <row r="8" spans="1:27" ht="100" customHeight="1">
-      <c r="A8" s="90">
-        <v>6</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92">
-        <v>2</v>
-      </c>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="96"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-    </row>
-    <row r="9" spans="1:27" ht="52" customHeight="1">
-      <c r="A9" s="92">
-        <v>8</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="92"/>
-    </row>
-    <row r="10" spans="1:27" ht="52" customHeight="1">
-      <c r="A10" s="90">
-        <v>9</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-    </row>
-    <row r="11" spans="1:27" ht="52" customHeight="1">
-      <c r="A11" s="92">
-        <v>10</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-    </row>
-    <row r="12" spans="1:27" ht="52" customHeight="1">
+    <row r="2" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="85"/>
+    </row>
+    <row r="3" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+    </row>
+    <row r="4" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+    </row>
+    <row r="5" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+    </row>
+    <row r="6" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+    </row>
+    <row r="7" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+    </row>
+    <row r="8" spans="1:27" ht="99.95" customHeight="1">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+    </row>
+    <row r="9" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="85"/>
+    </row>
+    <row r="10" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+    </row>
+    <row r="11" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+    </row>
+    <row r="12" spans="1:27" ht="51.95" customHeight="1">
       <c r="A12" s="73"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -3350,28 +4210,10 @@
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" display="https://app.applyyourself.com/AYApplicantLogin/ApplicantConnectLogin.asp?id=pdxsba"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
-    <hyperlink ref="G5" r:id="rId3" display="https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php"/>
-    <hyperlink ref="F10" display="http://sacramento.drexel.edu/programs/masters-finance/_x000d_Minimum undergraduate GPA of 3.0_x000d_GMAT_x000d_TOEFL score of 90 or above (IELTS, Kaplan IBT, and Pearson Test of English will also be accepted)_x000d_Two letters of recommendation_x000d_Work experience preferred but not "/>
-    <hyperlink ref="G10" r:id="rId4" display="https://banner.drexel.edu/pls/duprod/bwskalog.P_ProcNewApp"/>
-    <hyperlink ref="F2" r:id="rId5" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
-    <hyperlink ref="F11" r:id="rId6" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
-    <hyperlink ref="F3" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
-    <hyperlink ref="F4" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
-    <hyperlink ref="F5" r:id="rId9" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F9" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="G9" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F6" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
-    <hyperlink ref="F7" r:id="rId13" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
-    <hyperlink ref="Q8" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -3391,14 +4233,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3611,12 +4453,12 @@
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="D3:E22">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3637,13 +4479,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3696,7 +4538,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>80</v>
@@ -3917,14 +4759,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3956,7 +4798,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70">
+    <row r="2" spans="1:7" ht="67.5">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
@@ -4012,7 +4854,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="62" customHeight="1">
+    <row r="8" spans="1:7" ht="62.1" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="78"/>
       <c r="C8" s="44"/>
@@ -4184,30 +5026,30 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32">
+    <row r="1" spans="1:18" ht="36">
       <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
@@ -4794,7 +5636,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="16">
+    <row r="24" spans="1:18" ht="17.25">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4934,7 +5776,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="31" spans="1:18" s="4" customFormat="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -4954,7 +5796,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" ht="15">
+    <row r="32" spans="1:18" s="4" customFormat="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -4974,7 +5816,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="33" spans="1:18" s="4" customFormat="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4994,7 +5836,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="34" spans="1:18" s="4" customFormat="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -5014,7 +5856,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="40" spans="1:18" ht="15">
+    <row r="40" spans="1:18">
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -5024,7 +5866,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:18" ht="15">
+    <row r="41" spans="1:18">
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5034,7 +5876,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:18" ht="15">
+    <row r="42" spans="1:18">
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -5044,7 +5886,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="15">
+    <row r="43" spans="1:18">
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5054,11 +5896,11 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="56" spans="3:17" ht="15">
+    <row r="56" spans="3:17">
       <c r="F56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="3:17" ht="409.25" customHeight="1">
+    <row r="57" spans="3:17" ht="409.35" customHeight="1">
       <c r="C57" s="6" t="s">
         <v>47</v>
       </c>
@@ -5090,9 +5932,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5691,26 +6533,26 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A1" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="129" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -5720,14 +6562,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="82"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="66" t="s">
         <v>73</v>
       </c>
@@ -5735,7 +6577,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A3" s="70"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5744,7 +6586,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -5753,7 +6595,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -5762,7 +6604,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -5771,7 +6613,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A7" s="70"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -5780,7 +6622,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -5789,7 +6631,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
     </row>
-    <row r="9" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A9" s="70"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -5798,7 +6640,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A10" s="71"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -5807,7 +6649,7 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A11" s="70"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -5816,7 +6658,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
     </row>
-    <row r="12" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -5825,7 +6667,7 @@
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
     </row>
-    <row r="13" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A13" s="70"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -5834,7 +6676,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
@@ -5843,7 +6685,7 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A15" s="70"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -5852,7 +6694,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A16" s="71"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -5869,6 +6711,7 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
   <si>
     <t>编号</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>http://www.gbc.edu/admissions/graduate/international.html</t>
-  </si>
-  <si>
-    <t>backup2</t>
   </si>
   <si>
     <t>backup3</t>
@@ -751,14 +748,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>backup4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup5</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Depaul University </t>
     </r>
@@ -1061,10 +1050,6 @@
     <t>学校与商学院的网申入口</t>
   </si>
   <si>
-    <t>backup6</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">纽约州立大学水牛城分校
 </t>
@@ -1148,6 +1133,10 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
+    <t>here</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1156,8 +1145,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">雪城大学
-</t>
+      <t>录取后提供，申请时只需要提供</t>
     </r>
     <r>
       <rPr>
@@ -1166,8 +1154,11 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Syracuse University </t>
-    </r>
+      <t>photocopy</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1176,7 +1167,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>综排</t>
+      <t>导师或者领导的推荐信，</t>
     </r>
     <r>
       <rPr>
@@ -1185,7 +1176,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">62  </t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1195,17 +1186,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="16"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>68</t>
-    </r>
+      <t>封</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t> 100 for TOEFL</t>
+  </si>
+  <si>
+    <t>Student 
+$50,350</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
@@ -1265,11 +1259,9 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>17</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">17
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1278,18 +1270,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">波斯顿学院
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="16"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Boston College </t>
-    </r>
+      <t>（数学要求，不建议申请）</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two personal essays</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Essays</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>44x-J5-96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> NGO-SB-94</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TOEFL school code is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3033</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1298,7 +1324,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>综排</t>
+      <t xml:space="preserve">波斯顿学院
+</t>
     </r>
     <r>
       <rPr>
@@ -1307,7 +1334,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">31  </t>
+      <t xml:space="preserve"> Boston College </t>
     </r>
     <r>
       <rPr>
@@ -1317,7 +1344,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商排</t>
+      <t>综排</t>
     </r>
     <r>
       <rPr>
@@ -1326,11 +1353,8 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>37</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">31  </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1339,7 +1363,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>罗彻斯特大学</t>
+      <t>商排</t>
     </r>
     <r>
       <rPr>
@@ -1348,7 +1372,8 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">University of Rochester   </t>
+      <t>37
+(</t>
     </r>
     <r>
       <rPr>
@@ -1358,7 +1383,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>综排</t>
+      <t>要求工作经验，提供独立的工作经验简历，不建议申请</t>
     </r>
     <r>
       <rPr>
@@ -1367,8 +1392,66 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">35 </t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">雪城大学
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Syracuse University </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">62  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1377,7 +1460,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商排</t>
+      <t>罗彻斯特大学</t>
     </r>
     <r>
       <rPr>
@@ -1386,9 +1469,62 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>37</t>
+      <t xml:space="preserve">University of Rochester   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>37
+(Simon students are the best of the best. We want to know if you are a self-starter with evidence of leadership and teamwork.)</t>
     </r>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup4</t>
+  </si>
+  <si>
+    <t>backup5</t>
   </si>
 </sst>
 </file>
@@ -1774,13 +1910,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF464645"/>
       <name val="Verdana"/>
@@ -1798,26 +1927,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1840,6 +1949,32 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="16"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2097,7 +2232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2428,47 +2563,14 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2476,7 +2578,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2485,6 +2587,9 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,10 +2608,16 @@
     <xf numFmtId="0" fontId="35" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="39" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2853,22 +2964,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="15.375" style="49" customWidth="1"/>
     <col min="6" max="7" width="18.25" style="49" customWidth="1"/>
-    <col min="8" max="9" width="14.125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="49" customWidth="1"/>
     <col min="10" max="10" width="17" style="49" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="49" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="49" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
     <col min="14" max="14" width="13" style="49" customWidth="1"/>
     <col min="15" max="15" width="21.875" style="49" customWidth="1"/>
     <col min="16" max="16" width="16.875" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11" style="49" customWidth="1"/>
+    <col min="17" max="17" width="26.625" style="49" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="49" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="49" customWidth="1"/>
     <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
@@ -2925,19 +3037,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="85" t="s">
-        <v>144</v>
+      <c r="P1" s="83" t="s">
+        <v>172</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:17" customFormat="1" ht="110.1" customHeight="1">
@@ -2945,52 +3057,52 @@
         <v>117</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C2" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>159</v>
+      <c r="E2" s="125" t="s">
+        <v>168</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="135" t="s">
-        <v>156</v>
+        <v>129</v>
+      </c>
+      <c r="G2" s="118" t="s">
+        <v>152</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="135" t="s">
-        <v>158</v>
+        <v>142</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>154</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>116</v>
       </c>
       <c r="K2" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="84" t="s">
         <v>146</v>
-      </c>
-      <c r="L2" s="84" t="s">
-        <v>149</v>
       </c>
       <c r="M2" s="84" t="s">
         <v>108</v>
       </c>
       <c r="N2" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P2" s="84" t="s">
         <v>103</v>
       </c>
       <c r="Q2" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
@@ -3059,32 +3171,36 @@
       <c r="A5" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="113">
+      <c r="B5" s="126"/>
+      <c r="C5" s="127">
+        <v>41320</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127">
+        <v>41275</v>
+      </c>
+      <c r="F5" s="127">
         <v>41395</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127">
         <v>41306</v>
       </c>
-      <c r="I5" s="113"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="111">
+      <c r="I5" s="127"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="127">
         <v>41470</v>
       </c>
-      <c r="L5" s="115">
+      <c r="L5" s="127">
         <v>41281</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="110">
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="127">
         <v>41487</v>
       </c>
-      <c r="Q5" s="112">
+      <c r="Q5" s="127">
         <v>41306</v>
       </c>
     </row>
@@ -3092,29 +3208,29 @@
       <c r="A6" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>157</v>
+      <c r="B6" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>153</v>
       </c>
       <c r="F6" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>157</v>
+      <c r="G6" s="110" t="s">
+        <v>153</v>
       </c>
       <c r="H6" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>157</v>
+      <c r="I6" s="110" t="s">
+        <v>153</v>
       </c>
       <c r="J6" s="102" t="s">
         <v>90</v>
@@ -3122,8 +3238,8 @@
       <c r="K6" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="116" t="s">
-        <v>150</v>
+      <c r="L6" s="110" t="s">
+        <v>147</v>
       </c>
       <c r="M6" s="102" t="s">
         <v>90</v>
@@ -3134,7 +3250,7 @@
       <c r="O6" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="117" t="s">
+      <c r="P6" s="102" t="s">
         <v>90</v>
       </c>
       <c r="Q6" s="102" t="s">
@@ -3148,36 +3264,38 @@
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="E7" s="110" t="s">
+        <v>160</v>
+      </c>
       <c r="F7" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="118" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="103" t="s">
         <v>102</v>
       </c>
       <c r="K7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>154</v>
+      <c r="N7" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="110" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" customFormat="1" ht="99.95" customHeight="1">
@@ -3205,31 +3323,33 @@
       <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="39" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121" t="s">
+      <c r="G9" s="110"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>141</v>
+      <c r="K9" s="110" t="s">
+        <v>140</v>
       </c>
       <c r="L9" s="107"/>
-      <c r="M9" s="116" t="s">
+      <c r="M9" s="110" t="s">
         <v>118</v>
       </c>
       <c r="N9" s="99"/>
-      <c r="O9" s="119"/>
+      <c r="O9" s="98"/>
       <c r="P9" s="99"/>
-      <c r="Q9" s="39" t="s">
-        <v>152</v>
+      <c r="Q9" s="110" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
@@ -3257,21 +3377,25 @@
       <c r="A11" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85" t="s">
+        <v>165</v>
+      </c>
       <c r="F11" s="85"/>
       <c r="G11" s="85"/>
       <c r="H11" s="85"/>
       <c r="I11" s="85"/>
       <c r="J11" s="90"/>
       <c r="K11" s="85"/>
-      <c r="L11" s="123"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
-      <c r="O11" s="122" t="s">
-        <v>137</v>
+      <c r="O11" s="112" t="s">
+        <v>136</v>
       </c>
       <c r="P11" s="85"/>
       <c r="Q11" s="90"/>
@@ -3280,10 +3404,10 @@
       <c r="A12" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="85"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -3301,12 +3425,16 @@
       <c r="A13" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85" t="s">
+        <v>158</v>
+      </c>
       <c r="F13" s="85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
@@ -3315,13 +3443,13 @@
         <v>110</v>
       </c>
       <c r="K13" s="85"/>
-      <c r="L13" s="123"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" s="116" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="O13" s="110" t="s">
+        <v>137</v>
       </c>
       <c r="P13" s="85"/>
       <c r="Q13" s="90"/>
@@ -3330,10 +3458,10 @@
       <c r="A14" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="85"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
@@ -3354,9 +3482,11 @@
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="E15" s="81" t="s">
+        <v>157</v>
+      </c>
       <c r="F15" s="85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="85"/>
       <c r="H15" s="85">
@@ -3374,7 +3504,7 @@
       </c>
       <c r="M15" s="85"/>
       <c r="N15" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O15" s="85"/>
       <c r="P15" s="85"/>
@@ -3408,27 +3538,29 @@
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+      <c r="E17" s="81" t="s">
+        <v>156</v>
+      </c>
       <c r="F17" s="85"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="39" t="s">
+      <c r="G17" s="85"/>
+      <c r="H17" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="109" t="s">
         <v>114</v>
       </c>
       <c r="K17" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="125" t="s">
+      <c r="M17" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="123"/>
-      <c r="O17" s="124"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="113"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="85"/>
     </row>
@@ -3462,7 +3594,7 @@
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
@@ -3475,7 +3607,7 @@
       <c r="M19" s="85"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P19" s="85"/>
       <c r="Q19" s="85"/>
@@ -3484,30 +3616,34 @@
       <c r="A20" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="128" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="126" t="s">
-        <v>147</v>
+      <c r="K20" s="115" t="s">
+        <v>144</v>
       </c>
       <c r="L20" s="85"/>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="116" t="s">
         <v>119</v>
       </c>
       <c r="N20" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="123"/>
+        <v>124</v>
+      </c>
+      <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="85"/>
     </row>
@@ -3541,7 +3677,7 @@
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="85"/>
       <c r="H22" s="85" t="s">
@@ -3629,7 +3765,9 @@
       <c r="B26" s="81"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
+      <c r="E26" s="81" t="s">
+        <v>159</v>
+      </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
@@ -3642,7 +3780,7 @@
       </c>
       <c r="N26" s="85"/>
       <c r="O26" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85"/>
@@ -3749,6 +3887,8 @@
     <hyperlink ref="D6" r:id="rId27"/>
     <hyperlink ref="C6" r:id="rId28"/>
     <hyperlink ref="B6" r:id="rId29"/>
+    <hyperlink ref="E9" r:id="rId30"/>
+    <hyperlink ref="E7" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6542,17 +6682,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="132"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="119" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -6563,13 +6703,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="130"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="66" t="s">
         <v>73</v>
       </c>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t>编号</t>
   </si>
@@ -211,35 +211,35 @@
   </si>
   <si>
     <t>Resume命名与要求</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Resume状态</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Program</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>PIN</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>http://www.arch.columbia.edu/programs/architecture/march/admissions</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>http://www.gsd.harvard.edu/index.html#/admissions/applying-to-the-gsd/index.html</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>成绩单邮寄状态</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>SchoolNameShort</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Apply for M.S.Advanced Architecture Design
@@ -247,59 +247,59 @@
 Email: gracezhengchen@gmail.com
 Address:Mailbox 648,Xiamen University,361005
 </t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>发件人信息</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>特殊注意事项</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>M.S.Advanced Architecture Design</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master in Architecture - Postprofessional degree (1 1/2 years) MArch II</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>总美元</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>代收费</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>RMB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>代收费余额</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>http://www.architecture.yale.edu/drupal/programs/master_architecture_two</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>截止日期倒计时表</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>最大缓冲天数</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>网申剩余天数</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>作品集剩余天数</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Report Date</t>
@@ -330,47 +330,47 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>承担邮费</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Lubin School of Business, Finance - Financial Management, MS</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master's in Finance</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master of Science in Financial Analysis</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>program summury</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master of Science in Finance</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MS in Finance</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master of Science in Finance</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master of Science in Finance (M.S.F.)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Finance, M.S.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>link</t>
@@ -734,18 +734,18 @@
 950 Main Street
 Worcester, MA 01610
 USA</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>http://www.clarku.edu/gsom/pdfs/InternationalStudentInfoSheet2012-2013MSF-MSA.pdf</t>
   </si>
   <si>
     <t>here</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -834,7 +834,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -859,7 +859,7 @@
       </rPr>
       <t>, CA</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -920,7 +920,7 @@
       <t>Please discuss how the Graduate School of Business at Loyola University Chicago and our focus on responsible leadership 
 will prepare you for your future career and why you have chosen this program. Your statement should be 2 - 3 pages in length, double-spaced. </t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -953,7 +953,7 @@
 820 N. Michigan Ave., Suite 800
 Chicago, IL 60611</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -978,11 +978,11 @@
       </rPr>
       <t>, Philadelphia</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>link</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1005,11 +1005,11 @@
       </rPr>
       <t xml:space="preserve">International students must list all colleges, universities, and graduate and professional schools attended. Along with your application, you must enclose official transcripts (mark sheets and degree certificates) in your native language and in English from all colleges and graduate or professional schools attended. </t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2份包裹，分送学校与商学院</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1044,7 +1044,7 @@
       </rPr>
       <t>要面试）</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>学校与商学院的网申入口</t>
@@ -1110,11 +1110,11 @@
       </rPr>
       <t>89</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>link</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1130,11 +1130,11 @@
       </rPr>
       <t>Rochester Institute of Technology</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>here</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1156,7 +1156,7 @@
       </rPr>
       <t>photocopy</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1188,7 +1188,7 @@
       </rPr>
       <t>封</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t> 100 for TOEFL</t>
@@ -1196,11 +1196,11 @@
   <si>
     <t>Student 
 $50,350</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1272,15 +1272,15 @@
       </rPr>
       <t>（数学要求，不建议申请）</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Two personal essays</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Two Essays</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1298,7 +1298,7 @@
   </si>
   <si>
     <t xml:space="preserve"> NGO-SB-94</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1394,7 +1394,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1449,7 +1449,7 @@
       </rPr>
       <t>68</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1510,21 +1510,217 @@
       <t>37
 (Simon students are the best of the best. We want to know if you are a self-starter with evidence of leadership and teamwork.)</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>backup1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>backup2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>backup4</t>
   </si>
   <si>
     <t>backup5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> two letters of reference, at least one of which should be from a faculty member.</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>($70) </t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robert Day School of Economics &amp; Finance
+Claremont McKenna College
+500 E. Ninth Street
+Claremont, CA 91711</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Claremont McKenna College(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试录用，难度很大，可参考已经入学的人的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>CV)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ackup6</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乔治华盛顿大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master  of  Arts  in  International  Economics  and  Finance</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>布兰迪斯大学Brandeis University (2年,part time可否申请？）</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three letters of recommendation</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement of professional career goals</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMAT: QK4-4F-18
+GRE: 5246
+TOEFL: 5438</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>有先修条件，如果相关课程没有学过，不被考虑。课程如下：
+Prerequisites
+Bachelor's degree with credit hours in:
+calculus (6)
+economics (6)
+financial accounting (3)
+managerial finance (3)
+statistics (3)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯斯西储大学 俄亥俄克利夫兰  1年半</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue  University</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master  of  Science  in  Finance</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup7</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ackup8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>backup9</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ackup10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -1541,12 +1737,20 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1980,6 +2184,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF414141"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2049,7 +2259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2175,151 +2385,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="24" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2327,84 +2543,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2413,46 +2632,46 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2470,154 +2689,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2960,11 +3197,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -2978,9 +3215,9 @@
     <col min="12" max="12" width="14.75" style="49" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
     <col min="14" max="14" width="13" style="49" customWidth="1"/>
-    <col min="15" max="15" width="21.875" style="49" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="49" customWidth="1"/>
-    <col min="17" max="17" width="26.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="49" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="49" customWidth="1"/>
     <col min="18" max="18" width="8" style="49" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="49" customWidth="1"/>
     <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
@@ -2999,7 +3236,7 @@
     <col min="34" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="1" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A1" s="81">
         <v>0</v>
       </c>
@@ -3051,8 +3288,23 @@
       <c r="Q1" s="85" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" customFormat="1" ht="110.1" customHeight="1">
+      <c r="R1" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" s="85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" customFormat="1" ht="110.1" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>117</v>
       </c>
@@ -3065,7 +3317,7 @@
       <c r="D2" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="119" t="s">
         <v>168</v>
       </c>
       <c r="F2" s="84" t="s">
@@ -3104,8 +3356,23 @@
       <c r="Q2" s="84" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R2" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="S2" s="129" t="s">
+        <v>182</v>
+      </c>
+      <c r="T2" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" customFormat="1" ht="81" customHeight="1">
       <c r="A3" s="81" t="s">
         <v>50</v>
       </c>
@@ -3145,8 +3412,20 @@
       <c r="Q3" s="85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R3" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="133" t="s">
+        <v>184</v>
+      </c>
+      <c r="V3" s="134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A4" s="81" t="s">
         <v>100</v>
       </c>
@@ -3167,44 +3446,47 @@
       <c r="P4" s="86"/>
       <c r="Q4" s="86"/>
     </row>
-    <row r="5" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="5" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A5" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127">
+      <c r="B5" s="120"/>
+      <c r="C5" s="121">
         <v>41320</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="127">
+      <c r="D5" s="120"/>
+      <c r="E5" s="121">
         <v>41275</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F5" s="121">
         <v>41395</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127">
+      <c r="G5" s="121"/>
+      <c r="H5" s="121">
         <v>41306</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="127">
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="121">
         <v>41470</v>
       </c>
-      <c r="L5" s="127">
+      <c r="L5" s="121">
         <v>41281</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="127">
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="121">
         <v>41487</v>
       </c>
-      <c r="Q5" s="127">
+      <c r="Q5" s="121">
         <v>41306</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="S5" s="53">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A6" s="81" t="s">
         <v>84</v>
       </c>
@@ -3256,8 +3538,20 @@
       <c r="Q6" s="102" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="S6" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
@@ -3297,8 +3591,11 @@
       <c r="Q7" s="110" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" customFormat="1" ht="99.95" customHeight="1">
+      <c r="R7" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>51</v>
       </c>
@@ -3319,7 +3616,7 @@
       <c r="P8" s="95"/>
       <c r="Q8" s="85"/>
     </row>
-    <row r="9" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="9" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +3648,11 @@
       <c r="Q9" s="110" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R9" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A10" s="81" t="s">
         <v>1</v>
       </c>
@@ -3372,8 +3672,11 @@
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="89"/>
-    </row>
-    <row r="11" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R10" s="130" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A11" s="82" t="s">
         <v>94</v>
       </c>
@@ -3399,8 +3702,11 @@
       </c>
       <c r="P11" s="85"/>
       <c r="Q11" s="90"/>
-    </row>
-    <row r="12" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="S11" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A12" s="82" t="s">
         <v>95</v>
       </c>
@@ -3421,7 +3727,7 @@
       <c r="P12" s="85"/>
       <c r="Q12" s="85"/>
     </row>
-    <row r="13" spans="1:17" customFormat="1" ht="96" customHeight="1">
+    <row r="13" spans="1:22" customFormat="1" ht="96" customHeight="1">
       <c r="A13" s="82" t="s">
         <v>4</v>
       </c>
@@ -3454,7 +3760,7 @@
       <c r="P13" s="85"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="14" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="14" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A14" s="82" t="s">
         <v>5</v>
       </c>
@@ -3475,7 +3781,7 @@
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:17" customFormat="1" ht="83.1" customHeight="1">
+    <row r="15" spans="1:22" customFormat="1" ht="83.1" customHeight="1">
       <c r="A15" s="81" t="s">
         <v>6</v>
       </c>
@@ -3509,8 +3815,14 @@
       <c r="O15" s="85"/>
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
-    </row>
-    <row r="16" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R15" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="S15" s="46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
       <c r="A16" s="81" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3843,7 @@
       <c r="P16" s="85"/>
       <c r="Q16" s="85"/>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="129.75" customHeight="1">
+    <row r="17" spans="1:19" customFormat="1" ht="129.75" customHeight="1">
       <c r="A17" s="81" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3876,7 @@
       <c r="P17" s="85"/>
       <c r="Q17" s="85"/>
     </row>
-    <row r="18" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A18" s="81" t="s">
         <v>54</v>
       </c>
@@ -3585,7 +3897,7 @@
       <c r="P18" s="85"/>
       <c r="Q18" s="85"/>
     </row>
-    <row r="19" spans="1:17" customFormat="1" ht="188.1" customHeight="1">
+    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
       <c r="A19" s="81" t="s">
         <v>9</v>
       </c>
@@ -3611,8 +3923,11 @@
       </c>
       <c r="P19" s="85"/>
       <c r="Q19" s="85"/>
-    </row>
-    <row r="20" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R19" s="77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A20" s="81" t="s">
         <v>96</v>
       </c>
@@ -3646,8 +3961,11 @@
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="85"/>
-    </row>
-    <row r="21" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+      <c r="S20" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A21" s="81" t="s">
         <v>97</v>
       </c>
@@ -3668,7 +3986,7 @@
       <c r="P21" s="85"/>
       <c r="Q21" s="85"/>
     </row>
-    <row r="22" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A22" s="81" t="s">
         <v>48</v>
       </c>
@@ -3695,7 +4013,7 @@
       <c r="P22" s="85"/>
       <c r="Q22" s="92"/>
     </row>
-    <row r="23" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A23" s="81" t="s">
         <v>49</v>
       </c>
@@ -3716,7 +4034,7 @@
       <c r="P23" s="92"/>
       <c r="Q23" s="92"/>
     </row>
-    <row r="24" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A24" s="81" t="s">
         <v>98</v>
       </c>
@@ -3737,7 +4055,7 @@
       <c r="P24" s="85"/>
       <c r="Q24" s="92"/>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A25" s="81" t="s">
         <v>99</v>
       </c>
@@ -3758,7 +4076,7 @@
       <c r="P25" s="85"/>
       <c r="Q25" s="94"/>
     </row>
-    <row r="26" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A26" s="81" t="s">
         <v>10</v>
       </c>
@@ -3785,7 +4103,7 @@
       <c r="P26" s="85"/>
       <c r="Q26" s="85"/>
     </row>
-    <row r="27" spans="1:17" customFormat="1" ht="51.95" customHeight="1">
+    <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A27" s="81" t="s">
         <v>58</v>
       </c>
@@ -3806,11 +4124,11 @@
       <c r="P27" s="85"/>
       <c r="Q27" s="85"/>
     </row>
-    <row r="28" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="29" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="30" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="31" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="32" spans="1:17" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="28" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="29" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="30" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="31" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="32" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
     <row r="33" customFormat="1" ht="51.95" customHeight="1"/>
     <row r="34" customFormat="1" ht="51.95" customHeight="1"/>
     <row r="35" customFormat="1" ht="51.95" customHeight="1"/>
@@ -3848,7 +4166,7 @@
   <sortState columnSort="1" ref="A1:K27">
     <sortCondition ref="A1:K1"/>
   </sortState>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F4:Q4">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>10</formula>
@@ -3889,9 +4207,15 @@
     <hyperlink ref="B6" r:id="rId29"/>
     <hyperlink ref="E9" r:id="rId30"/>
     <hyperlink ref="E7" r:id="rId31"/>
+    <hyperlink ref="R9" r:id="rId32"/>
+    <hyperlink ref="R7" r:id="rId33"/>
+    <hyperlink ref="S6" r:id="rId34"/>
+    <hyperlink ref="T6" r:id="rId35"/>
+    <hyperlink ref="U6" r:id="rId36"/>
+    <hyperlink ref="V6" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId38"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4348,7 +4672,7 @@
       <c r="AA12" s="73"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>10</formula>
@@ -4591,7 +4915,7 @@
       <c r="F22" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="D3:E22">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>10</formula>
@@ -4881,7 +5205,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5145,7 +5469,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6046,7 +6370,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1"/>
     <hyperlink ref="J4" r:id="rId2"/>
@@ -6655,7 +6979,7 @@
       <c r="B161" s="63"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6682,17 +7006,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="122"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="123" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -6703,13 +7027,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="120"/>
+      <c r="E2" s="124"/>
       <c r="F2" s="66" t="s">
         <v>73</v>
       </c>
@@ -6849,7 +7173,7 @@
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="420" windowWidth="19440" windowHeight="12240" tabRatio="712"/>
+    <workbookView xWindow="1185" yWindow="450" windowWidth="19440" windowHeight="12210" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
   <si>
     <t>编号</t>
   </si>
@@ -648,10 +648,6 @@
   </si>
   <si>
     <t>Three letters of recommendation from current or past employers, community leaders, current or former professors, etc. are required. Applicants are also welcome to use more than one individual from a workplace or organization.</t>
-  </si>
-  <si>
-    <t>Personal Objectives Statement
-A one page, double spaced, typed essay outlining the applicant’s academic interests and goals. This may be submitted with the online application, or you can submit a hard copy by mail, email, or fax at the address below.</t>
   </si>
   <si>
     <r>
@@ -1721,6 +1717,61 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ackup11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>backup12</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">airField
+</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personal Objectives Statement
+A one page, double spaced, typed essay outlining the applicant’s academic interests and goals. This may be submitted with the online application, or you can submit a hard copy by mail, email, or fax at the address below.</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2821,6 +2872,24 @@
     <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2838,24 +2907,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3197,11 +3248,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q1" sqref="Q1:V1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -3236,7 +3287,7 @@
     <col min="34" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+    <row r="1" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A1" s="81">
         <v>0</v>
       </c>
@@ -3274,72 +3325,78 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="83" t="s">
         <v>170</v>
-      </c>
-      <c r="N1" s="83" t="s">
-        <v>171</v>
       </c>
       <c r="O1" s="85" t="s">
         <v>123</v>
       </c>
       <c r="P1" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" s="85" t="s">
-        <v>173</v>
-      </c>
       <c r="R1" s="85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S1" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="U1" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="V1" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="W1" s="85" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="X1" s="85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="119" t="s">
         <v>167</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="119" t="s">
-        <v>168</v>
       </c>
       <c r="F2" s="84" t="s">
         <v>129</v>
       </c>
       <c r="G2" s="118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I2" s="118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>116</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" s="84" t="s">
         <v>108</v>
@@ -3348,31 +3405,34 @@
         <v>127</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" s="84" t="s">
         <v>103</v>
       </c>
       <c r="Q2" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="129" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="T2" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="U2" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="U2" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="129" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" customFormat="1" ht="81" customHeight="1">
+      <c r="W2" s="52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" customFormat="1" ht="81" customHeight="1">
       <c r="A3" s="81" t="s">
         <v>50</v>
       </c>
@@ -3412,20 +3472,20 @@
       <c r="Q3" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="131" t="s">
-        <v>180</v>
+      <c r="R3" s="125" t="s">
+        <v>179</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="T3" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="V3" s="134" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="T3" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="V3" s="128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A4" s="81" t="s">
         <v>100</v>
       </c>
@@ -3446,7 +3506,7 @@
       <c r="P4" s="86"/>
       <c r="Q4" s="86"/>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A5" s="81" t="s">
         <v>101</v>
       </c>
@@ -3486,33 +3546,33 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+    <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A6" s="81" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="102" t="s">
         <v>90</v>
       </c>
       <c r="G6" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="102" t="s">
         <v>90</v>
       </c>
       <c r="I6" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" s="102" t="s">
         <v>90</v>
@@ -3521,7 +3581,7 @@
         <v>90</v>
       </c>
       <c r="L6" s="110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" s="102" t="s">
         <v>90</v>
@@ -3539,19 +3599,22 @@
         <v>90</v>
       </c>
       <c r="S6" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U6" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V6" s="39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+      <c r="W6" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
@@ -3559,7 +3622,7 @@
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
       <c r="E7" s="110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="103" t="s">
         <v>91</v>
@@ -3583,19 +3646,19 @@
         <v>126</v>
       </c>
       <c r="O7" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P7" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" customFormat="1" ht="99.95" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>51</v>
       </c>
@@ -3616,7 +3679,7 @@
       <c r="P8" s="95"/>
       <c r="Q8" s="85"/>
     </row>
-    <row r="9" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
@@ -3624,7 +3687,7 @@
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
       <c r="E9" s="110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>118</v>
@@ -3636,7 +3699,7 @@
         <v>115</v>
       </c>
       <c r="K9" s="110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" s="107"/>
       <c r="M9" s="110" t="s">
@@ -3646,13 +3709,13 @@
       <c r="O9" s="98"/>
       <c r="P9" s="99"/>
       <c r="Q9" s="110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A10" s="81" t="s">
         <v>1</v>
       </c>
@@ -3672,21 +3735,21 @@
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="89"/>
-      <c r="R10" s="130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+      <c r="R10" s="124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A11" s="82" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="85"/>
       <c r="G11" s="85"/>
@@ -3698,15 +3761,15 @@
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
       <c r="O11" s="112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P11" s="85"/>
       <c r="Q11" s="90"/>
       <c r="S11" s="52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A12" s="82" t="s">
         <v>95</v>
       </c>
@@ -3727,20 +3790,20 @@
       <c r="P12" s="85"/>
       <c r="Q12" s="85"/>
     </row>
-    <row r="13" spans="1:22" customFormat="1" ht="96" customHeight="1">
+    <row r="13" spans="1:24" customFormat="1" ht="96" customHeight="1">
       <c r="A13" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
@@ -3755,12 +3818,12 @@
         <v>128</v>
       </c>
       <c r="O13" s="110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P13" s="85"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A14" s="82" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +3844,7 @@
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:22" customFormat="1" ht="83.1" customHeight="1">
+    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
       <c r="A15" s="81" t="s">
         <v>6</v>
       </c>
@@ -3789,7 +3852,7 @@
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="85" t="s">
         <v>130</v>
@@ -3816,13 +3879,13 @@
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
       <c r="R15" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" customFormat="1" ht="51.95" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A16" s="81" t="s">
         <v>7</v>
       </c>
@@ -3851,7 +3914,7 @@
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
@@ -3863,10 +3926,10 @@
         <v>114</v>
       </c>
       <c r="K17" s="85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M17" s="114" t="s">
         <v>121</v>
@@ -3906,7 +3969,7 @@
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
@@ -3919,12 +3982,12 @@
       <c r="M19" s="85"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P19" s="85"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
@@ -3933,14 +3996,14 @@
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="85"/>
@@ -3949,7 +4012,7 @@
         <v>112</v>
       </c>
       <c r="K20" s="115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L20" s="85"/>
       <c r="M20" s="116" t="s">
@@ -3962,7 +4025,7 @@
       <c r="P20" s="85"/>
       <c r="Q20" s="85"/>
       <c r="S20" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
@@ -3995,7 +4058,7 @@
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="85"/>
       <c r="H22" s="85" t="s">
@@ -4084,7 +4147,7 @@
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
@@ -4098,7 +4161,7 @@
       </c>
       <c r="N26" s="85"/>
       <c r="O26" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85"/>
@@ -4213,9 +4276,10 @@
     <hyperlink ref="T6" r:id="rId35"/>
     <hyperlink ref="U6" r:id="rId36"/>
     <hyperlink ref="V6" r:id="rId37"/>
+    <hyperlink ref="W6" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7006,17 +7070,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="126"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="129" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -7027,13 +7091,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="124"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="66" t="s">
         <v>73</v>
       </c>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="450" windowWidth="19440" windowHeight="12210" tabRatio="712"/>
+    <workbookView xWindow="8740" yWindow="3160" windowWidth="19440" windowHeight="12220" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1575,7 +1575,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup6</t>
@@ -1672,7 +1671,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup8</t>
@@ -1681,7 +1679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1701,7 +1699,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup10</t>
@@ -1710,7 +1707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1727,7 +1724,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup11</t>
@@ -1736,7 +1732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1756,7 +1752,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">airField
@@ -1779,16 +1774,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="d\/mmm\/yy"/>
-    <numFmt numFmtId="177" formatCode="d\/mmm"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="d\/mmm\/yy"/>
+    <numFmt numFmtId="167" formatCode="d\/mmm"/>
+    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="170" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="171" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1798,7 +1793,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2536,7 +2531,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,16 +2540,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,7 +2603,7 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,7 +2648,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2668,7 +2663,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2677,10 +2672,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2725,10 +2720,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2740,10 +2735,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2761,10 +2756,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2863,13 +2858,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2910,24 +2905,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3255,39 +3250,38 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="15.375" style="49" customWidth="1"/>
-    <col min="6" max="7" width="18.25" style="49" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="49" customWidth="1"/>
+    <col min="1" max="5" width="15.33203125" style="49" customWidth="1"/>
+    <col min="6" max="7" width="18.1640625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="49" customWidth="1"/>
     <col min="10" max="10" width="17" style="49" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="49" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="49" customWidth="1"/>
     <col min="14" max="14" width="13" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="49" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="49" customWidth="1"/>
+    <col min="15" max="16" width="9.6640625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="49" customWidth="1"/>
     <col min="18" max="18" width="8" style="49" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="49" customWidth="1"/>
-    <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="49" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="49" customWidth="1"/>
-    <col min="23" max="24" width="12.125" style="49" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="49" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="49" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="49" customWidth="1"/>
+    <col min="23" max="24" width="12.1640625" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="49" customWidth="1"/>
     <col min="26" max="26" width="15.5" style="49" customWidth="1"/>
     <col min="27" max="27" width="10" style="49" customWidth="1"/>
-    <col min="28" max="28" width="16.125" style="49" customWidth="1"/>
-    <col min="29" max="29" width="11.625" style="49" customWidth="1"/>
-    <col min="30" max="30" width="15.125" style="49" customWidth="1"/>
-    <col min="31" max="31" width="17.875" style="49" customWidth="1"/>
-    <col min="32" max="32" width="18.375" style="49" customWidth="1"/>
-    <col min="33" max="33" width="16.125" style="49" customWidth="1"/>
-    <col min="34" max="16384" width="8.875" style="49"/>
+    <col min="28" max="28" width="16.1640625" style="49" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="49" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" style="49" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" style="49" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="49" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" style="49" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="1" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A1" s="81">
         <v>0</v>
       </c>
@@ -3361,7 +3355,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
+    <row r="2" spans="1:24" customFormat="1" ht="110" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>117</v>
       </c>
@@ -3485,7 +3479,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="4" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A4" s="81" t="s">
         <v>100</v>
       </c>
@@ -3506,7 +3500,7 @@
       <c r="P4" s="86"/>
       <c r="Q4" s="86"/>
     </row>
-    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="5" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A5" s="81" t="s">
         <v>101</v>
       </c>
@@ -3546,7 +3540,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="6" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A6" s="81" t="s">
         <v>84</v>
       </c>
@@ -3614,7 +3608,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="7" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
@@ -3658,7 +3652,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:24" customFormat="1" ht="99.95" customHeight="1">
+    <row r="8" spans="1:24" customFormat="1" ht="100" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>51</v>
       </c>
@@ -3679,7 +3673,7 @@
       <c r="P8" s="95"/>
       <c r="Q8" s="85"/>
     </row>
-    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="9" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
@@ -3715,7 +3709,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="10" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A10" s="81" t="s">
         <v>1</v>
       </c>
@@ -3739,7 +3733,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="11" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A11" s="82" t="s">
         <v>94</v>
       </c>
@@ -3769,7 +3763,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="12" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A12" s="82" t="s">
         <v>95</v>
       </c>
@@ -3823,7 +3817,7 @@
       <c r="P13" s="85"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="14" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A14" s="82" t="s">
         <v>5</v>
       </c>
@@ -3844,7 +3838,7 @@
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
+    <row r="15" spans="1:24" customFormat="1" ht="83" customHeight="1">
       <c r="A15" s="81" t="s">
         <v>6</v>
       </c>
@@ -3885,7 +3879,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="16" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A16" s="81" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3933,7 @@
       <c r="P17" s="85"/>
       <c r="Q17" s="85"/>
     </row>
-    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="18" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A18" s="81" t="s">
         <v>54</v>
       </c>
@@ -3960,7 +3954,7 @@
       <c r="P18" s="85"/>
       <c r="Q18" s="85"/>
     </row>
-    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
+    <row r="19" spans="1:19" customFormat="1" ht="188" customHeight="1">
       <c r="A19" s="81" t="s">
         <v>9</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="20" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A20" s="81" t="s">
         <v>96</v>
       </c>
@@ -4028,7 +4022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="21" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A21" s="81" t="s">
         <v>97</v>
       </c>
@@ -4049,7 +4043,7 @@
       <c r="P21" s="85"/>
       <c r="Q21" s="85"/>
     </row>
-    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="22" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A22" s="81" t="s">
         <v>48</v>
       </c>
@@ -4076,7 +4070,7 @@
       <c r="P22" s="85"/>
       <c r="Q22" s="92"/>
     </row>
-    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="23" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A23" s="81" t="s">
         <v>49</v>
       </c>
@@ -4097,7 +4091,7 @@
       <c r="P23" s="92"/>
       <c r="Q23" s="92"/>
     </row>
-    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="24" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A24" s="81" t="s">
         <v>98</v>
       </c>
@@ -4118,7 +4112,7 @@
       <c r="P24" s="85"/>
       <c r="Q24" s="92"/>
     </row>
-    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="25" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A25" s="81" t="s">
         <v>99</v>
       </c>
@@ -4139,7 +4133,7 @@
       <c r="P25" s="85"/>
       <c r="Q25" s="94"/>
     </row>
-    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="26" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A26" s="81" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4160,7 @@
       <c r="P26" s="85"/>
       <c r="Q26" s="85"/>
     </row>
-    <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="27" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A27" s="81" t="s">
         <v>58</v>
       </c>
@@ -4187,44 +4181,44 @@
       <c r="P27" s="85"/>
       <c r="Q27" s="85"/>
     </row>
-    <row r="28" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="29" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="30" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="31" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="32" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="33" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="34" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="35" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="36" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="37" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="38" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="39" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="40" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="41" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="42" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="43" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="44" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="45" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="46" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="47" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="48" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="49" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="50" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="51" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="52" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="53" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="54" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="55" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="56" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="57" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="58" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="59" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="60" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="61" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="62" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="63" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="64" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="65" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="28" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="29" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="30" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="31" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="32" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="33" customFormat="1" ht="52" customHeight="1"/>
+    <row r="34" customFormat="1" ht="52" customHeight="1"/>
+    <row r="35" customFormat="1" ht="52" customHeight="1"/>
+    <row r="36" customFormat="1" ht="52" customHeight="1"/>
+    <row r="37" customFormat="1" ht="52" customHeight="1"/>
+    <row r="38" customFormat="1" ht="52" customHeight="1"/>
+    <row r="39" customFormat="1" ht="52" customHeight="1"/>
+    <row r="40" customFormat="1" ht="52" customHeight="1"/>
+    <row r="41" customFormat="1" ht="52" customHeight="1"/>
+    <row r="42" customFormat="1" ht="52" customHeight="1"/>
+    <row r="43" customFormat="1" ht="52" customHeight="1"/>
+    <row r="44" customFormat="1" ht="52" customHeight="1"/>
+    <row r="45" customFormat="1" ht="52" customHeight="1"/>
+    <row r="46" customFormat="1" ht="52" customHeight="1"/>
+    <row r="47" customFormat="1" ht="52" customHeight="1"/>
+    <row r="48" customFormat="1" ht="52" customHeight="1"/>
+    <row r="49" customFormat="1" ht="52" customHeight="1"/>
+    <row r="50" customFormat="1" ht="52" customHeight="1"/>
+    <row r="51" customFormat="1" ht="52" customHeight="1"/>
+    <row r="52" customFormat="1" ht="52" customHeight="1"/>
+    <row r="53" customFormat="1" ht="52" customHeight="1"/>
+    <row r="54" customFormat="1" ht="52" customHeight="1"/>
+    <row r="55" customFormat="1" ht="52" customHeight="1"/>
+    <row r="56" customFormat="1" ht="52" customHeight="1"/>
+    <row r="57" customFormat="1" ht="52" customHeight="1"/>
+    <row r="58" customFormat="1" ht="52" customHeight="1"/>
+    <row r="59" customFormat="1" ht="52" customHeight="1"/>
+    <row r="60" customFormat="1" ht="52" customHeight="1"/>
+    <row r="61" customFormat="1" ht="52" customHeight="1"/>
+    <row r="62" customFormat="1" ht="52" customHeight="1"/>
+    <row r="63" customFormat="1" ht="52" customHeight="1"/>
+    <row r="64" customFormat="1" ht="52" customHeight="1"/>
+    <row r="65" customFormat="1" ht="52" customHeight="1"/>
   </sheetData>
   <sortState columnSort="1" ref="A1:K27">
     <sortCondition ref="A1:K1"/>
@@ -4279,7 +4273,6 @@
     <hyperlink ref="W6" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4301,38 +4294,38 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="49" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="49" customWidth="1"/>
     <col min="11" max="11" width="11" style="49" customWidth="1"/>
     <col min="12" max="12" width="8" style="49" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="49" customWidth="1"/>
-    <col min="17" max="18" width="12.125" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="49" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="49" customWidth="1"/>
     <col min="20" max="20" width="15.5" style="49" customWidth="1"/>
     <col min="21" max="21" width="10" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="49" customWidth="1"/>
-    <col min="24" max="24" width="15.125" style="49" customWidth="1"/>
-    <col min="25" max="25" width="17.875" style="49" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="49" customWidth="1"/>
-    <col min="27" max="27" width="16.125" style="49" customWidth="1"/>
-    <col min="28" max="16384" width="8.875" style="49"/>
+    <col min="22" max="22" width="16.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="49" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="49" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="49" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="49" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="51.95" customHeight="1">
+    <row r="1" spans="1:27" ht="52" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -4416,7 +4409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="51.95" customHeight="1">
+    <row r="2" spans="1:27" ht="52" customHeight="1">
       <c r="A2" s="83"/>
       <c r="B2" s="84"/>
       <c r="C2" s="85"/>
@@ -4445,7 +4438,7 @@
       <c r="Z2" s="88"/>
       <c r="AA2" s="85"/>
     </row>
-    <row r="3" spans="1:27" ht="51.95" customHeight="1">
+    <row r="3" spans="1:27" ht="52" customHeight="1">
       <c r="A3" s="85"/>
       <c r="B3" s="84"/>
       <c r="C3" s="85"/>
@@ -4474,7 +4467,7 @@
       <c r="Z3" s="85"/>
       <c r="AA3" s="85"/>
     </row>
-    <row r="4" spans="1:27" ht="51.95" customHeight="1">
+    <row r="4" spans="1:27" ht="52" customHeight="1">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="85"/>
@@ -4503,7 +4496,7 @@
       <c r="Z4" s="85"/>
       <c r="AA4" s="85"/>
     </row>
-    <row r="5" spans="1:27" ht="51.95" customHeight="1">
+    <row r="5" spans="1:27" ht="52" customHeight="1">
       <c r="A5" s="85"/>
       <c r="B5" s="84"/>
       <c r="C5" s="85"/>
@@ -4532,7 +4525,7 @@
       <c r="Z5" s="85"/>
       <c r="AA5" s="85"/>
     </row>
-    <row r="6" spans="1:27" ht="51.95" customHeight="1">
+    <row r="6" spans="1:27" ht="52" customHeight="1">
       <c r="A6" s="83"/>
       <c r="B6" s="84"/>
       <c r="C6" s="85"/>
@@ -4561,7 +4554,7 @@
       <c r="Z6" s="85"/>
       <c r="AA6" s="85"/>
     </row>
-    <row r="7" spans="1:27" ht="51.95" customHeight="1">
+    <row r="7" spans="1:27" ht="52" customHeight="1">
       <c r="A7" s="85"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85"/>
@@ -4590,7 +4583,7 @@
       <c r="Z7" s="85"/>
       <c r="AA7" s="85"/>
     </row>
-    <row r="8" spans="1:27" ht="99.95" customHeight="1">
+    <row r="8" spans="1:27" ht="100" customHeight="1">
       <c r="A8" s="83"/>
       <c r="B8" s="84"/>
       <c r="C8" s="85"/>
@@ -4619,7 +4612,7 @@
       <c r="Z8" s="85"/>
       <c r="AA8" s="85"/>
     </row>
-    <row r="9" spans="1:27" ht="51.95" customHeight="1">
+    <row r="9" spans="1:27" ht="52" customHeight="1">
       <c r="A9" s="85"/>
       <c r="B9" s="84"/>
       <c r="C9" s="100"/>
@@ -4648,7 +4641,7 @@
       <c r="Z9" s="99"/>
       <c r="AA9" s="85"/>
     </row>
-    <row r="10" spans="1:27" ht="51.95" customHeight="1">
+    <row r="10" spans="1:27" ht="52" customHeight="1">
       <c r="A10" s="83"/>
       <c r="B10" s="84"/>
       <c r="C10" s="85"/>
@@ -4677,7 +4670,7 @@
       <c r="Z10" s="85"/>
       <c r="AA10" s="85"/>
     </row>
-    <row r="11" spans="1:27" ht="51.95" customHeight="1">
+    <row r="11" spans="1:27" ht="52" customHeight="1">
       <c r="A11" s="85"/>
       <c r="B11" s="84"/>
       <c r="C11" s="85"/>
@@ -4706,7 +4699,7 @@
       <c r="Z11" s="85"/>
       <c r="AA11" s="85"/>
     </row>
-    <row r="12" spans="1:27" ht="51.95" customHeight="1">
+    <row r="12" spans="1:27" ht="52" customHeight="1">
       <c r="A12" s="73"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -4743,7 +4736,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4761,14 +4753,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.125" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5007,13 +4999,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5287,14 +5279,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5326,7 +5318,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67.5">
+    <row r="2" spans="1:7" ht="70">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
@@ -5382,7 +5374,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="62.1" customHeight="1">
+    <row r="8" spans="1:7" ht="62" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="78"/>
       <c r="C8" s="44"/>
@@ -5554,30 +5546,30 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="1"/>
+    <col min="10" max="10" width="9.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="32">
       <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
@@ -6164,7 +6156,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="17.25">
+    <row r="24" spans="1:18" ht="16">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6304,7 +6296,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1">
+    <row r="31" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -6324,7 +6316,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1">
+    <row r="32" spans="1:18" s="4" customFormat="1" ht="15">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -6344,7 +6336,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1">
+    <row r="33" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -6364,7 +6356,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1">
+    <row r="34" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -6384,7 +6376,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" ht="15">
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -6394,7 +6386,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" ht="15">
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -6404,7 +6396,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="15">
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -6414,7 +6406,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="15">
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -6424,11 +6416,11 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="56" spans="3:17">
+    <row r="56" spans="3:17" ht="15">
       <c r="F56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="3:17" ht="409.35" customHeight="1">
+    <row r="57" spans="3:17" ht="409.25" customHeight="1">
       <c r="C57" s="6" t="s">
         <v>47</v>
       </c>
@@ -6460,9 +6452,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7061,15 +7053,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="32.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.1" customHeight="1">
+    <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="A1" s="129" t="s">
         <v>70</v>
       </c>
@@ -7090,7 +7082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A2" s="130"/>
       <c r="B2" s="133"/>
       <c r="C2" s="134"/>
@@ -7105,7 +7097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A3" s="70"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -7114,7 +7106,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -7123,7 +7115,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -7132,7 +7124,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -7141,7 +7133,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A7" s="70"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -7150,7 +7142,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -7159,7 +7151,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
     </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A9" s="70"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -7168,7 +7160,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A10" s="71"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -7177,7 +7169,7 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A11" s="70"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -7186,7 +7178,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
     </row>
-    <row r="12" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -7195,7 +7187,7 @@
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
     </row>
-    <row r="13" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A13" s="70"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -7204,7 +7196,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
@@ -7213,7 +7205,7 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A15" s="70"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -7222,7 +7214,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A16" s="71"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -7239,7 +7231,6 @@
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="3160" windowWidth="19440" windowHeight="12220" tabRatio="712"/>
+    <workbookView xWindow="8745" yWindow="3165" windowWidth="19440" windowHeight="12225" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
   <si>
     <t>编号</t>
   </si>
@@ -1575,6 +1575,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup6</t>
@@ -1671,6 +1672,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup8</t>
@@ -1679,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1699,6 +1701,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup10</t>
@@ -1707,7 +1710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1724,6 +1727,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup11</t>
@@ -1732,7 +1736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1741,9 +1745,6 @@
     </r>
   </si>
   <si>
-    <t>backup12</t>
-  </si>
-  <si>
     <r>
       <t>F</t>
     </r>
@@ -1752,6 +1753,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">airField
@@ -1774,16 +1776,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="d\/mmm\/yy"/>
-    <numFmt numFmtId="167" formatCode="d\/mmm"/>
-    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="170" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="171" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="d\/mmm\/yy"/>
+    <numFmt numFmtId="177" formatCode="d\/mmm"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1793,7 +1795,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2531,7 +2533,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2540,16 +2542,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2603,7 +2605,7 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2648,7 +2650,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2663,7 +2665,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2672,10 +2674,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2720,10 +2722,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2735,10 +2737,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,10 +2758,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2858,13 +2860,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2905,24 +2907,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3246,42 +3248,44 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.33203125" style="49" customWidth="1"/>
-    <col min="6" max="7" width="18.1640625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="49" customWidth="1"/>
+    <col min="2" max="4" width="15.375" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="49" customWidth="1"/>
+    <col min="6" max="7" width="18.125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="49" customWidth="1"/>
     <col min="10" max="10" width="17" style="49" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
     <col min="14" max="14" width="13" style="49" customWidth="1"/>
-    <col min="15" max="16" width="9.6640625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="8" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="49" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="49" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="49" customWidth="1"/>
-    <col min="23" max="24" width="12.1640625" style="49" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="49" customWidth="1"/>
+    <col min="15" max="16" width="9.625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="49" customWidth="1"/>
+    <col min="18" max="18" width="8" style="49" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="49" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="49" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="49" customWidth="1"/>
+    <col min="23" max="24" width="12.125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="49" customWidth="1"/>
     <col min="26" max="26" width="15.5" style="49" customWidth="1"/>
     <col min="27" max="27" width="10" style="49" customWidth="1"/>
-    <col min="28" max="28" width="16.1640625" style="49" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" style="49" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" style="49" customWidth="1"/>
-    <col min="31" max="31" width="17.83203125" style="49" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="49" customWidth="1"/>
-    <col min="33" max="33" width="16.1640625" style="49" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="49"/>
+    <col min="28" max="28" width="16.125" style="49" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="49" customWidth="1"/>
+    <col min="30" max="30" width="15.125" style="49" customWidth="1"/>
+    <col min="31" max="31" width="17.875" style="49" customWidth="1"/>
+    <col min="32" max="32" width="18.375" style="49" customWidth="1"/>
+    <col min="33" max="33" width="16.125" style="49" customWidth="1"/>
+    <col min="34" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="1" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A1" s="81">
         <v>0</v>
       </c>
@@ -3351,11 +3355,9 @@
       <c r="W1" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="X1" s="85" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" customFormat="1" ht="110" customHeight="1">
+      <c r="X1" s="85"/>
+    </row>
+    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>117</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>190</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:24" customFormat="1" ht="81" customHeight="1">
@@ -3479,7 +3481,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A4" s="81" t="s">
         <v>100</v>
       </c>
@@ -3500,7 +3502,7 @@
       <c r="P4" s="86"/>
       <c r="Q4" s="86"/>
     </row>
-    <row r="5" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A5" s="81" t="s">
         <v>101</v>
       </c>
@@ -3540,7 +3542,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="6" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A6" s="81" t="s">
         <v>84</v>
       </c>
@@ -3605,10 +3607,10 @@
         <v>90</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" customFormat="1" ht="52" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:24" customFormat="1" ht="100" customHeight="1">
+    <row r="8" spans="1:24" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>51</v>
       </c>
@@ -3673,7 +3675,7 @@
       <c r="P8" s="95"/>
       <c r="Q8" s="85"/>
     </row>
-    <row r="9" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A10" s="81" t="s">
         <v>1</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A11" s="82" t="s">
         <v>94</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A12" s="82" t="s">
         <v>95</v>
       </c>
@@ -3817,7 +3819,7 @@
       <c r="P13" s="85"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="14" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A14" s="82" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3840,7 @@
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:24" customFormat="1" ht="83" customHeight="1">
+    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
       <c r="A15" s="81" t="s">
         <v>6</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A16" s="81" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3935,7 @@
       <c r="P17" s="85"/>
       <c r="Q17" s="85"/>
     </row>
-    <row r="18" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A18" s="81" t="s">
         <v>54</v>
       </c>
@@ -3954,7 +3956,7 @@
       <c r="P18" s="85"/>
       <c r="Q18" s="85"/>
     </row>
-    <row r="19" spans="1:19" customFormat="1" ht="188" customHeight="1">
+    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
       <c r="A19" s="81" t="s">
         <v>9</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A20" s="81" t="s">
         <v>96</v>
       </c>
@@ -3997,7 +3999,7 @@
         <v>162</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="85"/>
@@ -4022,7 +4024,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A21" s="81" t="s">
         <v>97</v>
       </c>
@@ -4043,7 +4045,7 @@
       <c r="P21" s="85"/>
       <c r="Q21" s="85"/>
     </row>
-    <row r="22" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A22" s="81" t="s">
         <v>48</v>
       </c>
@@ -4070,7 +4072,7 @@
       <c r="P22" s="85"/>
       <c r="Q22" s="92"/>
     </row>
-    <row r="23" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A23" s="81" t="s">
         <v>49</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="P23" s="92"/>
       <c r="Q23" s="92"/>
     </row>
-    <row r="24" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A24" s="81" t="s">
         <v>98</v>
       </c>
@@ -4112,7 +4114,7 @@
       <c r="P24" s="85"/>
       <c r="Q24" s="92"/>
     </row>
-    <row r="25" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A25" s="81" t="s">
         <v>99</v>
       </c>
@@ -4133,7 +4135,7 @@
       <c r="P25" s="85"/>
       <c r="Q25" s="94"/>
     </row>
-    <row r="26" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A26" s="81" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4162,7 @@
       <c r="P26" s="85"/>
       <c r="Q26" s="85"/>
     </row>
-    <row r="27" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A27" s="81" t="s">
         <v>58</v>
       </c>
@@ -4181,44 +4183,44 @@
       <c r="P27" s="85"/>
       <c r="Q27" s="85"/>
     </row>
-    <row r="28" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="29" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="30" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="31" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="32" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="33" customFormat="1" ht="52" customHeight="1"/>
-    <row r="34" customFormat="1" ht="52" customHeight="1"/>
-    <row r="35" customFormat="1" ht="52" customHeight="1"/>
-    <row r="36" customFormat="1" ht="52" customHeight="1"/>
-    <row r="37" customFormat="1" ht="52" customHeight="1"/>
-    <row r="38" customFormat="1" ht="52" customHeight="1"/>
-    <row r="39" customFormat="1" ht="52" customHeight="1"/>
-    <row r="40" customFormat="1" ht="52" customHeight="1"/>
-    <row r="41" customFormat="1" ht="52" customHeight="1"/>
-    <row r="42" customFormat="1" ht="52" customHeight="1"/>
-    <row r="43" customFormat="1" ht="52" customHeight="1"/>
-    <row r="44" customFormat="1" ht="52" customHeight="1"/>
-    <row r="45" customFormat="1" ht="52" customHeight="1"/>
-    <row r="46" customFormat="1" ht="52" customHeight="1"/>
-    <row r="47" customFormat="1" ht="52" customHeight="1"/>
-    <row r="48" customFormat="1" ht="52" customHeight="1"/>
-    <row r="49" customFormat="1" ht="52" customHeight="1"/>
-    <row r="50" customFormat="1" ht="52" customHeight="1"/>
-    <row r="51" customFormat="1" ht="52" customHeight="1"/>
-    <row r="52" customFormat="1" ht="52" customHeight="1"/>
-    <row r="53" customFormat="1" ht="52" customHeight="1"/>
-    <row r="54" customFormat="1" ht="52" customHeight="1"/>
-    <row r="55" customFormat="1" ht="52" customHeight="1"/>
-    <row r="56" customFormat="1" ht="52" customHeight="1"/>
-    <row r="57" customFormat="1" ht="52" customHeight="1"/>
-    <row r="58" customFormat="1" ht="52" customHeight="1"/>
-    <row r="59" customFormat="1" ht="52" customHeight="1"/>
-    <row r="60" customFormat="1" ht="52" customHeight="1"/>
-    <row r="61" customFormat="1" ht="52" customHeight="1"/>
-    <row r="62" customFormat="1" ht="52" customHeight="1"/>
-    <row r="63" customFormat="1" ht="52" customHeight="1"/>
-    <row r="64" customFormat="1" ht="52" customHeight="1"/>
-    <row r="65" customFormat="1" ht="52" customHeight="1"/>
+    <row r="28" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="29" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="30" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="31" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="32" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="33" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="34" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="35" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="36" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="37" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="38" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="39" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="40" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="41" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="42" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="43" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="44" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="45" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="46" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="47" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="48" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="49" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="50" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="51" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="52" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="53" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="54" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="55" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="56" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="57" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="58" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="59" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="60" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="61" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="62" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="63" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="64" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="65" customFormat="1" ht="51.95" customHeight="1"/>
   </sheetData>
   <sortState columnSort="1" ref="A1:K27">
     <sortCondition ref="A1:K1"/>
@@ -4294,38 +4296,38 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="49" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="49" customWidth="1"/>
     <col min="11" max="11" width="11" style="49" customWidth="1"/>
     <col min="12" max="12" width="8" style="49" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="49" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="49" customWidth="1"/>
+    <col min="17" max="18" width="12.125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="49" customWidth="1"/>
     <col min="20" max="20" width="15.5" style="49" customWidth="1"/>
     <col min="21" max="21" width="10" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="49" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="49" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="49" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="49" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="49"/>
+    <col min="22" max="22" width="16.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="49" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="17.875" style="49" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="49" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="49" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="52" customHeight="1">
+    <row r="1" spans="1:27" ht="51.95" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="52" customHeight="1">
+    <row r="2" spans="1:27" ht="51.95" customHeight="1">
       <c r="A2" s="83"/>
       <c r="B2" s="84"/>
       <c r="C2" s="85"/>
@@ -4438,7 +4440,7 @@
       <c r="Z2" s="88"/>
       <c r="AA2" s="85"/>
     </row>
-    <row r="3" spans="1:27" ht="52" customHeight="1">
+    <row r="3" spans="1:27" ht="51.95" customHeight="1">
       <c r="A3" s="85"/>
       <c r="B3" s="84"/>
       <c r="C3" s="85"/>
@@ -4467,7 +4469,7 @@
       <c r="Z3" s="85"/>
       <c r="AA3" s="85"/>
     </row>
-    <row r="4" spans="1:27" ht="52" customHeight="1">
+    <row r="4" spans="1:27" ht="51.95" customHeight="1">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="85"/>
@@ -4496,7 +4498,7 @@
       <c r="Z4" s="85"/>
       <c r="AA4" s="85"/>
     </row>
-    <row r="5" spans="1:27" ht="52" customHeight="1">
+    <row r="5" spans="1:27" ht="51.95" customHeight="1">
       <c r="A5" s="85"/>
       <c r="B5" s="84"/>
       <c r="C5" s="85"/>
@@ -4525,7 +4527,7 @@
       <c r="Z5" s="85"/>
       <c r="AA5" s="85"/>
     </row>
-    <row r="6" spans="1:27" ht="52" customHeight="1">
+    <row r="6" spans="1:27" ht="51.95" customHeight="1">
       <c r="A6" s="83"/>
       <c r="B6" s="84"/>
       <c r="C6" s="85"/>
@@ -4554,7 +4556,7 @@
       <c r="Z6" s="85"/>
       <c r="AA6" s="85"/>
     </row>
-    <row r="7" spans="1:27" ht="52" customHeight="1">
+    <row r="7" spans="1:27" ht="51.95" customHeight="1">
       <c r="A7" s="85"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85"/>
@@ -4583,7 +4585,7 @@
       <c r="Z7" s="85"/>
       <c r="AA7" s="85"/>
     </row>
-    <row r="8" spans="1:27" ht="100" customHeight="1">
+    <row r="8" spans="1:27" ht="99.95" customHeight="1">
       <c r="A8" s="83"/>
       <c r="B8" s="84"/>
       <c r="C8" s="85"/>
@@ -4612,7 +4614,7 @@
       <c r="Z8" s="85"/>
       <c r="AA8" s="85"/>
     </row>
-    <row r="9" spans="1:27" ht="52" customHeight="1">
+    <row r="9" spans="1:27" ht="51.95" customHeight="1">
       <c r="A9" s="85"/>
       <c r="B9" s="84"/>
       <c r="C9" s="100"/>
@@ -4641,7 +4643,7 @@
       <c r="Z9" s="99"/>
       <c r="AA9" s="85"/>
     </row>
-    <row r="10" spans="1:27" ht="52" customHeight="1">
+    <row r="10" spans="1:27" ht="51.95" customHeight="1">
       <c r="A10" s="83"/>
       <c r="B10" s="84"/>
       <c r="C10" s="85"/>
@@ -4670,7 +4672,7 @@
       <c r="Z10" s="85"/>
       <c r="AA10" s="85"/>
     </row>
-    <row r="11" spans="1:27" ht="52" customHeight="1">
+    <row r="11" spans="1:27" ht="51.95" customHeight="1">
       <c r="A11" s="85"/>
       <c r="B11" s="84"/>
       <c r="C11" s="85"/>
@@ -4699,7 +4701,7 @@
       <c r="Z11" s="85"/>
       <c r="AA11" s="85"/>
     </row>
-    <row r="12" spans="1:27" ht="52" customHeight="1">
+    <row r="12" spans="1:27" ht="51.95" customHeight="1">
       <c r="A12" s="73"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -4753,14 +4755,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4999,13 +5001,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5279,14 +5281,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5318,7 +5320,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70">
+    <row r="2" spans="1:7" ht="67.5">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
@@ -5374,7 +5376,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="62" customHeight="1">
+    <row r="8" spans="1:7" ht="62.1" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="78"/>
       <c r="C8" s="44"/>
@@ -5546,30 +5548,30 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32">
+    <row r="1" spans="1:18" ht="36">
       <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
@@ -6156,7 +6158,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="16">
+    <row r="24" spans="1:18" ht="17.25">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6296,7 +6298,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="31" spans="1:18" s="4" customFormat="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -6316,7 +6318,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" ht="15">
+    <row r="32" spans="1:18" s="4" customFormat="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -6336,7 +6338,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="33" spans="1:18" s="4" customFormat="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -6356,7 +6358,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="34" spans="1:18" s="4" customFormat="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -6376,7 +6378,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="40" spans="1:18" ht="15">
+    <row r="40" spans="1:18">
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -6386,7 +6388,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:18" ht="15">
+    <row r="41" spans="1:18">
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -6396,7 +6398,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:18" ht="15">
+    <row r="42" spans="1:18">
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -6406,7 +6408,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="15">
+    <row r="43" spans="1:18">
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -6416,11 +6418,11 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="56" spans="3:17" ht="15">
+    <row r="56" spans="3:17">
       <c r="F56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="3:17" ht="409.25" customHeight="1">
+    <row r="57" spans="3:17" ht="409.35" customHeight="1">
       <c r="C57" s="6" t="s">
         <v>47</v>
       </c>
@@ -6452,9 +6454,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7053,15 +7055,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1">
       <c r="A1" s="129" t="s">
         <v>70</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A2" s="130"/>
       <c r="B2" s="133"/>
       <c r="C2" s="134"/>
@@ -7097,7 +7099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A3" s="70"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -7106,7 +7108,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -7115,7 +7117,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -7124,7 +7126,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -7133,7 +7135,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A7" s="70"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -7142,7 +7144,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -7151,7 +7153,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
     </row>
-    <row r="9" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A9" s="70"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -7160,7 +7162,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A10" s="71"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -7169,7 +7171,7 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A11" s="70"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -7178,7 +7180,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
     </row>
-    <row r="12" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -7187,7 +7189,7 @@
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
     </row>
-    <row r="13" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A13" s="70"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -7196,7 +7198,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
@@ -7205,7 +7207,7 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A15" s="70"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -7214,7 +7216,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A16" s="71"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -7231,6 +7233,7 @@
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="3165" windowWidth="19440" windowHeight="12225" tabRatio="712"/>
+    <workbookView xWindow="8745" yWindow="3165" windowWidth="19440" windowHeight="12225" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="schools" sheetId="11" r:id="rId1"/>
+    <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="网申进度表" sheetId="1" r:id="rId2"/>
     <sheet name="倒计时表" sheetId="8" r:id="rId3"/>
     <sheet name="money" sheetId="7" r:id="rId4"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$AG$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">网申进度表!$A$1:$AA$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">网申进度表!$A$1:$AA$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
@@ -31,11 +31,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andy</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Andy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Doing (等待寄送官方的Gmat，Toefl，密封的两封推荐信以及官方成绩单与学历学位证明)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="202">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -1396,61 +1429,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">雪城大学
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Syracuse University </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>综排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">62  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>68</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color indexed="16"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -1768,6 +1746,143 @@
   <si>
     <t>Personal Objectives Statement
 A one page, double spaced, typed essay outlining the applicant’s academic interests and goals. This may be submitted with the online application, or you can submit a hard copy by mail, email, or fax at the address below.</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">雪城大学
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Syracuse University </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">62  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>68 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不建议申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyc13:880715</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Doing (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等待寄送官方的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gmat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Toefl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，密封的两封推荐信以及官方成绩单与学历学位证明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度描述</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -1785,7 +1900,7 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2238,6 +2353,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2499,7 +2629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2719,9 +2849,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2761,9 +2888,6 @@
     <xf numFmtId="180" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -2803,24 +2927,15 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2904,6 +3019,54 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2926,7 +3089,52 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -3247,9 +3455,9 @@
   </sheetPr>
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -3260,7 +3468,7 @@
     <col min="6" max="7" width="18.125" style="49" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="49" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="17" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="49" customWidth="1"/>
     <col min="11" max="11" width="15.125" style="49" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
@@ -3285,257 +3493,257 @@
     <col min="34" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A1" s="81">
+    <row r="1" spans="1:24" customFormat="1" ht="81.75" customHeight="1">
+      <c r="A1" s="80">
         <v>0</v>
       </c>
-      <c r="B1" s="81">
+      <c r="B1" s="80">
         <v>1</v>
       </c>
-      <c r="C1" s="81">
+      <c r="C1" s="80">
         <v>2</v>
       </c>
-      <c r="D1" s="81">
+      <c r="D1" s="80">
         <v>3</v>
       </c>
-      <c r="E1" s="81">
+      <c r="E1" s="80">
         <v>4</v>
       </c>
-      <c r="F1" s="85">
+      <c r="F1" s="84">
         <v>5</v>
       </c>
-      <c r="G1" s="85">
+      <c r="G1" s="84">
         <v>7</v>
       </c>
-      <c r="H1" s="83">
+      <c r="H1" s="82">
         <v>6</v>
       </c>
-      <c r="I1" s="83">
+      <c r="I1" s="82">
         <v>8</v>
       </c>
-      <c r="J1" s="83">
-        <v>9</v>
-      </c>
-      <c r="K1" s="85">
+      <c r="J1" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="84">
         <v>10</v>
       </c>
-      <c r="L1" s="83">
-        <v>11</v>
-      </c>
-      <c r="M1" s="85" t="s">
+      <c r="L1" s="82">
+        <v>2</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="Q1" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="O1" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="R1" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="85" t="s">
+      <c r="R1" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="V1" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="W1" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A2" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="V2" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="W2" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="X1" s="85"/>
-    </row>
-    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="84" t="s">
+    </row>
+    <row r="3" spans="1:24" customFormat="1" ht="81" customHeight="1">
+      <c r="A3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" s="123" t="s">
+      <c r="L3" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="S2" s="123" t="s">
+      <c r="S3" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="126" t="s">
-        <v>184</v>
-      </c>
-      <c r="U2" s="126" t="s">
+      <c r="V3" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" customFormat="1" ht="81" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="T3" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="V3" s="128" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+    </row>
+    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A5" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-    </row>
-    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A5" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121">
+      <c r="B5" s="115"/>
+      <c r="C5" s="116">
         <v>41320</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="121">
+      <c r="D5" s="115"/>
+      <c r="E5" s="116">
         <v>41275</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="116">
         <v>41395</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121">
+      <c r="G5" s="116"/>
+      <c r="H5" s="116">
         <v>41306</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="121">
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="116">
         <v>41470</v>
       </c>
-      <c r="L5" s="121">
+      <c r="L5" s="116">
         <v>41281</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="121">
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="116">
         <v>41487</v>
       </c>
-      <c r="Q5" s="121">
+      <c r="Q5" s="116">
         <v>41306</v>
       </c>
       <c r="S5" s="53">
@@ -3543,645 +3751,647 @@
       </c>
     </row>
     <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A6" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="102" t="s">
+      <c r="A6" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A7" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="110" t="s">
+      <c r="G7" s="100"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="84"/>
+    </row>
+    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A9" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="105"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="102"/>
+      <c r="M9" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="97"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A11" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="88"/>
+      <c r="S11" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A12" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+    </row>
+    <row r="13" spans="1:24" customFormat="1" ht="96" customHeight="1">
+      <c r="A13" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="88"/>
+    </row>
+    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A14" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+    </row>
+    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
+      <c r="A15" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84">
+        <v>2</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="84">
+        <v>2</v>
+      </c>
+      <c r="L15" s="84">
+        <v>2</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A16" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+    </row>
+    <row r="17" spans="1:19" customFormat="1" ht="129.75" customHeight="1">
+      <c r="A17" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="105"/>
+      <c r="J17" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="M6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A7" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="110" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="110" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="P7" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q7" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A8" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="85"/>
-    </row>
-    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A9" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="110" t="s">
+      <c r="M17" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="84"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+    </row>
+    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A18" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+    </row>
+    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
+      <c r="A19" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A20" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="84"/>
+      <c r="M20" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="99"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A10" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="124" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A11" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="112" t="s">
-        <v>135</v>
-      </c>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="90"/>
-      <c r="S11" s="52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-    </row>
-    <row r="13" spans="1:24" customFormat="1" ht="96" customHeight="1">
-      <c r="A13" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85" t="s">
+      <c r="N20" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="S20" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A21" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+    </row>
+    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A22" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="90"/>
+    </row>
+    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A23" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+    </row>
+    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A24" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="90"/>
+    </row>
+    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A25" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="92"/>
+    </row>
+    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A26" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="O13" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="90"/>
-    </row>
-    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-    </row>
-    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
-      <c r="A15" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85">
-        <v>2</v>
-      </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="85">
-        <v>2</v>
-      </c>
-      <c r="L15" s="85">
-        <v>2</v>
-      </c>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="S15" s="46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A16" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-    </row>
-    <row r="17" spans="1:19" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A17" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="114" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-    </row>
-    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A18" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-    </row>
-    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
-      <c r="A19" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85" t="s">
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A20" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="N20" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="S20" s="46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A21" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-    </row>
-    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A22" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="92"/>
-    </row>
-    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A23" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-    </row>
-    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A24" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="92"/>
-    </row>
-    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A25" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="94"/>
-    </row>
-    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A26" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
     </row>
     <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
-      <c r="A27" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
+      <c r="A27" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
     </row>
     <row r="28" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
     <row r="29" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
@@ -4227,7 +4437,7 @@
   </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F4:Q4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4275,6 +4485,7 @@
     <hyperlink ref="W6" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4285,20 +4496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="49" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="49" customWidth="1"/>
     <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
@@ -4328,417 +4539,1084 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="str">
-        <f>学校列表!C1</f>
-        <v>SCHOOL</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="K1" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A2" s="82">
+        <v>1</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="H2" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" s="90"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="84"/>
+    </row>
+    <row r="3" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A3" s="82">
+        <v>2</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="116">
+        <v>41281</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="84"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84">
+        <v>2</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="101"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+    </row>
+    <row r="4" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A4" s="84">
+        <v>5</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="116">
+        <v>41395</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="I4" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="90"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+    </row>
+    <row r="5" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A5" s="82">
+        <v>6</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="116">
+        <v>41306</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84">
+        <v>2</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="87"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+    </row>
+    <row r="6" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A6" s="84">
+        <v>7</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="100"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+    </row>
+    <row r="7" spans="1:27" ht="99.95" customHeight="1">
+      <c r="A7" s="82">
+        <v>8</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="108"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+    </row>
+    <row r="8" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A8" s="84">
+        <v>10</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="116">
+        <v>41470</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="101"/>
+      <c r="I8" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84">
+        <v>2</v>
+      </c>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="84"/>
+    </row>
+    <row r="9" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A9" s="80">
+        <v>14</v>
+      </c>
+      <c r="B9" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+    </row>
+    <row r="10" spans="1:27" ht="51.75" customHeight="1">
+      <c r="A10" s="80">
+        <v>15</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="116">
+        <v>41320</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="84"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+    </row>
+    <row r="11" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A11" s="80">
+        <v>16</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+    </row>
+    <row r="12" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A12" s="80">
+        <v>17</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="116">
+        <v>41275</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="80"/>
+      <c r="K12" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="84"/>
+      <c r="O12" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA12" s="80"/>
+    </row>
+    <row r="13" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A13" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="V1" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="85"/>
-    </row>
-    <row r="3" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-    </row>
-    <row r="4" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-    </row>
-    <row r="5" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-    </row>
-    <row r="6" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-    </row>
-    <row r="7" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-    </row>
-    <row r="8" spans="1:27" ht="99.95" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-    </row>
-    <row r="9" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="85"/>
-    </row>
-    <row r="10" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-    </row>
-    <row r="11" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-    </row>
-    <row r="12" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="84"/>
+      <c r="I13" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA13" s="84"/>
+    </row>
+    <row r="14" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A14" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A15" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A16" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+    </row>
+    <row r="17" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A17" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="84"/>
+      <c r="M17" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA17" s="84"/>
+    </row>
+    <row r="18" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A18" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143">
+        <v>41487</v>
+      </c>
+      <c r="F18" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="145"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
+    </row>
+    <row r="19" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A19" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="143">
+        <v>41306</v>
+      </c>
+      <c r="F19" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="123"/>
+      <c r="I19" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="135"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+    </row>
+    <row r="20" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A20" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A21" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" s="53">
+        <v>41395</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A23" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
     </row>
   </sheetData>
+  <sortState ref="A2:AA23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="D6:D17">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G19" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
+    <hyperlink ref="F19" r:id="rId6" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
+    <hyperlink ref="F13" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
+    <hyperlink ref="F16" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
+    <hyperlink ref="F4" r:id="rId9" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
+    <hyperlink ref="F8" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
+    <hyperlink ref="G8" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
+    <hyperlink ref="F17" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
+    <hyperlink ref="F18" r:id="rId13" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
+    <hyperlink ref="F5" r:id="rId14" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="Q5" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
+    <hyperlink ref="I13" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
+    <hyperlink ref="T13" r:id="rId15" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="G13" r:id="rId16"/>
+    <hyperlink ref="G16" r:id="rId17"/>
+    <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
+    <hyperlink ref="M17" r:id="rId18" display="http://www.toefl.org/"/>
+    <hyperlink ref="G17" r:id="rId19"/>
+    <hyperlink ref="G18" r:id="rId20"/>
+    <hyperlink ref="I8" r:id="rId21"/>
+    <hyperlink ref="F3" r:id="rId22"/>
+    <hyperlink ref="I19" r:id="rId23"/>
+    <hyperlink ref="F6" r:id="rId24"/>
+    <hyperlink ref="F7" r:id="rId25"/>
+    <hyperlink ref="F12" r:id="rId26"/>
+    <hyperlink ref="F11" r:id="rId27"/>
+    <hyperlink ref="F10" r:id="rId28"/>
+    <hyperlink ref="F9" r:id="rId29"/>
+    <hyperlink ref="I12" r:id="rId30"/>
+    <hyperlink ref="G12" r:id="rId31"/>
+    <hyperlink ref="I20" r:id="rId32"/>
+    <hyperlink ref="G20" r:id="rId33"/>
+    <hyperlink ref="F21" r:id="rId34"/>
+    <hyperlink ref="F22" r:id="rId35"/>
+    <hyperlink ref="F23" r:id="rId36"/>
+    <hyperlink ref="F14" r:id="rId37"/>
+    <hyperlink ref="F15" r:id="rId38"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4767,31 +5645,31 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="42" t="str">
-        <f>网申进度表!B1</f>
-        <v>SCHOOL</v>
-      </c>
-      <c r="B2" s="42" t="str">
-        <f>网申进度表!E1</f>
-        <v>网申deadline</v>
+      <c r="A2" s="42" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B2" s="42" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C2" s="42" t="e">
         <f>网申进度表!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>69</v>
-      </c>
       <c r="F2" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5012,15 +5890,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="59">
         <f>SUM(B4:B25,C4:C25)</f>
         <v>0</v>
       </c>
-      <c r="D1" s="74"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="58">
         <v>15000</v>
@@ -5028,15 +5906,15 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="58">
         <f>C1*6.5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="75"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="58">
         <f>F1-C2-SUM(F4:F26)</f>
@@ -5044,26 +5922,26 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="str">
-        <f>网申进度表!B1</f>
-        <v>SCHOOL</v>
-      </c>
-      <c r="B3" s="57" t="str">
-        <f>网申进度表!J1</f>
-        <v>网申付款($)</v>
-      </c>
-      <c r="C3" s="57" t="str">
-        <f>网申进度表!L1</f>
-        <v>GMAT付款($)</v>
+      <c r="A3" s="42" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B3" s="57" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="57" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5095,7 +5973,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="79"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6">
@@ -5151,7 +6029,7 @@
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="58"/>
-      <c r="E14" s="79"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
@@ -5252,14 +6130,14 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="46"/>
-      <c r="E27" s="80"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="E28" s="80"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5293,23 +6171,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="38" t="str">
-        <f>网申进度表!B1</f>
-        <v>SCHOOL</v>
+      <c r="A1" s="38" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="38" t="str">
-        <f>网申进度表!R1</f>
-        <v>成绩单邮寄状态</v>
-      </c>
-      <c r="E1" s="38" t="str">
-        <f>网申进度表!S1</f>
-        <v>成绩单邮寄地址</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="38" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="38" t="e">
+        <f>网申进度表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F1" s="38" t="e">
         <f>网申进度表!#REF!</f>
@@ -5324,7 +6202,7 @@
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="42"/>
@@ -5378,7 +6256,7 @@
     </row>
     <row r="8" spans="1:7" ht="62.1" customHeight="1">
       <c r="A8" s="42"/>
-      <c r="B8" s="78"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="44"/>
       <c r="D8" s="43"/>
       <c r="E8" s="42"/>
@@ -5468,7 +6346,7 @@
     </row>
     <row r="18" spans="1:7" ht="96" customHeight="1">
       <c r="A18" s="42"/>
-      <c r="B18" s="76"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="52"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -5484,7 +6362,7 @@
     </row>
     <row r="20" spans="1:7" ht="109.5" customHeight="1">
       <c r="A20" s="42"/>
-      <c r="C20" s="77"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="43"/>
       <c r="E20" s="42"/>
       <c r="F20" s="43"/>
@@ -5573,58 +6451,58 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36">
       <c r="A1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>28</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="54.75" customHeight="1">
@@ -5636,7 +6514,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -5645,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="35">
         <v>40892</v>
@@ -5655,15 +6533,15 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
@@ -5678,7 +6556,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12">
         <v>3</v>
@@ -5687,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="35">
         <v>40910</v>
@@ -5697,12 +6575,12 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -5718,14 +6596,14 @@
         <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="35">
         <v>40923</v>
@@ -5735,20 +6613,20 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="12"/>
     </row>
@@ -5758,7 +6636,7 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="12">
         <v>9</v>
@@ -5767,7 +6645,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="35">
         <v>40892</v>
@@ -5776,25 +6654,25 @@
         <v>40892</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="12"/>
     </row>
@@ -6424,7 +7302,7 @@
     </row>
     <row r="57" spans="3:17" ht="409.35" customHeight="1">
       <c r="C57" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7064,39 +7942,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="69" t="s">
+      <c r="E1" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A2" s="125"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="69" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="66" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="130"/>
-      <c r="F2" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="3165" windowWidth="19440" windowHeight="12225" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="750" windowWidth="17490" windowHeight="12225" tabRatio="712" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="网申进度表" sheetId="1" r:id="rId2"/>
-    <sheet name="倒计时表" sheetId="8" r:id="rId3"/>
-    <sheet name="money" sheetId="7" r:id="rId4"/>
-    <sheet name="邮寄地址表" sheetId="5" r:id="rId5"/>
+    <sheet name="邮寄地址表" sheetId="5" r:id="rId3"/>
+    <sheet name="倒计时表" sheetId="8" r:id="rId4"/>
+    <sheet name="money" sheetId="7" r:id="rId5"/>
     <sheet name="学校列表" sheetId="2" r:id="rId6"/>
     <sheet name="Toefl成绩单" sheetId="9" r:id="rId7"/>
     <sheet name="GMAT成绩单" sheetId="10" r:id="rId8"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$AG$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">网申进度表!$A$1:$AA$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="211">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -268,22 +268,6 @@
   </si>
   <si>
     <t>成绩单邮寄状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>SchoolNameShort</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply for M.S.Advanced Architecture Design
-Mobile:(+86)15859609689
-Email: gracezhengchen@gmail.com
-Address:Mailbox 648,Xiamen University,361005
-</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人信息</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -1883,6 +1867,67 @@
   </si>
   <si>
     <t>进度描述</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mobile:(+86)15810108212
+Email: sugarmoon0715@gmail.com
+Address:Mailbox 648,Xiamen University,361005
+</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolNameShort</t>
+  </si>
+  <si>
+    <t>发件人信息</t>
+  </si>
+  <si>
+    <t>成绩单邮寄状态</t>
+  </si>
+  <si>
+    <t>Portfolio状态</t>
+  </si>
+  <si>
+    <t>Portfolia邮寄地址</t>
+  </si>
+  <si>
+    <t>Pace</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pace U</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Office of Graduate Admission
+One Pace Plaza
+New York, NY 10038
+(212) 346-1531
+gradnyc@pace.edu
+Office of Graduate Admission
+One Martine Avenue
+White Plains, NY 10606
+(914) 422-4283
+gradwp@pace.edu</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office of Graduate Admission
+One Pace Plaza
+New York, NY 10038
+(212) 346-1531
+gradnyc@pace.edu</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>toPrint</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -3002,6 +3047,54 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3019,54 +3112,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3089,52 +3134,7 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -3522,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K1" s="84">
         <v>10</v>
@@ -3531,109 +3531,109 @@
         <v>2</v>
       </c>
       <c r="M1" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="O1" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q1" s="84" t="s">
-        <v>170</v>
-      </c>
       <c r="R1" s="84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S1" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="T1" s="84" t="s">
+      <c r="W1" s="84" t="s">
         <v>191</v>
-      </c>
-      <c r="U1" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="W1" s="84" t="s">
-        <v>194</v>
       </c>
       <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
       <c r="A2" s="80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="114" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="113" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K2" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="83" t="s">
-        <v>144</v>
-      </c>
       <c r="M2" s="83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P2" s="83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="83" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R2" s="118" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S2" s="118" t="s">
+        <v>176</v>
+      </c>
+      <c r="T2" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="T2" s="121" t="s">
-        <v>182</v>
-      </c>
       <c r="U2" s="121" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V2" s="118" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:24" customFormat="1" ht="81" customHeight="1">
@@ -3645,53 +3645,53 @@
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="84"/>
       <c r="H3" s="84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I3" s="84"/>
       <c r="J3" s="84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L3" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="84" t="s">
-        <v>84</v>
-      </c>
       <c r="N3" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>88</v>
-      </c>
       <c r="Q3" s="84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R3" s="120" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S3" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="122" t="s">
+        <v>178</v>
+      </c>
+      <c r="V3" s="123" t="s">
         <v>186</v>
-      </c>
-      <c r="T3" s="122" t="s">
-        <v>181</v>
-      </c>
-      <c r="V3" s="123" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A4" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A5" s="80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="115"/>
       <c r="C5" s="116">
@@ -3752,70 +3752,70 @@
     </row>
     <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A6" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L6" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S6" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="U6" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
@@ -3826,40 +3826,40 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="105" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F7" s="100" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="100"/>
       <c r="H7" s="108"/>
       <c r="I7" s="108"/>
       <c r="J7" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K7" s="99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L7" s="105" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M7" s="105" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N7" s="105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O7" s="105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P7" s="105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="105" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:24" customFormat="1" ht="77.25" customHeight="1">
@@ -3875,7 +3875,7 @@
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
       <c r="J8" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="84"/>
@@ -3893,32 +3893,32 @@
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" s="105"/>
       <c r="H9" s="94"/>
       <c r="I9" s="94"/>
       <c r="J9" s="106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K9" s="105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L9" s="102"/>
       <c r="M9" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N9" s="97"/>
       <c r="O9" s="96"/>
       <c r="P9" s="97"/>
       <c r="Q9" s="105" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
@@ -3942,20 +3942,20 @@
       <c r="P10" s="87"/>
       <c r="Q10" s="87"/>
       <c r="R10" s="119" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A11" s="81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="84"/>
       <c r="C11" s="84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84"/>
@@ -3967,17 +3967,17 @@
       <c r="M11" s="84"/>
       <c r="N11" s="84"/>
       <c r="O11" s="107" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P11" s="84"/>
       <c r="Q11" s="88"/>
       <c r="S11" s="52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A12" s="81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B13" s="84"/>
       <c r="C13" s="84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G13" s="84"/>
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
       <c r="J13" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
       <c r="N13" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O13" s="105" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P13" s="84"/>
       <c r="Q13" s="88"/>
@@ -4058,10 +4058,10 @@
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
       <c r="E15" s="80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="84">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K15" s="84">
         <v>2</v>
@@ -4079,16 +4079,16 @@
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O15" s="84"/>
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
@@ -4120,25 +4120,25 @@
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="E17" s="80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="84"/>
       <c r="G17" s="84"/>
       <c r="H17" s="105" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I17" s="105"/>
       <c r="J17" s="104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K17" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="84" t="s">
-        <v>146</v>
-      </c>
       <c r="M17" s="109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N17" s="84"/>
       <c r="O17" s="108"/>
@@ -4175,68 +4175,68 @@
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
       <c r="F19" s="84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
       <c r="I19" s="84"/>
       <c r="J19" s="89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84"/>
       <c r="O19" s="84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P19" s="84"/>
       <c r="Q19" s="84"/>
       <c r="R19" s="76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G20" s="84"/>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
       <c r="J20" s="112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20" s="110" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L20" s="84"/>
       <c r="M20" s="111" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="S20" s="46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A21" s="80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -4264,15 +4264,15 @@
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
       <c r="F22" s="84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G22" s="84"/>
       <c r="H22" s="84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I22" s="84"/>
       <c r="J22" s="84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A25" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -4353,7 +4353,7 @@
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -4363,18 +4363,18 @@
       <c r="K26" s="97"/>
       <c r="L26" s="84"/>
       <c r="M26" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N26" s="84"/>
       <c r="O26" s="84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
     </row>
     <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A27" s="80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -4437,7 +4437,7 @@
   </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F4:Q4">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4502,9 +4502,9 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -4539,23 +4539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A1" s="139" t="s">
-        <v>201</v>
+      <c r="A1" s="133" t="s">
+        <v>198</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="80" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>1</v>
@@ -4570,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M1" s="81" t="s">
         <v>3</v>
@@ -4597,10 +4597,10 @@
         <v>8</v>
       </c>
       <c r="T1" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U1" s="80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V1" s="80" t="s">
         <v>47</v>
@@ -4609,16 +4609,16 @@
         <v>48</v>
       </c>
       <c r="X1" s="80" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Z1" s="80" t="s">
         <v>9</v>
       </c>
       <c r="AA1" s="80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="51.95" customHeight="1">
@@ -4626,49 +4626,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="85"/>
       <c r="E2" s="117"/>
       <c r="F2" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I2" s="106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J2" s="87"/>
       <c r="K2" s="88"/>
       <c r="L2" s="84"/>
       <c r="M2" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N2" s="84"/>
       <c r="O2" s="84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P2" s="84"/>
       <c r="Q2" s="104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R2" s="89"/>
       <c r="S2" s="89" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="T2" s="112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U2" s="84"/>
       <c r="V2" s="84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W2" s="90"/>
       <c r="X2" s="91"/>
@@ -4681,20 +4681,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="85"/>
       <c r="E3" s="116">
         <v>41281</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3" s="105" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H3" s="84"/>
       <c r="I3" s="102"/>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="P3" s="84"/>
       <c r="Q3" s="84" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="84"/>
@@ -4726,47 +4726,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="116">
         <v>41395</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
       <c r="M4" s="84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N4" s="84"/>
       <c r="O4" s="84" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P4" s="95"/>
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T4" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U4" s="84"/>
       <c r="V4" s="84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W4" s="90"/>
       <c r="X4" s="84"/>
@@ -4779,17 +4779,17 @@
         <v>6</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="85"/>
       <c r="E5" s="116">
         <v>41306</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="108"/>
       <c r="H5" s="97"/>
@@ -4804,14 +4804,14 @@
       </c>
       <c r="P5" s="84"/>
       <c r="Q5" s="105" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R5" s="87"/>
       <c r="S5" s="84"/>
       <c r="T5" s="84"/>
       <c r="U5" s="84"/>
       <c r="V5" s="84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W5" s="90"/>
       <c r="X5" s="90"/>
@@ -4823,14 +4823,14 @@
       <c r="A6" s="84">
         <v>7</v>
       </c>
-      <c r="B6" s="130" t="s">
-        <v>150</v>
+      <c r="B6" s="124" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="85"/>
       <c r="E6" s="116"/>
       <c r="F6" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G6" s="100"/>
       <c r="H6" s="84"/>
@@ -4859,13 +4859,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="85"/>
       <c r="E7" s="116"/>
       <c r="F7" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" s="108"/>
       <c r="H7" s="97"/>
@@ -4894,24 +4894,24 @@
         <v>10</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="116">
         <v>41470</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" s="101"/>
       <c r="I8" s="105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J8" s="87"/>
       <c r="K8" s="84"/>
@@ -4923,12 +4923,12 @@
       </c>
       <c r="P8" s="84"/>
       <c r="Q8" s="84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
       <c r="T8" s="110" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U8" s="84"/>
       <c r="V8" s="84"/>
@@ -4942,14 +4942,14 @@
       <c r="A9" s="80">
         <v>14</v>
       </c>
-      <c r="B9" s="134" t="s">
-        <v>166</v>
+      <c r="B9" s="128" t="s">
+        <v>163</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="115"/>
       <c r="F9" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="80"/>
@@ -4978,7 +4978,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -4986,18 +4986,18 @@
         <v>41320</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N10" s="84"/>
       <c r="O10" s="80"/>
@@ -5006,7 +5006,7 @@
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
       <c r="T10" s="80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
@@ -5021,13 +5021,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="115"/>
       <c r="F11" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
@@ -5056,7 +5056,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -5064,35 +5064,35 @@
         <v>41275</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J12" s="80"/>
       <c r="K12" s="84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L12" s="84"/>
       <c r="M12" s="84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P12" s="80"/>
       <c r="Q12" s="80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R12" s="80"/>
       <c r="S12" s="80"/>
       <c r="T12" s="80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
@@ -5100,31 +5100,31 @@
       <c r="X12" s="80"/>
       <c r="Y12" s="80"/>
       <c r="Z12" s="80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AA12" s="80"/>
     </row>
     <row r="13" spans="1:27" ht="51.95" customHeight="1">
       <c r="A13" s="84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="117"/>
       <c r="F13" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="105" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H13" s="84"/>
       <c r="I13" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J13" s="87"/>
       <c r="K13" s="84"/>
@@ -5134,12 +5134,12 @@
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R13" s="84"/>
       <c r="S13" s="84"/>
       <c r="T13" s="111" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U13" s="84"/>
       <c r="V13" s="84"/>
@@ -5147,24 +5147,24 @@
       <c r="X13" s="84"/>
       <c r="Y13" s="84"/>
       <c r="Z13" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA13" s="84"/>
     </row>
     <row r="14" spans="1:27" ht="51.95" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="131" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>185</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="105" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
@@ -5190,16 +5190,16 @@
     </row>
     <row r="15" spans="1:27" ht="51.95" customHeight="1">
       <c r="A15" s="84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
@@ -5225,21 +5225,21 @@
     </row>
     <row r="16" spans="1:27" ht="51.95" customHeight="1">
       <c r="A16" s="82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="117"/>
       <c r="F16" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H16" s="93"/>
       <c r="I16" s="97"/>
@@ -5247,18 +5247,18 @@
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
       <c r="M16" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P16" s="84"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
       <c r="S16" s="84"/>
       <c r="T16" s="84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U16" s="84"/>
       <c r="V16" s="84"/>
@@ -5270,31 +5270,31 @@
     </row>
     <row r="17" spans="1:27" ht="51.95" customHeight="1">
       <c r="A17" s="84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="117"/>
       <c r="F17" s="99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H17" s="84"/>
       <c r="I17" s="96"/>
       <c r="J17" s="87"/>
       <c r="K17" s="107" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L17" s="84"/>
       <c r="M17" s="105" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N17" s="84"/>
       <c r="O17" s="84"/>
@@ -5302,7 +5302,7 @@
       <c r="Q17" s="108"/>
       <c r="R17" s="84"/>
       <c r="S17" s="84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T17" s="84"/>
       <c r="U17" s="84"/>
@@ -5311,33 +5311,33 @@
       <c r="X17" s="84"/>
       <c r="Y17" s="84"/>
       <c r="Z17" s="84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA17" s="84"/>
     </row>
     <row r="18" spans="1:27" ht="51.95" customHeight="1">
       <c r="A18" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="140" t="s">
-        <v>102</v>
+        <v>166</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143">
+        <v>85</v>
+      </c>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137">
         <v>41487</v>
       </c>
-      <c r="F18" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="135"/>
+      <c r="F18" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="139"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
@@ -5350,7 +5350,7 @@
       <c r="T18" s="123"/>
       <c r="U18" s="123"/>
       <c r="V18" s="123"/>
-      <c r="W18" s="136"/>
+      <c r="W18" s="130"/>
       <c r="X18" s="123"/>
       <c r="Y18" s="123"/>
       <c r="Z18" s="123"/>
@@ -5358,32 +5358,32 @@
     </row>
     <row r="19" spans="1:27" ht="51.95" customHeight="1">
       <c r="A19" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="140" t="s">
-        <v>148</v>
+        <v>167</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>145</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143">
+        <v>79</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137">
         <v>41306</v>
       </c>
-      <c r="F19" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="132" t="s">
-        <v>149</v>
+      <c r="F19" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="126" t="s">
+        <v>146</v>
       </c>
       <c r="H19" s="123"/>
-      <c r="I19" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" s="135"/>
-      <c r="K19" s="133"/>
+      <c r="I19" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="129"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="123"/>
-      <c r="M19" s="133"/>
+      <c r="M19" s="127"/>
       <c r="N19" s="123"/>
       <c r="O19" s="123"/>
       <c r="P19" s="123"/>
@@ -5392,48 +5392,48 @@
       <c r="S19" s="123"/>
       <c r="T19" s="123"/>
       <c r="U19" s="123"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="137"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="131"/>
       <c r="Z19" s="123"/>
       <c r="AA19" s="123"/>
     </row>
     <row r="20" spans="1:27" ht="51.95" customHeight="1">
       <c r="A20" s="84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="122" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" s="39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J20" s="119" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20" s="76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T20"/>
       <c r="U20"/>
@@ -5446,40 +5446,40 @@
     </row>
     <row r="21" spans="1:27" ht="51.95" customHeight="1">
       <c r="A21" s="84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="53">
         <v>41395</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21" s="52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" s="46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
@@ -5491,18 +5491,18 @@
     </row>
     <row r="22" spans="1:27" ht="51.95" customHeight="1">
       <c r="A22" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B22" s="121" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -5528,16 +5528,16 @@
     </row>
     <row r="23" spans="1:27" ht="51.95" customHeight="1">
       <c r="A23" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="141" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="B23" s="135" t="s">
+        <v>184</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -5567,7 +5567,7 @@
   </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="D6:D17">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5627,6 +5627,273 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81">
+      <c r="A2" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" ht="57" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" ht="77.25" customHeight="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="72" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="64.5" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="62.1" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="92.25" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="42"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="74.25" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="120" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" ht="72.75" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="96" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="109.5" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="45"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="45"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="52"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <phoneticPr fontId="29" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5912,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="53"/>
     </row>
@@ -5663,13 +5930,13 @@
         <v>#REF!</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5871,7 +6138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -5890,7 +6157,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="59">
         <f>SUM(B4:B25,C4:C25)</f>
@@ -5898,7 +6165,7 @@
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="58">
         <v>15000</v>
@@ -5906,7 +6173,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="58">
         <f>C1*6.5</f>
@@ -5914,7 +6181,7 @@
       </c>
       <c r="D2" s="74"/>
       <c r="E2" s="56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="58">
         <f>F1-C2-SUM(F4:F26)</f>
@@ -5935,13 +6202,13 @@
         <v>#REF!</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6137,274 +6404,10 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="38" t="e">
-        <f>网申进度表!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="38" t="e">
-        <f>网申进度表!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E1" s="38" t="e">
-        <f>网申进度表!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F1" s="38" t="e">
-        <f>网申进度表!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G1" s="38" t="e">
-        <f>网申进度表!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="67.5">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" ht="77.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" ht="72" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="62.1" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="92.25" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:7" ht="120" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="42"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7" ht="96" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="109.5" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="52"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6423,7 +6426,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
@@ -6523,7 +6526,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="35">
         <v>40892</v>
@@ -6575,7 +6578,7 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -6645,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" s="35">
         <v>40892</v>
@@ -7929,7 +7932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7942,39 +7945,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="143"/>
+      <c r="D1" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="124" t="s">
+      <c r="E2" s="141"/>
+      <c r="F2" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="66" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="750" windowWidth="17490" windowHeight="12225" tabRatio="712" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-150" yWindow="750" windowWidth="17490" windowHeight="12225" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -1928,6 +1928,41 @@
   </si>
   <si>
     <t>toPrint</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> Toelf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低分：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100 (Internet-based version)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，录取可以参加语言学校</t>
+    </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -4502,9 +4537,9 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -4643,7 +4678,7 @@
         <v>196</v>
       </c>
       <c r="I2" s="106" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="J2" s="87"/>
       <c r="K2" s="88"/>
@@ -5629,8 +5664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="750" windowWidth="17490" windowHeight="12225" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="14120" yWindow="280" windowWidth="22480" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="225">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -1537,7 +1537,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup6</t>
@@ -1634,7 +1633,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup8</t>
@@ -1643,7 +1641,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1663,7 +1661,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup10</t>
@@ -1672,7 +1669,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1689,7 +1686,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup11</t>
@@ -1698,7 +1694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1715,7 +1711,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">airField
@@ -1905,8 +1900,172 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-Office of Graduate Admission
+    <t>Office of Graduate Admission
+One Pace Plaza
+New York, NY 10038
+(212) 346-1531
+gradnyc@pace.edu</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>toPrint</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> Toelf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低分：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100 (Internet-based version)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，录取可以参加语言学校</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyc13  :  880715</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>$70</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">罗彻斯特理工学院
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rochester Institute of Technology</t>
+    </r>
+  </si>
+  <si>
+    <t>UB Schools of Management- Financial Management,MS</t>
+  </si>
+  <si>
+    <t>Documents that must be submitted in hard copy:
+Transcripts
+Documentation that confirms that the calculus requirement has been fulfilled for full-time applicants.  In most cases, this will be fulfilled by submitting official transcripts
+International Financial Form (for international applicants only)
+Supporting financial documentation</t>
+  </si>
+  <si>
+    <t>MS in Finance - K6RQX45
+Buffalo area GMAT testing site: Code 47075</t>
+  </si>
+  <si>
+    <t>The school code and department code for the University at Buffalo are 2925 and 02 respectively</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科官方成绩单与学历学位证明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自己成绩单里面微积分是哪门课的说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财产证明必须提供原件，并且要填写财产证明表。并邮寄</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>封，网上提交</t>
+    </r>
+  </si>
+  <si>
+    <t>Graduate Programs Office
+        School of Management 
+        University at Buffalo
+        203 Alfiero Center
+        Buffalo, NY  14260-4010</t>
+  </si>
+  <si>
+    <t>Office of Graduate Admission
 One Pace Plaza
 New York, NY 10038
 (212) 346-1531
@@ -1916,54 +2075,13 @@
 White Plains, NY 10606
 (914) 422-4283
 gradwp@pace.edu</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office of Graduate Admission
-One Pace Plaza
-New York, NY 10038
-(212) 346-1531
-gradnyc@pace.edu</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>toPrint</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> Toelf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最低分：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100 (Internet-based version)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，录取可以参加语言学校</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHANGYICHA  :  15562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gradmit.buffalo.edu/etw/gradmit.asp
+</t>
   </si>
 </sst>
 </file>
@@ -1971,16 +2089,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="d\/mmm\/yy"/>
-    <numFmt numFmtId="177" formatCode="d\/mmm"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="d\/mmm\/yy"/>
+    <numFmt numFmtId="167" formatCode="d\/mmm"/>
+    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="170" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="171" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1990,7 +2108,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2448,6 +2566,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2709,7 +2832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2743,7 +2866,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,16 +2875,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2815,7 +2938,7 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2860,7 +2983,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2875,7 +2998,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2884,10 +3007,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2929,10 +3052,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2944,10 +3067,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,7 +3088,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,13 +3178,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3094,9 +3217,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3118,10 +3238,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
@@ -3148,26 +3268,32 @@
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3495,37 +3621,37 @@
       <selection pane="topRight" sqref="A1:W27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="49" customWidth="1"/>
-    <col min="2" max="4" width="15.375" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="49" customWidth="1"/>
-    <col min="6" max="7" width="18.125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="49" customWidth="1"/>
+    <col min="2" max="4" width="15.33203125" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="49" customWidth="1"/>
+    <col min="6" max="7" width="18.1640625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="49" customWidth="1"/>
     <col min="14" max="14" width="13" style="49" customWidth="1"/>
-    <col min="15" max="16" width="9.625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="49" customWidth="1"/>
+    <col min="15" max="16" width="9.6640625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="49" customWidth="1"/>
     <col min="18" max="18" width="8" style="49" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="49" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="49" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="49" customWidth="1"/>
-    <col min="23" max="24" width="12.125" style="49" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="49" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="49" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="49" customWidth="1"/>
+    <col min="23" max="24" width="12.1640625" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="49" customWidth="1"/>
     <col min="26" max="26" width="15.5" style="49" customWidth="1"/>
     <col min="27" max="27" width="10" style="49" customWidth="1"/>
-    <col min="28" max="28" width="16.125" style="49" customWidth="1"/>
-    <col min="29" max="29" width="11.625" style="49" customWidth="1"/>
-    <col min="30" max="30" width="15.125" style="49" customWidth="1"/>
-    <col min="31" max="31" width="17.875" style="49" customWidth="1"/>
-    <col min="32" max="32" width="18.375" style="49" customWidth="1"/>
-    <col min="33" max="33" width="16.125" style="49" customWidth="1"/>
-    <col min="34" max="16384" width="8.875" style="49"/>
+    <col min="28" max="28" width="16.1640625" style="49" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="49" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" style="49" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" style="49" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="49" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" style="49" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="81.75" customHeight="1">
@@ -3600,7 +3726,7 @@
       </c>
       <c r="X1" s="84"/>
     </row>
-    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
+    <row r="2" spans="1:24" customFormat="1" ht="110" customHeight="1">
       <c r="A2" s="80" t="s">
         <v>113</v>
       </c>
@@ -3724,7 +3850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="4" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A4" s="80" t="s">
         <v>96</v>
       </c>
@@ -3745,7 +3871,7 @@
       <c r="P4" s="85"/>
       <c r="Q4" s="85"/>
     </row>
-    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="5" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A5" s="80" t="s">
         <v>97</v>
       </c>
@@ -3785,7 +3911,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="6" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A6" s="80" t="s">
         <v>80</v>
       </c>
@@ -3853,7 +3979,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="7" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A7" s="80" t="s">
         <v>1</v>
       </c>
@@ -3920,7 +4046,7 @@
       <c r="P8" s="93"/>
       <c r="Q8" s="84"/>
     </row>
-    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="9" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A9" s="80" t="s">
         <v>2</v>
       </c>
@@ -3956,7 +4082,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="10" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A10" s="80" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +4106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="11" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A11" s="81" t="s">
         <v>90</v>
       </c>
@@ -4010,7 +4136,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="12" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A12" s="81" t="s">
         <v>91</v>
       </c>
@@ -4064,7 +4190,7 @@
       <c r="P13" s="84"/>
       <c r="Q13" s="88"/>
     </row>
-    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="14" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A14" s="81" t="s">
         <v>4</v>
       </c>
@@ -4085,7 +4211,7 @@
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
     </row>
-    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
+    <row r="15" spans="1:24" customFormat="1" ht="83" customHeight="1">
       <c r="A15" s="80" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
+    <row r="16" spans="1:24" customFormat="1" ht="52" customHeight="1">
       <c r="A16" s="80" t="s">
         <v>6</v>
       </c>
@@ -4180,7 +4306,7 @@
       <c r="P17" s="84"/>
       <c r="Q17" s="84"/>
     </row>
-    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="18" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A18" s="80" t="s">
         <v>53</v>
       </c>
@@ -4201,7 +4327,7 @@
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
     </row>
-    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
+    <row r="19" spans="1:19" customFormat="1" ht="188" customHeight="1">
       <c r="A19" s="80" t="s">
         <v>8</v>
       </c>
@@ -4231,7 +4357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="20" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A20" s="80" t="s">
         <v>92</v>
       </c>
@@ -4269,7 +4395,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="21" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A21" s="80" t="s">
         <v>93</v>
       </c>
@@ -4290,7 +4416,7 @@
       <c r="P21" s="84"/>
       <c r="Q21" s="84"/>
     </row>
-    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="22" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A22" s="80" t="s">
         <v>47</v>
       </c>
@@ -4317,7 +4443,7 @@
       <c r="P22" s="84"/>
       <c r="Q22" s="90"/>
     </row>
-    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="23" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A23" s="80" t="s">
         <v>48</v>
       </c>
@@ -4338,7 +4464,7 @@
       <c r="P23" s="90"/>
       <c r="Q23" s="90"/>
     </row>
-    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="24" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A24" s="80" t="s">
         <v>94</v>
       </c>
@@ -4359,7 +4485,7 @@
       <c r="P24" s="84"/>
       <c r="Q24" s="90"/>
     </row>
-    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="25" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A25" s="80" t="s">
         <v>95</v>
       </c>
@@ -4380,7 +4506,7 @@
       <c r="P25" s="84"/>
       <c r="Q25" s="92"/>
     </row>
-    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="26" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A26" s="80" t="s">
         <v>9</v>
       </c>
@@ -4407,7 +4533,7 @@
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
     </row>
-    <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
+    <row r="27" spans="1:19" customFormat="1" ht="52" customHeight="1">
       <c r="A27" s="80" t="s">
         <v>54</v>
       </c>
@@ -4428,44 +4554,44 @@
       <c r="P27" s="84"/>
       <c r="Q27" s="84"/>
     </row>
-    <row r="28" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="29" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="30" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="31" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="32" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="33" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="34" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="35" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="36" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="37" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="38" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="39" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="40" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="41" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="42" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="43" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="44" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="45" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="46" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="47" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="48" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="49" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="50" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="51" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="52" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="53" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="54" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="55" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="56" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="57" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="58" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="59" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="60" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="61" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="62" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="63" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="64" customFormat="1" ht="51.95" customHeight="1"/>
-    <row r="65" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="28" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="29" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="30" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="31" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="32" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
+    <row r="33" customFormat="1" ht="52" customHeight="1"/>
+    <row r="34" customFormat="1" ht="52" customHeight="1"/>
+    <row r="35" customFormat="1" ht="52" customHeight="1"/>
+    <row r="36" customFormat="1" ht="52" customHeight="1"/>
+    <row r="37" customFormat="1" ht="52" customHeight="1"/>
+    <row r="38" customFormat="1" ht="52" customHeight="1"/>
+    <row r="39" customFormat="1" ht="52" customHeight="1"/>
+    <row r="40" customFormat="1" ht="52" customHeight="1"/>
+    <row r="41" customFormat="1" ht="52" customHeight="1"/>
+    <row r="42" customFormat="1" ht="52" customHeight="1"/>
+    <row r="43" customFormat="1" ht="52" customHeight="1"/>
+    <row r="44" customFormat="1" ht="52" customHeight="1"/>
+    <row r="45" customFormat="1" ht="52" customHeight="1"/>
+    <row r="46" customFormat="1" ht="52" customHeight="1"/>
+    <row r="47" customFormat="1" ht="52" customHeight="1"/>
+    <row r="48" customFormat="1" ht="52" customHeight="1"/>
+    <row r="49" customFormat="1" ht="52" customHeight="1"/>
+    <row r="50" customFormat="1" ht="52" customHeight="1"/>
+    <row r="51" customFormat="1" ht="52" customHeight="1"/>
+    <row r="52" customFormat="1" ht="52" customHeight="1"/>
+    <row r="53" customFormat="1" ht="52" customHeight="1"/>
+    <row r="54" customFormat="1" ht="52" customHeight="1"/>
+    <row r="55" customFormat="1" ht="52" customHeight="1"/>
+    <row r="56" customFormat="1" ht="52" customHeight="1"/>
+    <row r="57" customFormat="1" ht="52" customHeight="1"/>
+    <row r="58" customFormat="1" ht="52" customHeight="1"/>
+    <row r="59" customFormat="1" ht="52" customHeight="1"/>
+    <row r="60" customFormat="1" ht="52" customHeight="1"/>
+    <row r="61" customFormat="1" ht="52" customHeight="1"/>
+    <row r="62" customFormat="1" ht="52" customHeight="1"/>
+    <row r="63" customFormat="1" ht="52" customHeight="1"/>
+    <row r="64" customFormat="1" ht="52" customHeight="1"/>
+    <row r="65" customFormat="1" ht="52" customHeight="1"/>
   </sheetData>
   <sortState columnSort="1" ref="A1:K27">
     <sortCondition ref="A1:K1"/>
@@ -4520,7 +4646,6 @@
     <hyperlink ref="W6" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4537,44 +4662,45 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="49" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="49" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="49" customWidth="1"/>
     <col min="11" max="11" width="11" style="49" customWidth="1"/>
     <col min="12" max="12" width="8" style="49" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="49" customWidth="1"/>
-    <col min="17" max="18" width="12.125" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="44.1640625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="49" customWidth="1"/>
     <col min="20" max="20" width="15.5" style="49" customWidth="1"/>
     <col min="21" max="21" width="10" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="49" customWidth="1"/>
-    <col min="24" max="24" width="15.125" style="49" customWidth="1"/>
-    <col min="25" max="25" width="17.875" style="49" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="49" customWidth="1"/>
-    <col min="27" max="27" width="16.125" style="49" customWidth="1"/>
-    <col min="28" max="16384" width="8.875" style="49"/>
+    <col min="22" max="22" width="16.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="49" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="49" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="49" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="49" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:27" ht="52" customHeight="1">
+      <c r="A1" s="132" t="s">
         <v>198</v>
       </c>
       <c r="B1" s="80" t="s">
@@ -4656,7 +4782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="51.95" customHeight="1">
+    <row r="2" spans="1:27" ht="52" customHeight="1">
       <c r="A2" s="82">
         <v>1</v>
       </c>
@@ -4675,18 +4801,24 @@
         <v>98</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I2" s="106" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" s="87"/>
+        <v>210</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="88"/>
-      <c r="L2" s="84"/>
+      <c r="L2" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="M2" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="84"/>
+      <c r="N2" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="O2" s="84" t="s">
         <v>105</v>
       </c>
@@ -4696,7 +4828,7 @@
       </c>
       <c r="R2" s="89"/>
       <c r="S2" s="89" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="T2" s="112" t="s">
         <v>108</v>
@@ -4711,54 +4843,64 @@
       <c r="Z2" s="86"/>
       <c r="AA2" s="84"/>
     </row>
-    <row r="3" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A3" s="82">
+    <row r="3" spans="1:27" ht="96" customHeight="1">
+      <c r="A3" s="84">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>141</v>
+      <c r="B3" s="124" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="D3" s="85"/>
       <c r="E3" s="116">
-        <v>41281</v>
-      </c>
-      <c r="F3" s="105" t="s">
+        <v>41306</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
+      <c r="G3" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="87"/>
+      <c r="K3" s="146" t="s">
+        <v>217</v>
+      </c>
       <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="M3" s="84" t="s">
+        <v>218</v>
+      </c>
       <c r="N3" s="84"/>
-      <c r="O3" s="84">
-        <v>2</v>
-      </c>
-      <c r="P3" s="84"/>
+      <c r="O3" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="P3" s="95"/>
       <c r="Q3" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="101"/>
-      <c r="S3" s="84"/>
+        <v>216</v>
+      </c>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84" t="s">
+        <v>221</v>
+      </c>
       <c r="T3" s="84"/>
       <c r="U3" s="84"/>
       <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
+      <c r="W3" s="90"/>
       <c r="X3" s="84"/>
       <c r="Y3" s="84"/>
       <c r="Z3" s="84"/>
       <c r="AA3" s="84"/>
     </row>
-    <row r="4" spans="1:27" ht="51.95" customHeight="1">
+    <row r="4" spans="1:27" ht="52" customHeight="1">
       <c r="A4" s="84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="83" t="s">
         <v>125</v>
@@ -4809,217 +4951,237 @@
       <c r="Z4" s="84"/>
       <c r="AA4" s="84"/>
     </row>
-    <row r="5" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A5" s="82">
-        <v>6</v>
+    <row r="5" spans="1:27" ht="52" customHeight="1">
+      <c r="A5" s="84">
+        <v>4</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="85"/>
-      <c r="E5" s="116">
-        <v>41306</v>
-      </c>
+      <c r="E5" s="117"/>
       <c r="F5" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="84"/>
+      <c r="G5" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="107" t="s">
+        <v>131</v>
+      </c>
       <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="M5" s="105" t="s">
+        <v>132</v>
+      </c>
       <c r="N5" s="84"/>
-      <c r="O5" s="84">
-        <v>2</v>
-      </c>
+      <c r="O5" s="84"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5" s="87"/>
-      <c r="S5" s="84"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84" t="s">
+        <v>133</v>
+      </c>
       <c r="T5" s="84"/>
       <c r="U5" s="84"/>
-      <c r="V5" s="84" t="s">
-        <v>102</v>
-      </c>
+      <c r="V5" s="84"/>
       <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
+      <c r="X5" s="84"/>
       <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
+      <c r="Z5" s="84" t="s">
+        <v>134</v>
+      </c>
       <c r="AA5" s="84"/>
     </row>
-    <row r="6" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A6" s="84">
-        <v>7</v>
-      </c>
-      <c r="B6" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="84"/>
+    <row r="6" spans="1:27" ht="86" customHeight="1">
+      <c r="A6" s="82">
+        <v>16</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" s="85"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="87"/>
+      <c r="E6" s="116">
+        <v>41306</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="108"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
       <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="O6" s="84">
+        <v>2</v>
+      </c>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="87"/>
       <c r="S6" s="84"/>
       <c r="T6" s="84"/>
       <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
+      <c r="V6" s="84" t="s">
+        <v>102</v>
+      </c>
       <c r="W6" s="90"/>
-      <c r="X6" s="84"/>
+      <c r="X6" s="90"/>
       <c r="Y6" s="84"/>
       <c r="Z6" s="84"/>
       <c r="AA6" s="84"/>
     </row>
-    <row r="7" spans="1:27" ht="99.95" customHeight="1">
+    <row r="7" spans="1:27" ht="100" customHeight="1">
       <c r="A7" s="82">
-        <v>8</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="84"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="85"/>
-      <c r="E7" s="116"/>
+      <c r="E7" s="116">
+        <v>41281</v>
+      </c>
       <c r="F7" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="96"/>
+      <c r="G7" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="84"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
       <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
+      <c r="O7" s="84">
+        <v>2</v>
+      </c>
       <c r="P7" s="84"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="87"/>
+      <c r="Q7" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="101"/>
       <c r="S7" s="84"/>
       <c r="T7" s="84"/>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
       <c r="Y7" s="84"/>
       <c r="Z7" s="84"/>
       <c r="AA7" s="84"/>
     </row>
-    <row r="8" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A8" s="84">
-        <v>10</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>100</v>
-      </c>
+    <row r="8" spans="1:27" ht="52" customHeight="1">
+      <c r="A8" s="82">
+        <v>8</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="84"/>
       <c r="D8" s="85"/>
-      <c r="E8" s="116">
-        <v>41470</v>
-      </c>
-      <c r="F8" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="87"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="108"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="96"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="84"/>
       <c r="N8" s="84"/>
-      <c r="O8" s="84">
-        <v>2</v>
-      </c>
+      <c r="O8" s="84"/>
       <c r="P8" s="84"/>
-      <c r="Q8" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="84"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="87"/>
       <c r="S8" s="84"/>
-      <c r="T8" s="110" t="s">
-        <v>139</v>
-      </c>
+      <c r="T8" s="84"/>
       <c r="U8" s="84"/>
       <c r="V8" s="84"/>
       <c r="W8" s="90"/>
-      <c r="X8" s="84"/>
+      <c r="X8" s="90"/>
       <c r="Y8" s="84"/>
-      <c r="Z8" s="97"/>
+      <c r="Z8" s="84"/>
       <c r="AA8" s="84"/>
     </row>
-    <row r="9" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A9" s="80">
-        <v>14</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+    <row r="9" spans="1:27" ht="52" customHeight="1">
+      <c r="A9" s="84">
+        <v>10</v>
+      </c>
+      <c r="B9" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="116">
+        <v>41470</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="87"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
       <c r="N9" s="84"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
+      <c r="O9" s="84">
+        <v>2</v>
+      </c>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="84"/>
     </row>
     <row r="10" spans="1:27" ht="51.75" customHeight="1">
       <c r="A10" s="80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
-      <c r="E10" s="116">
-        <v>41320</v>
-      </c>
+      <c r="E10" s="115"/>
       <c r="F10" s="105" t="s">
         <v>142</v>
       </c>
@@ -5027,22 +5189,16 @@
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
-      <c r="K10" s="84" t="s">
-        <v>159</v>
-      </c>
+      <c r="K10" s="84"/>
       <c r="L10" s="84"/>
-      <c r="M10" s="84" t="s">
-        <v>161</v>
-      </c>
+      <c r="M10" s="84"/>
       <c r="N10" s="84"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="80" t="s">
-        <v>157</v>
-      </c>
+      <c r="T10" s="80"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -5051,16 +5207,18 @@
       <c r="Z10" s="80"/>
       <c r="AA10" s="80"/>
     </row>
-    <row r="11" spans="1:27" ht="51.95" customHeight="1">
+    <row r="11" spans="1:27" ht="52" customHeight="1">
       <c r="A11" s="80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116">
+        <v>41320</v>
+      </c>
       <c r="F11" s="105" t="s">
         <v>142</v>
       </c>
@@ -5068,16 +5226,22 @@
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
       <c r="J11" s="80"/>
-      <c r="K11" s="84"/>
+      <c r="K11" s="84" t="s">
+        <v>159</v>
+      </c>
       <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
+      <c r="M11" s="84" t="s">
+        <v>161</v>
+      </c>
       <c r="N11" s="84"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
       <c r="R11" s="80"/>
       <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
+      <c r="T11" s="80" t="s">
+        <v>157</v>
+      </c>
       <c r="U11" s="80"/>
       <c r="V11" s="80"/>
       <c r="W11" s="80"/>
@@ -5086,155 +5250,155 @@
       <c r="Z11" s="80"/>
       <c r="AA11" s="80"/>
     </row>
-    <row r="12" spans="1:27" ht="51.95" customHeight="1">
+    <row r="12" spans="1:27" ht="52" customHeight="1">
       <c r="A12" s="80">
-        <v>17</v>
-      </c>
-      <c r="B12" s="114" t="s">
-        <v>195</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
-      <c r="E12" s="116">
-        <v>41275</v>
-      </c>
+      <c r="E12" s="115"/>
       <c r="F12" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="105" t="s">
-        <v>136</v>
-      </c>
+      <c r="G12" s="80"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="105" t="s">
-        <v>135</v>
-      </c>
+      <c r="I12" s="80"/>
       <c r="J12" s="80"/>
-      <c r="K12" s="84" t="s">
-        <v>160</v>
-      </c>
+      <c r="K12" s="84"/>
       <c r="L12" s="84"/>
-      <c r="M12" s="84" t="s">
-        <v>153</v>
-      </c>
+      <c r="M12" s="84"/>
       <c r="N12" s="84"/>
-      <c r="O12" s="80" t="s">
-        <v>152</v>
-      </c>
+      <c r="O12" s="80"/>
       <c r="P12" s="80"/>
-      <c r="Q12" s="80" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q12" s="80"/>
       <c r="R12" s="80"/>
       <c r="S12" s="80"/>
-      <c r="T12" s="80" t="s">
-        <v>158</v>
-      </c>
+      <c r="T12" s="80"/>
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
       <c r="W12" s="80"/>
       <c r="X12" s="80"/>
       <c r="Y12" s="80"/>
-      <c r="Z12" s="80" t="s">
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+    </row>
+    <row r="13" spans="1:27" ht="52" customHeight="1">
+      <c r="A13" s="80">
+        <v>17</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="116">
+        <v>41275</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="80"/>
+      <c r="K13" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="N13" s="84"/>
+      <c r="O13" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="AA12" s="80"/>
-    </row>
-    <row r="13" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="AA13" s="80"/>
+    </row>
+    <row r="14" spans="1:27" ht="52" customHeight="1">
+      <c r="A14" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B14" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C14" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="99" t="s">
+      <c r="D14" s="85"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G14" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="105" t="s">
+      <c r="H14" s="84"/>
+      <c r="I14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="109" t="s">
+      <c r="J14" s="87"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="111" t="s">
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84" t="s">
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="AA13" s="84"/>
-    </row>
-    <row r="14" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="AA14" s="84"/>
+    </row>
+    <row r="15" spans="1:27" ht="52" customHeight="1">
+      <c r="A15" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B15" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C15" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-    </row>
-    <row r="15" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A15" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="105" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
@@ -5258,60 +5422,50 @@
       <c r="Z15" s="42"/>
       <c r="AA15" s="42"/>
     </row>
-    <row r="16" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A16" s="82" t="s">
+    <row r="16" spans="1:27" ht="52" customHeight="1">
+      <c r="A16" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27" ht="52" customHeight="1">
+      <c r="A17" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B17" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C17" s="84" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-    </row>
-    <row r="17" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A17" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>81</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="117"/>
@@ -5319,60 +5473,58 @@
         <v>86</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="96"/>
+        <v>122</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="87"/>
-      <c r="K17" s="107" t="s">
-        <v>131</v>
-      </c>
+      <c r="K17" s="84"/>
       <c r="L17" s="84"/>
-      <c r="M17" s="105" t="s">
-        <v>132</v>
+      <c r="M17" s="103" t="s">
+        <v>124</v>
       </c>
       <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
+      <c r="O17" s="84" t="s">
+        <v>121</v>
+      </c>
       <c r="P17" s="84"/>
-      <c r="Q17" s="108"/>
+      <c r="Q17" s="84"/>
       <c r="R17" s="84"/>
-      <c r="S17" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="T17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84" t="s">
+        <v>120</v>
+      </c>
       <c r="U17" s="84"/>
       <c r="V17" s="84"/>
       <c r="W17" s="90"/>
       <c r="X17" s="84"/>
       <c r="Y17" s="84"/>
-      <c r="Z17" s="84" t="s">
-        <v>134</v>
-      </c>
+      <c r="Z17" s="84"/>
       <c r="AA17" s="84"/>
     </row>
-    <row r="18" spans="1:27" ht="51.95" customHeight="1">
+    <row r="18" spans="1:27" ht="52" customHeight="1">
       <c r="A18" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="133" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137">
+      <c r="D18" s="135"/>
+      <c r="E18" s="136">
         <v>41487</v>
       </c>
-      <c r="F18" s="138" t="s">
+      <c r="F18" s="137" t="s">
         <v>86</v>
       </c>
       <c r="G18" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="129"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
@@ -5385,27 +5537,27 @@
       <c r="T18" s="123"/>
       <c r="U18" s="123"/>
       <c r="V18" s="123"/>
-      <c r="W18" s="130"/>
+      <c r="W18" s="129"/>
       <c r="X18" s="123"/>
       <c r="Y18" s="123"/>
       <c r="Z18" s="123"/>
       <c r="AA18" s="123"/>
     </row>
-    <row r="19" spans="1:27" ht="51.95" customHeight="1">
+    <row r="19" spans="1:27" ht="52" customHeight="1">
       <c r="A19" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="133" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137">
+      <c r="D19" s="135"/>
+      <c r="E19" s="136">
         <v>41306</v>
       </c>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="137" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="126" t="s">
@@ -5415,7 +5567,7 @@
       <c r="I19" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="128"/>
       <c r="K19" s="127"/>
       <c r="L19" s="123"/>
       <c r="M19" s="127"/>
@@ -5427,14 +5579,14 @@
       <c r="S19" s="123"/>
       <c r="T19" s="123"/>
       <c r="U19" s="123"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="131"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="130"/>
       <c r="Z19" s="123"/>
       <c r="AA19" s="123"/>
     </row>
-    <row r="20" spans="1:27" ht="51.95" customHeight="1">
+    <row r="20" spans="1:27" ht="52" customHeight="1">
       <c r="A20" s="84" t="s">
         <v>173</v>
       </c>
@@ -5479,7 +5631,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" ht="51.95" customHeight="1">
+    <row r="21" spans="1:27" ht="52" customHeight="1">
       <c r="A21" s="84" t="s">
         <v>187</v>
       </c>
@@ -5524,7 +5676,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" ht="51.95" customHeight="1">
+    <row r="22" spans="1:27" ht="52" customHeight="1">
       <c r="A22" s="84" t="s">
         <v>188</v>
       </c>
@@ -5561,11 +5713,11 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="1:27" ht="51.95" customHeight="1">
+    <row r="23" spans="1:27" ht="52" customHeight="1">
       <c r="A23" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="134" t="s">
         <v>184</v>
       </c>
       <c r="C23"/>
@@ -5610,44 +5762,44 @@
     <hyperlink ref="G19" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
     <hyperlink ref="G4" r:id="rId3" display="https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php"/>
-    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId4"/>
     <hyperlink ref="F2" r:id="rId5" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
     <hyperlink ref="F19" r:id="rId6" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
-    <hyperlink ref="F13" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
-    <hyperlink ref="F16" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
+    <hyperlink ref="F14" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
+    <hyperlink ref="F17" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
     <hyperlink ref="F4" r:id="rId9" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F8" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="G8" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F17" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
+    <hyperlink ref="F9" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
+    <hyperlink ref="G9" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
+    <hyperlink ref="F5" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
     <hyperlink ref="F18" r:id="rId13" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F5" r:id="rId14" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
-    <hyperlink ref="Q5" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
-    <hyperlink ref="I13" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
-    <hyperlink ref="T13" r:id="rId15" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
-    <hyperlink ref="G13" r:id="rId16"/>
-    <hyperlink ref="G16" r:id="rId17"/>
+    <hyperlink ref="F6" r:id="rId14" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="Q6" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
+    <hyperlink ref="I14" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
+    <hyperlink ref="T14" r:id="rId15" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="G14" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
     <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
-    <hyperlink ref="M17" r:id="rId18" display="http://www.toefl.org/"/>
-    <hyperlink ref="G17" r:id="rId19"/>
+    <hyperlink ref="M5" r:id="rId18" display="http://www.toefl.org/"/>
+    <hyperlink ref="G5" r:id="rId19"/>
     <hyperlink ref="G18" r:id="rId20"/>
-    <hyperlink ref="I8" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
+    <hyperlink ref="I9" r:id="rId21"/>
+    <hyperlink ref="F7" r:id="rId22"/>
     <hyperlink ref="I19" r:id="rId23"/>
-    <hyperlink ref="F6" r:id="rId24"/>
-    <hyperlink ref="F7" r:id="rId25"/>
-    <hyperlink ref="F12" r:id="rId26"/>
-    <hyperlink ref="F11" r:id="rId27"/>
-    <hyperlink ref="F10" r:id="rId28"/>
-    <hyperlink ref="F9" r:id="rId29"/>
-    <hyperlink ref="I12" r:id="rId30"/>
-    <hyperlink ref="G12" r:id="rId31"/>
+    <hyperlink ref="F3" r:id="rId24"/>
+    <hyperlink ref="F8" r:id="rId25"/>
+    <hyperlink ref="F13" r:id="rId26"/>
+    <hyperlink ref="F12" r:id="rId27"/>
+    <hyperlink ref="F11" r:id="rId28"/>
+    <hyperlink ref="F10" r:id="rId29"/>
+    <hyperlink ref="I13" r:id="rId30"/>
+    <hyperlink ref="G13" r:id="rId31"/>
     <hyperlink ref="I20" r:id="rId32"/>
     <hyperlink ref="G20" r:id="rId33"/>
     <hyperlink ref="F21" r:id="rId34"/>
     <hyperlink ref="F22" r:id="rId35"/>
     <hyperlink ref="F23" r:id="rId36"/>
-    <hyperlink ref="F14" r:id="rId37"/>
-    <hyperlink ref="F15" r:id="rId38"/>
+    <hyperlink ref="F15" r:id="rId37"/>
+    <hyperlink ref="F16" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
@@ -5668,14 +5820,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5702,7 +5854,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="81">
+    <row r="2" spans="1:7" ht="84">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -5713,10 +5865,10 @@
         <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="42"/>
@@ -5766,7 +5918,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="62.1" customHeight="1">
+    <row r="8" spans="1:7" ht="62" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="77"/>
       <c r="C8" s="44"/>
@@ -5935,14 +6087,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.125" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6181,13 +6333,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6464,30 +6616,30 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="1"/>
+    <col min="10" max="10" width="9.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="32">
       <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
@@ -7074,7 +7226,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="17.25">
+    <row r="24" spans="1:18" ht="16">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -7214,7 +7366,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1">
+    <row r="31" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7234,7 +7386,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1">
+    <row r="32" spans="1:18" s="4" customFormat="1" ht="15">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7254,7 +7406,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1">
+    <row r="33" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -7274,7 +7426,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1">
+    <row r="34" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -7294,7 +7446,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" ht="15">
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7304,7 +7456,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" ht="15">
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -7314,7 +7466,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="15">
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -7324,7 +7476,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="15">
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -7334,11 +7486,11 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="56" spans="3:17">
+    <row r="56" spans="3:17" ht="15">
       <c r="F56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="3:17" ht="409.35" customHeight="1">
+    <row r="57" spans="3:17" ht="409.25" customHeight="1">
       <c r="C57" s="6" t="s">
         <v>46</v>
       </c>
@@ -7370,9 +7522,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7971,26 +8123,26 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="32.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:7" ht="32" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="143"/>
+      <c r="C1" s="142"/>
       <c r="D1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="139" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -8000,14 +8152,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+    <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1">
+      <c r="A2" s="140"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
       <c r="D2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="141"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="66" t="s">
         <v>69</v>
       </c>
@@ -8015,7 +8167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A3" s="70"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -8024,7 +8176,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -8033,7 +8185,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -8042,7 +8194,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -8051,7 +8203,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A7" s="70"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -8060,7 +8212,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -8069,7 +8221,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
     </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A9" s="70"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -8078,7 +8230,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A10" s="71"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -8087,7 +8239,7 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A11" s="70"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -8096,7 +8248,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
     </row>
-    <row r="12" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -8105,7 +8257,7 @@
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
     </row>
-    <row r="13" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A13" s="70"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -8114,7 +8266,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
@@ -8123,7 +8275,7 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A15" s="70"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -8132,7 +8284,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="32" customHeight="1" thickBot="1">
       <c r="A16" s="71"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -8149,7 +8301,6 @@
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="280" windowWidth="22480" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4540" yWindow="0" windowWidth="22480" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="227">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -2082,6 +2082,12 @@
   <si>
     <t xml:space="preserve">https://www.gradmit.buffalo.edu/etw/gradmit.asp
 </t>
+  </si>
+  <si>
+    <t>ZHANGYICHAO :  880715</t>
+  </si>
+  <si>
+    <t>https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php</t>
   </si>
 </sst>
 </file>
@@ -3250,6 +3256,12 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3267,12 +3279,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4664,7 +4670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
@@ -4843,7 +4849,7 @@
       <c r="Z2" s="86"/>
       <c r="AA2" s="84"/>
     </row>
-    <row r="3" spans="1:27" ht="96" customHeight="1">
+    <row r="3" spans="1:27" ht="66" customHeight="1">
       <c r="A3" s="84">
         <v>2</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>219</v>
       </c>
       <c r="J3" s="87"/>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="140" t="s">
         <v>217</v>
       </c>
       <c r="L3" s="84"/>
@@ -4916,9 +4922,11 @@
         <v>86</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="84"/>
+        <v>226</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>225</v>
+      </c>
       <c r="I4" s="105" t="s">
         <v>114</v>
       </c>
@@ -5047,7 +5055,7 @@
       <c r="A7" s="82">
         <v>7</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="139" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="84" t="s">
@@ -5127,7 +5135,7 @@
       <c r="A9" s="84">
         <v>10</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="139" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="98" t="s">
@@ -5761,49 +5769,48 @@
   <hyperlinks>
     <hyperlink ref="G19" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="F2" r:id="rId5" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
-    <hyperlink ref="F19" r:id="rId6" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
-    <hyperlink ref="F14" r:id="rId7" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
-    <hyperlink ref="F17" r:id="rId8" display="http://www.suffolk.edu/business/8512.html"/>
-    <hyperlink ref="F4" r:id="rId9" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F9" r:id="rId10" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="G9" r:id="rId11" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F5" r:id="rId12" display="http://www.clarku.edu/gsom/graduate/msf/"/>
-    <hyperlink ref="F18" r:id="rId13" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F6" r:id="rId14" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
+    <hyperlink ref="F19" r:id="rId5" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
+    <hyperlink ref="F14" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
+    <hyperlink ref="F17" r:id="rId7" display="http://www.suffolk.edu/business/8512.html"/>
+    <hyperlink ref="F4" r:id="rId8" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
+    <hyperlink ref="F9" r:id="rId9" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
+    <hyperlink ref="G9" r:id="rId10" display="https://gradapp.luc.edu/gradapp/login.htm"/>
+    <hyperlink ref="F5" r:id="rId11" display="http://www.clarku.edu/gsom/graduate/msf/"/>
+    <hyperlink ref="F18" r:id="rId12" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
+    <hyperlink ref="F6" r:id="rId13" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
     <hyperlink ref="Q6" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
     <hyperlink ref="I14" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
-    <hyperlink ref="T14" r:id="rId15" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
-    <hyperlink ref="G14" r:id="rId16"/>
-    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="T14" r:id="rId14" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="G14" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
     <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
-    <hyperlink ref="M5" r:id="rId18" display="http://www.toefl.org/"/>
-    <hyperlink ref="G5" r:id="rId19"/>
-    <hyperlink ref="G18" r:id="rId20"/>
-    <hyperlink ref="I9" r:id="rId21"/>
-    <hyperlink ref="F7" r:id="rId22"/>
-    <hyperlink ref="I19" r:id="rId23"/>
-    <hyperlink ref="F3" r:id="rId24"/>
-    <hyperlink ref="F8" r:id="rId25"/>
-    <hyperlink ref="F13" r:id="rId26"/>
-    <hyperlink ref="F12" r:id="rId27"/>
-    <hyperlink ref="F11" r:id="rId28"/>
-    <hyperlink ref="F10" r:id="rId29"/>
-    <hyperlink ref="I13" r:id="rId30"/>
-    <hyperlink ref="G13" r:id="rId31"/>
-    <hyperlink ref="I20" r:id="rId32"/>
-    <hyperlink ref="G20" r:id="rId33"/>
-    <hyperlink ref="F21" r:id="rId34"/>
-    <hyperlink ref="F22" r:id="rId35"/>
-    <hyperlink ref="F23" r:id="rId36"/>
-    <hyperlink ref="F15" r:id="rId37"/>
-    <hyperlink ref="F16" r:id="rId38"/>
+    <hyperlink ref="M5" r:id="rId17" display="http://www.toefl.org/"/>
+    <hyperlink ref="G5" r:id="rId18"/>
+    <hyperlink ref="G18" r:id="rId19"/>
+    <hyperlink ref="I9" r:id="rId20"/>
+    <hyperlink ref="F7" r:id="rId21"/>
+    <hyperlink ref="I19" r:id="rId22"/>
+    <hyperlink ref="F3" r:id="rId23"/>
+    <hyperlink ref="F8" r:id="rId24"/>
+    <hyperlink ref="F13" r:id="rId25"/>
+    <hyperlink ref="F12" r:id="rId26"/>
+    <hyperlink ref="F11" r:id="rId27"/>
+    <hyperlink ref="F10" r:id="rId28"/>
+    <hyperlink ref="I13" r:id="rId29"/>
+    <hyperlink ref="G13" r:id="rId30"/>
+    <hyperlink ref="I20" r:id="rId31"/>
+    <hyperlink ref="G20" r:id="rId32"/>
+    <hyperlink ref="F21" r:id="rId33"/>
+    <hyperlink ref="F22" r:id="rId34"/>
+    <hyperlink ref="F23" r:id="rId35"/>
+    <hyperlink ref="F15" r:id="rId36"/>
+    <hyperlink ref="F16" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId39"/>
+  <legacyDrawing r:id="rId38"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8132,17 +8139,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="142"/>
+      <c r="C1" s="144"/>
       <c r="D1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="141" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -8153,13 +8160,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="146"/>
       <c r="D2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="140"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="66" t="s">
         <v>69</v>
       </c>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="0" windowWidth="22480" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="8200" yWindow="340" windowWidth="22480" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -4668,9 +4668,9 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="340" windowWidth="22480" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3700" yWindow="600" windowWidth="25500" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -2838,7 +2838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3279,6 +3279,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4668,15 +4671,15 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="49" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="49" customWidth="1"/>
@@ -4960,73 +4963,65 @@
       <c r="AA4" s="84"/>
     </row>
     <row r="5" spans="1:27" ht="52" customHeight="1">
-      <c r="A5" s="84">
+      <c r="A5" s="82">
         <v>4</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>81</v>
-      </c>
+      <c r="B5" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="84"/>
       <c r="D5" s="85"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="107" t="s">
-        <v>131</v>
-      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="84"/>
-      <c r="M5" s="105" t="s">
-        <v>132</v>
-      </c>
+      <c r="M5" s="84"/>
       <c r="N5" s="84"/>
       <c r="O5" s="84"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="84"/>
       <c r="U5" s="84"/>
       <c r="V5" s="84"/>
       <c r="W5" s="90"/>
-      <c r="X5" s="84"/>
+      <c r="X5" s="90"/>
       <c r="Y5" s="84"/>
-      <c r="Z5" s="84" t="s">
-        <v>134</v>
-      </c>
+      <c r="Z5" s="84"/>
       <c r="AA5" s="84"/>
     </row>
     <row r="6" spans="1:27" ht="86" customHeight="1">
-      <c r="A6" s="82">
-        <v>16</v>
+      <c r="A6" s="84">
+        <v>6</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>84</v>
+        <v>138</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>100</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="116">
-        <v>41306</v>
+        <v>41470</v>
       </c>
       <c r="F6" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="96"/>
+      <c r="G6" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="87"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
@@ -5035,20 +5030,20 @@
         <v>2</v>
       </c>
       <c r="P6" s="84"/>
-      <c r="Q6" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="87"/>
+      <c r="Q6" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="84"/>
       <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
+      <c r="T6" s="110" t="s">
+        <v>139</v>
+      </c>
       <c r="U6" s="84"/>
-      <c r="V6" s="84" t="s">
-        <v>102</v>
-      </c>
+      <c r="V6" s="84"/>
       <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
+      <c r="X6" s="84"/>
       <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
+      <c r="Z6" s="97"/>
       <c r="AA6" s="84"/>
     </row>
     <row r="7" spans="1:27" ht="100" customHeight="1">
@@ -5097,99 +5092,99 @@
       <c r="AA7" s="84"/>
     </row>
     <row r="8" spans="1:27" ht="52" customHeight="1">
-      <c r="A8" s="82">
-        <v>8</v>
-      </c>
-      <c r="B8" s="124" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="84"/>
+      <c r="A8" s="84">
+        <v>9</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>81</v>
+      </c>
       <c r="D8" s="85"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="84"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="84"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="107" t="s">
+        <v>131</v>
+      </c>
       <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="M8" s="105" t="s">
+        <v>132</v>
+      </c>
       <c r="N8" s="84"/>
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="84"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84" t="s">
+        <v>133</v>
+      </c>
       <c r="T8" s="84"/>
       <c r="U8" s="84"/>
       <c r="V8" s="84"/>
       <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
+      <c r="X8" s="84"/>
       <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
+      <c r="Z8" s="84" t="s">
+        <v>134</v>
+      </c>
       <c r="AA8" s="84"/>
     </row>
     <row r="9" spans="1:27" ht="52" customHeight="1">
-      <c r="A9" s="84">
-        <v>10</v>
-      </c>
-      <c r="B9" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="116">
-        <v>41470</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" s="87"/>
+      <c r="A9" s="80">
+        <v>14</v>
+      </c>
+      <c r="B9" s="147" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
       <c r="N9" s="84"/>
-      <c r="O9" s="84">
-        <v>2</v>
-      </c>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="84"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
     </row>
     <row r="10" spans="1:27" ht="51.75" customHeight="1">
       <c r="A10" s="80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116">
+        <v>41320</v>
+      </c>
       <c r="F10" s="105" t="s">
         <v>142</v>
       </c>
@@ -5197,16 +5192,22 @@
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
-      <c r="K10" s="84"/>
+      <c r="K10" s="84" t="s">
+        <v>159</v>
+      </c>
       <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
+      <c r="M10" s="84" t="s">
+        <v>161</v>
+      </c>
       <c r="N10" s="84"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
+      <c r="T10" s="80" t="s">
+        <v>157</v>
+      </c>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -5216,47 +5217,49 @@
       <c r="AA10" s="80"/>
     </row>
     <row r="11" spans="1:27" ht="52" customHeight="1">
-      <c r="A11" s="80">
-        <v>15</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="A11" s="82">
+        <v>16</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="85"/>
       <c r="E11" s="116">
-        <v>41320</v>
-      </c>
-      <c r="F11" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="84" t="s">
-        <v>159</v>
-      </c>
+        <v>41306</v>
+      </c>
+      <c r="F11" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="108"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="84"/>
       <c r="L11" s="84"/>
-      <c r="M11" s="84" t="s">
-        <v>161</v>
-      </c>
+      <c r="M11" s="84"/>
       <c r="N11" s="84"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
+      <c r="O11" s="84">
+        <v>2</v>
+      </c>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="87"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
     </row>
     <row r="12" spans="1:27" ht="52" customHeight="1">
       <c r="A12" s="80">
@@ -5758,7 +5761,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:AA23">
-    <sortCondition ref="A2:A23"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="D6:D17">
@@ -5775,29 +5778,29 @@
     <hyperlink ref="F14" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
     <hyperlink ref="F17" r:id="rId7" display="http://www.suffolk.edu/business/8512.html"/>
     <hyperlink ref="F4" r:id="rId8" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F9" r:id="rId9" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="G9" r:id="rId10" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F5" r:id="rId11" display="http://www.clarku.edu/gsom/graduate/msf/"/>
+    <hyperlink ref="F6" r:id="rId9" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
+    <hyperlink ref="G6" r:id="rId10" display="https://gradapp.luc.edu/gradapp/login.htm"/>
+    <hyperlink ref="F8" r:id="rId11" display="http://www.clarku.edu/gsom/graduate/msf/"/>
     <hyperlink ref="F18" r:id="rId12" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F6" r:id="rId13" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
-    <hyperlink ref="Q6" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
+    <hyperlink ref="F11" r:id="rId13" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="Q11" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
     <hyperlink ref="I14" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
     <hyperlink ref="T14" r:id="rId14" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
     <hyperlink ref="G14" r:id="rId15"/>
     <hyperlink ref="G17" r:id="rId16"/>
     <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
-    <hyperlink ref="M5" r:id="rId17" display="http://www.toefl.org/"/>
-    <hyperlink ref="G5" r:id="rId18"/>
+    <hyperlink ref="M8" r:id="rId17" display="http://www.toefl.org/"/>
+    <hyperlink ref="G8" r:id="rId18"/>
     <hyperlink ref="G18" r:id="rId19"/>
-    <hyperlink ref="I9" r:id="rId20"/>
+    <hyperlink ref="I6" r:id="rId20"/>
     <hyperlink ref="F7" r:id="rId21"/>
     <hyperlink ref="I19" r:id="rId22"/>
     <hyperlink ref="F3" r:id="rId23"/>
-    <hyperlink ref="F8" r:id="rId24"/>
+    <hyperlink ref="F5" r:id="rId24"/>
     <hyperlink ref="F13" r:id="rId25"/>
     <hyperlink ref="F12" r:id="rId26"/>
-    <hyperlink ref="F11" r:id="rId27"/>
-    <hyperlink ref="F10" r:id="rId28"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="F9" r:id="rId28"/>
     <hyperlink ref="I13" r:id="rId29"/>
     <hyperlink ref="G13" r:id="rId30"/>
     <hyperlink ref="I20" r:id="rId31"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="600" windowWidth="25500" windowHeight="18760" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3705" yWindow="630" windowWidth="25500" windowHeight="18210" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="233">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -1537,6 +1537,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup6</t>
@@ -1633,6 +1634,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup8</t>
@@ -1641,7 +1643,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1661,6 +1663,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup10</t>
@@ -1669,7 +1672,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1686,6 +1689,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ackup11</t>
@@ -1694,7 +1698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1711,6 +1715,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">airField
@@ -2089,22 +2094,53 @@
   <si>
     <t>https://utdallas-grad.edu.185r.net/application/login/?S=%2FApplication%2Findex.php</t>
   </si>
+  <si>
+    <t>IIT</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rit.edu/emcs/ptgrad/grad_admission.php</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz9713 : Lishengrui2012</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology 
+Bausch &amp; Lomb Center, Bldg. 77, Room 1241
+58 Lomb Memorial Drive 
+Rochester, New York 14623-5604
+Attention: Office of Graduate Enrollment Services</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>College Code is 2760</t>
+  </si>
+  <si>
+    <t>1.官方成绩
+2.学历学位证明
+3.财产证明
+4.RL2与RL3
+http://www.rit.edu/emcs/ptgrad/grad_admission_int.html</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="d\/mmm\/yy"/>
-    <numFmt numFmtId="167" formatCode="d\/mmm"/>
-    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy\/m\/d"/>
-    <numFmt numFmtId="170" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="171" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="d\/mmm\/yy"/>
+    <numFmt numFmtId="177" formatCode="d\/mmm"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2114,7 +2150,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2576,6 +2612,15 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2838,7 +2883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2872,7 +2917,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2881,16 +2926,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2944,7 +2989,7 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2989,7 +3034,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3004,7 +3049,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3013,10 +3058,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3058,10 +3103,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3073,10 +3118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3094,7 +3139,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3184,13 +3229,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3244,10 +3289,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
@@ -3280,29 +3325,32 @@
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3630,37 +3678,37 @@
       <selection pane="topRight" sqref="A1:W27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="49" customWidth="1"/>
-    <col min="2" max="4" width="15.33203125" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="49" customWidth="1"/>
-    <col min="6" max="7" width="18.1640625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="49" customWidth="1"/>
+    <col min="2" max="4" width="15.375" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="49" customWidth="1"/>
+    <col min="6" max="7" width="18.125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="49" customWidth="1"/>
     <col min="14" max="14" width="13" style="49" customWidth="1"/>
-    <col min="15" max="16" width="9.6640625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="49" customWidth="1"/>
+    <col min="15" max="16" width="9.625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="49" customWidth="1"/>
     <col min="18" max="18" width="8" style="49" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="49" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="49" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="49" customWidth="1"/>
-    <col min="23" max="24" width="12.1640625" style="49" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="49" customWidth="1"/>
+    <col min="20" max="20" width="7.625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="49" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="49" customWidth="1"/>
+    <col min="23" max="24" width="12.125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="49" customWidth="1"/>
     <col min="26" max="26" width="15.5" style="49" customWidth="1"/>
     <col min="27" max="27" width="10" style="49" customWidth="1"/>
-    <col min="28" max="28" width="16.1640625" style="49" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" style="49" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" style="49" customWidth="1"/>
-    <col min="31" max="31" width="17.83203125" style="49" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="49" customWidth="1"/>
-    <col min="33" max="33" width="16.1640625" style="49" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="49"/>
+    <col min="28" max="28" width="16.125" style="49" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="49" customWidth="1"/>
+    <col min="30" max="30" width="15.125" style="49" customWidth="1"/>
+    <col min="31" max="31" width="17.875" style="49" customWidth="1"/>
+    <col min="32" max="32" width="18.375" style="49" customWidth="1"/>
+    <col min="33" max="33" width="16.125" style="49" customWidth="1"/>
+    <col min="34" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="81.75" customHeight="1">
@@ -3735,7 +3783,7 @@
       </c>
       <c r="X1" s="84"/>
     </row>
-    <row r="2" spans="1:24" customFormat="1" ht="110" customHeight="1">
+    <row r="2" spans="1:24" customFormat="1" ht="110.1" customHeight="1">
       <c r="A2" s="80" t="s">
         <v>113</v>
       </c>
@@ -3859,7 +3907,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="4" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A4" s="80" t="s">
         <v>96</v>
       </c>
@@ -3880,7 +3928,7 @@
       <c r="P4" s="85"/>
       <c r="Q4" s="85"/>
     </row>
-    <row r="5" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="5" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A5" s="80" t="s">
         <v>97</v>
       </c>
@@ -3920,7 +3968,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="6" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="6" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A6" s="80" t="s">
         <v>80</v>
       </c>
@@ -3988,7 +4036,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="7" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A7" s="80" t="s">
         <v>1</v>
       </c>
@@ -4055,7 +4103,7 @@
       <c r="P8" s="93"/>
       <c r="Q8" s="84"/>
     </row>
-    <row r="9" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="9" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A9" s="80" t="s">
         <v>2</v>
       </c>
@@ -4091,7 +4139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="10" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A10" s="80" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +4163,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="11" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A11" s="81" t="s">
         <v>90</v>
       </c>
@@ -4145,7 +4193,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="12" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A12" s="81" t="s">
         <v>91</v>
       </c>
@@ -4199,7 +4247,7 @@
       <c r="P13" s="84"/>
       <c r="Q13" s="88"/>
     </row>
-    <row r="14" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="14" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A14" s="81" t="s">
         <v>4</v>
       </c>
@@ -4220,7 +4268,7 @@
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
     </row>
-    <row r="15" spans="1:24" customFormat="1" ht="83" customHeight="1">
+    <row r="15" spans="1:24" customFormat="1" ht="83.1" customHeight="1">
       <c r="A15" s="80" t="s">
         <v>5</v>
       </c>
@@ -4261,7 +4309,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" ht="52" customHeight="1">
+    <row r="16" spans="1:24" customFormat="1" ht="51.95" customHeight="1">
       <c r="A16" s="80" t="s">
         <v>6</v>
       </c>
@@ -4315,7 +4363,7 @@
       <c r="P17" s="84"/>
       <c r="Q17" s="84"/>
     </row>
-    <row r="18" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="18" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A18" s="80" t="s">
         <v>53</v>
       </c>
@@ -4336,7 +4384,7 @@
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
     </row>
-    <row r="19" spans="1:19" customFormat="1" ht="188" customHeight="1">
+    <row r="19" spans="1:19" customFormat="1" ht="188.1" customHeight="1">
       <c r="A19" s="80" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="20" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A20" s="80" t="s">
         <v>92</v>
       </c>
@@ -4404,7 +4452,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="21" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A21" s="80" t="s">
         <v>93</v>
       </c>
@@ -4425,7 +4473,7 @@
       <c r="P21" s="84"/>
       <c r="Q21" s="84"/>
     </row>
-    <row r="22" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="22" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A22" s="80" t="s">
         <v>47</v>
       </c>
@@ -4452,7 +4500,7 @@
       <c r="P22" s="84"/>
       <c r="Q22" s="90"/>
     </row>
-    <row r="23" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="23" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A23" s="80" t="s">
         <v>48</v>
       </c>
@@ -4473,7 +4521,7 @@
       <c r="P23" s="90"/>
       <c r="Q23" s="90"/>
     </row>
-    <row r="24" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="24" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A24" s="80" t="s">
         <v>94</v>
       </c>
@@ -4494,7 +4542,7 @@
       <c r="P24" s="84"/>
       <c r="Q24" s="90"/>
     </row>
-    <row r="25" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="25" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A25" s="80" t="s">
         <v>95</v>
       </c>
@@ -4515,7 +4563,7 @@
       <c r="P25" s="84"/>
       <c r="Q25" s="92"/>
     </row>
-    <row r="26" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="26" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A26" s="80" t="s">
         <v>9</v>
       </c>
@@ -4542,7 +4590,7 @@
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
     </row>
-    <row r="27" spans="1:19" customFormat="1" ht="52" customHeight="1">
+    <row r="27" spans="1:19" customFormat="1" ht="51.95" customHeight="1">
       <c r="A27" s="80" t="s">
         <v>54</v>
       </c>
@@ -4563,44 +4611,44 @@
       <c r="P27" s="84"/>
       <c r="Q27" s="84"/>
     </row>
-    <row r="28" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="29" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="30" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="31" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="32" spans="1:19" customFormat="1" ht="52" customHeight="1"/>
-    <row r="33" customFormat="1" ht="52" customHeight="1"/>
-    <row r="34" customFormat="1" ht="52" customHeight="1"/>
-    <row r="35" customFormat="1" ht="52" customHeight="1"/>
-    <row r="36" customFormat="1" ht="52" customHeight="1"/>
-    <row r="37" customFormat="1" ht="52" customHeight="1"/>
-    <row r="38" customFormat="1" ht="52" customHeight="1"/>
-    <row r="39" customFormat="1" ht="52" customHeight="1"/>
-    <row r="40" customFormat="1" ht="52" customHeight="1"/>
-    <row r="41" customFormat="1" ht="52" customHeight="1"/>
-    <row r="42" customFormat="1" ht="52" customHeight="1"/>
-    <row r="43" customFormat="1" ht="52" customHeight="1"/>
-    <row r="44" customFormat="1" ht="52" customHeight="1"/>
-    <row r="45" customFormat="1" ht="52" customHeight="1"/>
-    <row r="46" customFormat="1" ht="52" customHeight="1"/>
-    <row r="47" customFormat="1" ht="52" customHeight="1"/>
-    <row r="48" customFormat="1" ht="52" customHeight="1"/>
-    <row r="49" customFormat="1" ht="52" customHeight="1"/>
-    <row r="50" customFormat="1" ht="52" customHeight="1"/>
-    <row r="51" customFormat="1" ht="52" customHeight="1"/>
-    <row r="52" customFormat="1" ht="52" customHeight="1"/>
-    <row r="53" customFormat="1" ht="52" customHeight="1"/>
-    <row r="54" customFormat="1" ht="52" customHeight="1"/>
-    <row r="55" customFormat="1" ht="52" customHeight="1"/>
-    <row r="56" customFormat="1" ht="52" customHeight="1"/>
-    <row r="57" customFormat="1" ht="52" customHeight="1"/>
-    <row r="58" customFormat="1" ht="52" customHeight="1"/>
-    <row r="59" customFormat="1" ht="52" customHeight="1"/>
-    <row r="60" customFormat="1" ht="52" customHeight="1"/>
-    <row r="61" customFormat="1" ht="52" customHeight="1"/>
-    <row r="62" customFormat="1" ht="52" customHeight="1"/>
-    <row r="63" customFormat="1" ht="52" customHeight="1"/>
-    <row r="64" customFormat="1" ht="52" customHeight="1"/>
-    <row r="65" customFormat="1" ht="52" customHeight="1"/>
+    <row r="28" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="29" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="30" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="31" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="32" spans="1:19" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="33" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="34" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="35" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="36" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="37" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="38" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="39" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="40" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="41" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="42" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="43" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="44" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="45" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="46" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="47" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="48" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="49" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="50" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="51" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="52" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="53" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="54" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="55" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="56" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="57" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="58" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="59" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="60" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="61" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="62" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="63" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="64" customFormat="1" ht="51.95" customHeight="1"/>
+    <row r="65" customFormat="1" ht="51.95" customHeight="1"/>
   </sheetData>
   <sortState columnSort="1" ref="A1:K27">
     <sortCondition ref="A1:K1"/>
@@ -4671,44 +4719,44 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="41.875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="49" customWidth="1"/>
     <col min="11" max="11" width="11" style="49" customWidth="1"/>
     <col min="12" max="12" width="8" style="49" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="44.1640625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="49" customWidth="1"/>
+    <col min="17" max="17" width="44.125" style="49" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="49" customWidth="1"/>
     <col min="20" max="20" width="15.5" style="49" customWidth="1"/>
     <col min="21" max="21" width="10" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="49" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="49" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="49" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="49" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="49" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="49"/>
+    <col min="22" max="22" width="16.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="49" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="17.875" style="49" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="49" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="49" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="52" customHeight="1">
+    <row r="1" spans="1:27" ht="51.95" customHeight="1">
       <c r="A1" s="132" t="s">
         <v>198</v>
       </c>
@@ -4791,7 +4839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="52" customHeight="1">
+    <row r="2" spans="1:27" ht="51.95" customHeight="1">
       <c r="A2" s="82">
         <v>1</v>
       </c>
@@ -4907,7 +4955,7 @@
       <c r="Z3" s="84"/>
       <c r="AA3" s="84"/>
     </row>
-    <row r="4" spans="1:27" ht="52" customHeight="1">
+    <row r="4" spans="1:27" ht="51.95" customHeight="1">
       <c r="A4" s="84">
         <v>3</v>
       </c>
@@ -4962,32 +5010,44 @@
       <c r="Z4" s="84"/>
       <c r="AA4" s="84"/>
     </row>
-    <row r="5" spans="1:27" ht="52" customHeight="1">
+    <row r="5" spans="1:27" ht="51.95" customHeight="1">
       <c r="A5" s="82">
         <v>4</v>
       </c>
       <c r="B5" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="84" t="s">
+        <v>82</v>
+      </c>
       <c r="D5" s="85"/>
       <c r="E5" s="116"/>
       <c r="F5" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="94"/>
+      <c r="G5" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="148" t="s">
+        <v>232</v>
+      </c>
       <c r="J5" s="96"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="M5" s="147" t="s">
+        <v>231</v>
+      </c>
       <c r="N5" s="84"/>
       <c r="O5" s="84"/>
       <c r="P5" s="84"/>
       <c r="Q5" s="105"/>
       <c r="R5" s="87"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="84" t="s">
+        <v>230</v>
+      </c>
       <c r="T5" s="84"/>
       <c r="U5" s="84"/>
       <c r="V5" s="84"/>
@@ -4997,78 +5057,66 @@
       <c r="Z5" s="84"/>
       <c r="AA5" s="84"/>
     </row>
-    <row r="6" spans="1:27" ht="86" customHeight="1">
+    <row r="6" spans="1:27" ht="52.5" customHeight="1">
       <c r="A6" s="84">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" ht="99.95" customHeight="1">
+      <c r="A7" s="84">
         <v>6</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B7" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C7" s="98" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="116">
-        <v>41470</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84">
-        <v>2</v>
-      </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="84"/>
-    </row>
-    <row r="7" spans="1:27" ht="100" customHeight="1">
-      <c r="A7" s="82">
-        <v>7</v>
-      </c>
-      <c r="B7" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>78</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="116">
-        <v>41281</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="84"/>
+        <v>41470</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="101"/>
+      <c r="I7" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="87"/>
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
@@ -5078,113 +5126,123 @@
       </c>
       <c r="P7" s="84"/>
       <c r="Q7" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="101"/>
+        <v>140</v>
+      </c>
+      <c r="R7" s="84"/>
       <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
+      <c r="T7" s="110" t="s">
+        <v>139</v>
+      </c>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
+      <c r="W7" s="90"/>
       <c r="X7" s="84"/>
       <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
+      <c r="Z7" s="97"/>
       <c r="AA7" s="84"/>
     </row>
-    <row r="8" spans="1:27" ht="52" customHeight="1">
-      <c r="A8" s="84">
-        <v>9</v>
+    <row r="8" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A8" s="82">
+        <v>7</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="85"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="99" t="s">
-        <v>86</v>
+      <c r="E8" s="116">
+        <v>41281</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>142</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="H8" s="84"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="107" t="s">
-        <v>131</v>
-      </c>
+      <c r="I8" s="102"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
       <c r="L8" s="84"/>
-      <c r="M8" s="105" t="s">
-        <v>132</v>
-      </c>
+      <c r="M8" s="84"/>
       <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
+      <c r="O8" s="84">
+        <v>2</v>
+      </c>
       <c r="P8" s="84"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q8" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="101"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="84"/>
       <c r="U8" s="84"/>
       <c r="V8" s="84"/>
-      <c r="W8" s="90"/>
+      <c r="W8" s="84"/>
       <c r="X8" s="84"/>
       <c r="Y8" s="84"/>
-      <c r="Z8" s="84" t="s">
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+    </row>
+    <row r="9" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A9" s="84">
+        <v>9</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="84"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="84"/>
+      <c r="M9" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="AA8" s="84"/>
-    </row>
-    <row r="9" spans="1:27" ht="52" customHeight="1">
-      <c r="A9" s="80">
-        <v>14</v>
-      </c>
-      <c r="B9" s="147" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="84"/>
     </row>
     <row r="10" spans="1:27" ht="51.75" customHeight="1">
       <c r="A10" s="80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
-      <c r="E10" s="116">
-        <v>41320</v>
-      </c>
+      <c r="E10" s="115"/>
       <c r="F10" s="105" t="s">
         <v>142</v>
       </c>
@@ -5192,22 +5250,16 @@
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
-      <c r="K10" s="84" t="s">
-        <v>159</v>
-      </c>
+      <c r="K10" s="84"/>
       <c r="L10" s="84"/>
-      <c r="M10" s="84" t="s">
-        <v>161</v>
-      </c>
+      <c r="M10" s="84"/>
       <c r="N10" s="84"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="80" t="s">
-        <v>157</v>
-      </c>
+      <c r="T10" s="80"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -5216,235 +5268,243 @@
       <c r="Z10" s="80"/>
       <c r="AA10" s="80"/>
     </row>
-    <row r="11" spans="1:27" ht="52" customHeight="1">
-      <c r="A11" s="82">
+    <row r="11" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A11" s="80">
+        <v>15</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="116">
+        <v>41320</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="84"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+    </row>
+    <row r="12" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A12" s="82">
         <v>16</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B12" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C12" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="116">
+      <c r="D12" s="85"/>
+      <c r="E12" s="116">
         <v>41306</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F12" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84">
-        <v>2</v>
-      </c>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" s="87"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-    </row>
-    <row r="12" spans="1:27" ht="52" customHeight="1">
-      <c r="A12" s="80">
-        <v>16</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="96"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
       <c r="M12" s="84"/>
       <c r="N12" s="84"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-    </row>
-    <row r="13" spans="1:27" ht="52" customHeight="1">
+      <c r="O12" s="84">
+        <v>2</v>
+      </c>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="87"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+    </row>
+    <row r="13" spans="1:27" ht="51.95" customHeight="1">
       <c r="A13" s="80">
-        <v>17</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>195</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
-      <c r="E13" s="116">
-        <v>41275</v>
-      </c>
+      <c r="E13" s="115"/>
       <c r="F13" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="105" t="s">
-        <v>136</v>
-      </c>
+      <c r="G13" s="80"/>
       <c r="H13" s="80"/>
-      <c r="I13" s="105" t="s">
-        <v>135</v>
-      </c>
+      <c r="I13" s="80"/>
       <c r="J13" s="80"/>
-      <c r="K13" s="84" t="s">
-        <v>160</v>
-      </c>
+      <c r="K13" s="84"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="84" t="s">
-        <v>153</v>
-      </c>
+      <c r="M13" s="84"/>
       <c r="N13" s="84"/>
-      <c r="O13" s="80" t="s">
-        <v>152</v>
-      </c>
+      <c r="O13" s="80"/>
       <c r="P13" s="80"/>
-      <c r="Q13" s="80" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q13" s="80"/>
       <c r="R13" s="80"/>
       <c r="S13" s="80"/>
-      <c r="T13" s="80" t="s">
-        <v>158</v>
-      </c>
+      <c r="T13" s="80"/>
       <c r="U13" s="80"/>
       <c r="V13" s="80"/>
       <c r="W13" s="80"/>
       <c r="X13" s="80"/>
       <c r="Y13" s="80"/>
-      <c r="Z13" s="80" t="s">
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+    </row>
+    <row r="14" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A14" s="80">
+        <v>17</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="116">
+        <v>41275</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="80"/>
+      <c r="I14" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="80"/>
+      <c r="K14" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" s="84"/>
+      <c r="O14" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="AA13" s="80"/>
-    </row>
-    <row r="14" spans="1:27" ht="52" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="AA14" s="80"/>
+    </row>
+    <row r="15" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A15" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B15" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C15" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="99" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G15" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="105" t="s">
+      <c r="H15" s="84"/>
+      <c r="I15" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="109" t="s">
+      <c r="J15" s="87"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="111" t="s">
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84" t="s">
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="AA14" s="84"/>
-    </row>
-    <row r="15" spans="1:27" ht="52" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="AA15" s="84"/>
+    </row>
+    <row r="16" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A16" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B16" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C16" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" ht="52" customHeight="1">
-      <c r="A16" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="105" t="s">
-        <v>142</v>
+      <c r="F16" s="126" t="s">
+        <v>86</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -5468,7 +5528,7 @@
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
     </row>
-    <row r="17" spans="1:27" ht="52" customHeight="1">
+    <row r="17" spans="1:27" ht="51.95" customHeight="1">
       <c r="A17" s="82" t="s">
         <v>165</v>
       </c>
@@ -5513,7 +5573,7 @@
       <c r="Z17" s="84"/>
       <c r="AA17" s="84"/>
     </row>
-    <row r="18" spans="1:27" ht="52" customHeight="1">
+    <row r="18" spans="1:27" ht="51.95" customHeight="1">
       <c r="A18" s="82" t="s">
         <v>166</v>
       </c>
@@ -5554,7 +5614,7 @@
       <c r="Z18" s="123"/>
       <c r="AA18" s="123"/>
     </row>
-    <row r="19" spans="1:27" ht="52" customHeight="1">
+    <row r="19" spans="1:27" ht="51.95" customHeight="1">
       <c r="A19" s="84" t="s">
         <v>167</v>
       </c>
@@ -5597,7 +5657,7 @@
       <c r="Z19" s="123"/>
       <c r="AA19" s="123"/>
     </row>
-    <row r="20" spans="1:27" ht="52" customHeight="1">
+    <row r="20" spans="1:27" ht="51.95" customHeight="1">
       <c r="A20" s="84" t="s">
         <v>173</v>
       </c>
@@ -5642,7 +5702,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" ht="52" customHeight="1">
+    <row r="21" spans="1:27" ht="51.95" customHeight="1">
       <c r="A21" s="84" t="s">
         <v>187</v>
       </c>
@@ -5687,7 +5747,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" ht="52" customHeight="1">
+    <row r="22" spans="1:27" ht="51.95" customHeight="1">
       <c r="A22" s="84" t="s">
         <v>188</v>
       </c>
@@ -5724,7 +5784,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="1:27" ht="52" customHeight="1">
+    <row r="23" spans="1:27" ht="51.95" customHeight="1">
       <c r="A23" s="84" t="s">
         <v>189</v>
       </c>
@@ -5761,7 +5821,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:AA23">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="D6:D17">
@@ -5772,48 +5832,51 @@
   <hyperlinks>
     <hyperlink ref="G19" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
-    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId3"/>
     <hyperlink ref="F2" r:id="rId4" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
     <hyperlink ref="F19" r:id="rId5" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
-    <hyperlink ref="F14" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
+    <hyperlink ref="F15" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
     <hyperlink ref="F17" r:id="rId7" display="http://www.suffolk.edu/business/8512.html"/>
     <hyperlink ref="F4" r:id="rId8" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F6" r:id="rId9" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="G6" r:id="rId10" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F8" r:id="rId11" display="http://www.clarku.edu/gsom/graduate/msf/"/>
+    <hyperlink ref="F7" r:id="rId9" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
+    <hyperlink ref="G7" r:id="rId10" display="https://gradapp.luc.edu/gradapp/login.htm"/>
+    <hyperlink ref="F9" r:id="rId11" display="http://www.clarku.edu/gsom/graduate/msf/"/>
     <hyperlink ref="F18" r:id="rId12" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F11" r:id="rId13" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
-    <hyperlink ref="Q11" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
-    <hyperlink ref="I14" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
-    <hyperlink ref="T14" r:id="rId14" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
-    <hyperlink ref="G14" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId13" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="Q12" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
+    <hyperlink ref="I15" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
+    <hyperlink ref="T15" r:id="rId14" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="G15" r:id="rId15"/>
     <hyperlink ref="G17" r:id="rId16"/>
     <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
-    <hyperlink ref="M8" r:id="rId17" display="http://www.toefl.org/"/>
-    <hyperlink ref="G8" r:id="rId18"/>
+    <hyperlink ref="M9" r:id="rId17" display="http://www.toefl.org/"/>
+    <hyperlink ref="G9" r:id="rId18"/>
     <hyperlink ref="G18" r:id="rId19"/>
-    <hyperlink ref="I6" r:id="rId20"/>
-    <hyperlink ref="F7" r:id="rId21"/>
+    <hyperlink ref="I7" r:id="rId20"/>
+    <hyperlink ref="F8" r:id="rId21"/>
     <hyperlink ref="I19" r:id="rId22"/>
     <hyperlink ref="F3" r:id="rId23"/>
     <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F13" r:id="rId25"/>
-    <hyperlink ref="F12" r:id="rId26"/>
-    <hyperlink ref="F10" r:id="rId27"/>
-    <hyperlink ref="F9" r:id="rId28"/>
-    <hyperlink ref="I13" r:id="rId29"/>
-    <hyperlink ref="G13" r:id="rId30"/>
+    <hyperlink ref="F14" r:id="rId25"/>
+    <hyperlink ref="F13" r:id="rId26"/>
+    <hyperlink ref="F11" r:id="rId27"/>
+    <hyperlink ref="F10" r:id="rId28"/>
+    <hyperlink ref="I14" r:id="rId29"/>
+    <hyperlink ref="G14" r:id="rId30"/>
     <hyperlink ref="I20" r:id="rId31"/>
     <hyperlink ref="G20" r:id="rId32"/>
     <hyperlink ref="F21" r:id="rId33"/>
     <hyperlink ref="F22" r:id="rId34"/>
     <hyperlink ref="F23" r:id="rId35"/>
-    <hyperlink ref="F15" r:id="rId36"/>
-    <hyperlink ref="F16" r:id="rId37"/>
+    <hyperlink ref="F16" r:id="rId36"/>
+    <hyperlink ref="F6" r:id="rId37"/>
+    <hyperlink ref="G5" r:id="rId38"/>
+    <hyperlink ref="I5" r:id="rId39" display="http://www.rit.edu/emcs/ptgrad/grad_admission_int.html"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId40"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId38"/>
+  <legacyDrawing r:id="rId41"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5830,14 +5893,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5864,7 +5927,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84">
+    <row r="2" spans="1:7" ht="81">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -5928,7 +5991,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="62" customHeight="1">
+    <row r="8" spans="1:7" ht="62.1" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="77"/>
       <c r="C8" s="44"/>
@@ -6097,14 +6160,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6343,13 +6406,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6623,33 +6686,33 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32">
+    <row r="1" spans="1:18" ht="36">
       <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
@@ -7236,7 +7299,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="16">
+    <row r="24" spans="1:18" ht="17.25">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -7376,7 +7439,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="31" spans="1:18" s="4" customFormat="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7396,7 +7459,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" ht="15">
+    <row r="32" spans="1:18" s="4" customFormat="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7416,7 +7479,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="33" spans="1:18" s="4" customFormat="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -7436,7 +7499,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" ht="14">
+    <row r="34" spans="1:18" s="4" customFormat="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -7456,7 +7519,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="40" spans="1:18" ht="15">
+    <row r="40" spans="1:18">
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7466,7 +7529,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:18" ht="15">
+    <row r="41" spans="1:18">
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -7476,7 +7539,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:18" ht="15">
+    <row r="42" spans="1:18">
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -7486,7 +7549,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="15">
+    <row r="43" spans="1:18">
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -7496,11 +7559,11 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="56" spans="3:17" ht="15">
+    <row r="56" spans="3:17">
       <c r="F56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="3:17" ht="409.25" customHeight="1">
+    <row r="57" spans="3:17" ht="409.35" customHeight="1">
       <c r="C57" s="6" t="s">
         <v>46</v>
       </c>
@@ -7532,9 +7595,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8133,15 +8196,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1">
       <c r="A1" s="141" t="s">
         <v>66</v>
       </c>
@@ -8162,7 +8225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A2" s="142"/>
       <c r="B2" s="145"/>
       <c r="C2" s="146"/>
@@ -8177,7 +8240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A3" s="70"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -8186,7 +8249,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -8195,7 +8258,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -8204,7 +8267,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -8213,7 +8276,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A7" s="70"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -8222,7 +8285,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -8231,7 +8294,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
     </row>
-    <row r="9" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A9" s="70"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -8240,7 +8303,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A10" s="71"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -8249,7 +8312,7 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A11" s="70"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -8258,7 +8321,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
     </row>
-    <row r="12" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -8267,7 +8330,7 @@
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
     </row>
-    <row r="13" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A13" s="70"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -8276,7 +8339,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
@@ -8285,7 +8348,7 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A15" s="70"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -8294,7 +8357,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A16" s="71"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -8311,6 +8374,7 @@
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -2103,10 +2103,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>yz9713 : Lishengrui2012</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>Rochester Institute of Technology 
 Bausch &amp; Lomb Center, Bldg. 77, Room 1241
 58 Lomb Memorial Drive 
@@ -2123,6 +2119,18 @@
 3.财产证明
 4.RL2与RL3
 http://www.rit.edu/emcs/ptgrad/grad_admission_int.html</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz9713 : Lishengrui2012</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHANGYICHAO:Lishengrui2012</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial economics</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -4721,7 +4729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -5029,16 +5037,16 @@
         <v>228</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I5" s="148" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="96"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
       <c r="M5" s="147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N5" s="84"/>
       <c r="O5" s="84"/>
@@ -5046,7 +5054,7 @@
       <c r="Q5" s="105"/>
       <c r="R5" s="87"/>
       <c r="S5" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T5" s="84"/>
       <c r="U5" s="84"/>
@@ -5064,14 +5072,18 @@
       <c r="B6" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42" t="s">
+        <v>234</v>
+      </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="105" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>233</v>
+      </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="250">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -2131,6 +2131,60 @@
   </si>
   <si>
     <t>financial economics</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMASS BOSTON</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMASS BOSTONThe Office of Graduate Admissions
+100 Morrissey Blvd.
+Boston, MA 02125-3393</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Louis Univresity</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.slu.edu/graduate-admission-home/apply-now</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup1</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup2</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup6</t>
+  </si>
+  <si>
+    <t>backup8</t>
+  </si>
+  <si>
+    <t>backup10</t>
+  </si>
+  <si>
+    <t>backup11</t>
+  </si>
+  <si>
+    <t>backup12</t>
+  </si>
+  <si>
+    <t>backup13</t>
+  </si>
+  <si>
+    <t>backup14</t>
+  </si>
+  <si>
+    <t>http://damore-mckim.northeastern.edu/grad/ms-finance/</t>
+  </si>
+  <si>
+    <t>Northeastern.</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -3315,6 +3369,12 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3332,12 +3392,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4727,9 +4781,9 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -4908,7 +4962,7 @@
       <c r="Z2" s="86"/>
       <c r="AA2" s="84"/>
     </row>
-    <row r="3" spans="1:27" ht="66" customHeight="1">
+    <row r="3" spans="1:27" ht="50.25" customHeight="1">
       <c r="A3" s="84">
         <v>2</v>
       </c>
@@ -4963,7 +5017,7 @@
       <c r="Z3" s="84"/>
       <c r="AA3" s="84"/>
     </row>
-    <row r="4" spans="1:27" ht="51.95" customHeight="1">
+    <row r="4" spans="1:27" ht="36.75" customHeight="1">
       <c r="A4" s="84">
         <v>3</v>
       </c>
@@ -5039,13 +5093,13 @@
       <c r="H5" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="148" t="s">
+      <c r="I5" s="142" t="s">
         <v>231</v>
       </c>
       <c r="J5" s="96"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
-      <c r="M5" s="147" t="s">
+      <c r="M5" s="141" t="s">
         <v>230</v>
       </c>
       <c r="N5" s="84"/>
@@ -5065,7 +5119,7 @@
       <c r="Z5" s="84"/>
       <c r="AA5" s="84"/>
     </row>
-    <row r="6" spans="1:27" ht="52.5" customHeight="1">
+    <row r="6" spans="1:27" ht="38.25" customHeight="1">
       <c r="A6" s="84">
         <v>5</v>
       </c>
@@ -5104,30 +5158,20 @@
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
     </row>
-    <row r="7" spans="1:27" ht="99.95" customHeight="1">
+    <row r="7" spans="1:27" ht="33.75" customHeight="1">
       <c r="A7" s="84">
         <v>6</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>100</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C7" s="98"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="116">
-        <v>41470</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>88</v>
-      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="101"/>
-      <c r="I7" s="105" t="s">
-        <v>135</v>
-      </c>
+      <c r="I7" s="105"/>
       <c r="J7" s="87"/>
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
@@ -5137,14 +5181,12 @@
         <v>2</v>
       </c>
       <c r="P7" s="84"/>
-      <c r="Q7" s="84" t="s">
-        <v>140</v>
-      </c>
+      <c r="Q7" s="84"/>
       <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="110" t="s">
-        <v>139</v>
-      </c>
+      <c r="S7" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="T7" s="110"/>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
       <c r="W7" s="90"/>
@@ -5153,25 +5195,19 @@
       <c r="Z7" s="97"/>
       <c r="AA7" s="84"/>
     </row>
-    <row r="8" spans="1:27" ht="51.95" customHeight="1">
+    <row r="8" spans="1:27" ht="40.5" customHeight="1">
       <c r="A8" s="82">
         <v>7</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>78</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C8" s="84"/>
       <c r="D8" s="85"/>
-      <c r="E8" s="116">
-        <v>41281</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="105" t="s">
-        <v>89</v>
+      <c r="E8" s="116"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="102"/>
@@ -5184,9 +5220,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="84"/>
-      <c r="Q8" s="84" t="s">
-        <v>143</v>
-      </c>
+      <c r="Q8" s="84"/>
       <c r="R8" s="101"/>
       <c r="S8" s="84"/>
       <c r="T8" s="84"/>
@@ -5198,12 +5232,12 @@
       <c r="Z8" s="84"/>
       <c r="AA8" s="84"/>
     </row>
-    <row r="9" spans="1:27" ht="51.95" customHeight="1">
+    <row r="9" spans="1:27" ht="34.5" customHeight="1">
       <c r="A9" s="84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>81</v>
@@ -5211,29 +5245,21 @@
       <c r="D9" s="85"/>
       <c r="E9" s="117"/>
       <c r="F9" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>136</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G9" s="105"/>
       <c r="H9" s="84"/>
       <c r="I9" s="96"/>
       <c r="J9" s="87"/>
-      <c r="K9" s="107" t="s">
-        <v>131</v>
-      </c>
+      <c r="K9" s="107"/>
       <c r="L9" s="84"/>
-      <c r="M9" s="105" t="s">
-        <v>132</v>
-      </c>
+      <c r="M9" s="105"/>
       <c r="N9" s="84"/>
       <c r="O9" s="84"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="108"/>
       <c r="R9" s="84"/>
-      <c r="S9" s="84" t="s">
-        <v>133</v>
-      </c>
+      <c r="S9" s="84"/>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
       <c r="V9" s="84"/>
@@ -5246,8 +5272,8 @@
       <c r="AA9" s="84"/>
     </row>
     <row r="10" spans="1:27" ht="51.75" customHeight="1">
-      <c r="A10" s="80">
-        <v>14</v>
+      <c r="A10" s="80" t="s">
+        <v>239</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>163</v>
@@ -5281,8 +5307,8 @@
       <c r="AA10" s="80"/>
     </row>
     <row r="11" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A11" s="80">
-        <v>15</v>
+      <c r="A11" s="80" t="s">
+        <v>240</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>162</v>
@@ -5324,8 +5350,8 @@
       <c r="AA11" s="80"/>
     </row>
     <row r="12" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A12" s="82">
-        <v>16</v>
+      <c r="A12" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="B12" s="83" t="s">
         <v>137</v>
@@ -5369,8 +5395,8 @@
       <c r="AA12" s="84"/>
     </row>
     <row r="13" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A13" s="80">
-        <v>16</v>
+      <c r="A13" s="80" t="s">
+        <v>166</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>156</v>
@@ -5404,8 +5430,8 @@
       <c r="AA13" s="80"/>
     </row>
     <row r="14" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A14" s="80">
-        <v>17</v>
+      <c r="A14" s="80" t="s">
+        <v>167</v>
       </c>
       <c r="B14" s="114" t="s">
         <v>195</v>
@@ -5457,8 +5483,8 @@
       <c r="AA14" s="80"/>
     </row>
     <row r="15" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A15" s="84" t="s">
-        <v>164</v>
+      <c r="A15" s="80" t="s">
+        <v>241</v>
       </c>
       <c r="B15" s="83" t="s">
         <v>104</v>
@@ -5504,8 +5530,8 @@
       <c r="AA15" s="84"/>
     </row>
     <row r="16" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A16" s="84" t="s">
-        <v>190</v>
+      <c r="A16" s="80" t="s">
+        <v>187</v>
       </c>
       <c r="B16" s="125" t="s">
         <v>185</v>
@@ -5541,8 +5567,8 @@
       <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A17" s="82" t="s">
-        <v>165</v>
+      <c r="A17" s="80" t="s">
+        <v>242</v>
       </c>
       <c r="B17" s="83" t="s">
         <v>123</v>
@@ -5586,8 +5612,8 @@
       <c r="AA17" s="84"/>
     </row>
     <row r="18" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A18" s="82" t="s">
-        <v>166</v>
+      <c r="A18" s="80" t="s">
+        <v>189</v>
       </c>
       <c r="B18" s="133" t="s">
         <v>99</v>
@@ -5627,8 +5653,8 @@
       <c r="AA18" s="123"/>
     </row>
     <row r="19" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A19" s="84" t="s">
-        <v>167</v>
+      <c r="A19" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="B19" s="133" t="s">
         <v>145</v>
@@ -5670,8 +5696,8 @@
       <c r="AA19" s="123"/>
     </row>
     <row r="20" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A20" s="84" t="s">
-        <v>173</v>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
       </c>
       <c r="B20" s="118" t="s">
         <v>172</v>
@@ -5715,8 +5741,8 @@
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A21" s="84" t="s">
-        <v>187</v>
+      <c r="A21" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="B21" s="118" t="s">
         <v>176</v>
@@ -5760,8 +5786,8 @@
       <c r="AA21"/>
     </row>
     <row r="22" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A22" s="84" t="s">
-        <v>188</v>
+      <c r="A22" s="80" t="s">
+        <v>246</v>
       </c>
       <c r="B22" s="121" t="s">
         <v>179</v>
@@ -5797,8 +5823,8 @@
       <c r="AA22"/>
     </row>
     <row r="23" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A23" s="84" t="s">
-        <v>189</v>
+      <c r="A23" s="80" t="s">
+        <v>247</v>
       </c>
       <c r="B23" s="134" t="s">
         <v>184</v>
@@ -5850,45 +5876,38 @@
     <hyperlink ref="F15" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
     <hyperlink ref="F17" r:id="rId7" display="http://www.suffolk.edu/business/8512.html"/>
     <hyperlink ref="F4" r:id="rId8" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F7" r:id="rId9" display="http://www.luc.edu/quinlan/mba/masters/masters-in-finance/index.shtml"/>
-    <hyperlink ref="G7" r:id="rId10" display="https://gradapp.luc.edu/gradapp/login.htm"/>
-    <hyperlink ref="F9" r:id="rId11" display="http://www.clarku.edu/gsom/graduate/msf/"/>
-    <hyperlink ref="F18" r:id="rId12" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F12" r:id="rId13" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="F18" r:id="rId9" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
+    <hyperlink ref="F12" r:id="rId10" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
     <hyperlink ref="Q12" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
     <hyperlink ref="I15" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
-    <hyperlink ref="T15" r:id="rId14" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
-    <hyperlink ref="G15" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="T15" r:id="rId11" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="G15" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
     <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
-    <hyperlink ref="M9" r:id="rId17" display="http://www.toefl.org/"/>
-    <hyperlink ref="G9" r:id="rId18"/>
-    <hyperlink ref="G18" r:id="rId19"/>
-    <hyperlink ref="I7" r:id="rId20"/>
-    <hyperlink ref="F8" r:id="rId21"/>
-    <hyperlink ref="I19" r:id="rId22"/>
-    <hyperlink ref="F3" r:id="rId23"/>
-    <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F14" r:id="rId25"/>
-    <hyperlink ref="F13" r:id="rId26"/>
-    <hyperlink ref="F11" r:id="rId27"/>
-    <hyperlink ref="F10" r:id="rId28"/>
-    <hyperlink ref="I14" r:id="rId29"/>
-    <hyperlink ref="G14" r:id="rId30"/>
-    <hyperlink ref="I20" r:id="rId31"/>
-    <hyperlink ref="G20" r:id="rId32"/>
-    <hyperlink ref="F21" r:id="rId33"/>
-    <hyperlink ref="F22" r:id="rId34"/>
-    <hyperlink ref="F23" r:id="rId35"/>
-    <hyperlink ref="F16" r:id="rId36"/>
-    <hyperlink ref="F6" r:id="rId37"/>
-    <hyperlink ref="G5" r:id="rId38"/>
-    <hyperlink ref="I5" r:id="rId39" display="http://www.rit.edu/emcs/ptgrad/grad_admission_int.html"/>
+    <hyperlink ref="G18" r:id="rId14"/>
+    <hyperlink ref="I19" r:id="rId15"/>
+    <hyperlink ref="F3" r:id="rId16"/>
+    <hyperlink ref="F5" r:id="rId17"/>
+    <hyperlink ref="F14" r:id="rId18"/>
+    <hyperlink ref="F13" r:id="rId19"/>
+    <hyperlink ref="F11" r:id="rId20"/>
+    <hyperlink ref="F10" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId22"/>
+    <hyperlink ref="G14" r:id="rId23"/>
+    <hyperlink ref="I20" r:id="rId24"/>
+    <hyperlink ref="G20" r:id="rId25"/>
+    <hyperlink ref="F21" r:id="rId26"/>
+    <hyperlink ref="F22" r:id="rId27"/>
+    <hyperlink ref="F23" r:id="rId28"/>
+    <hyperlink ref="F16" r:id="rId29"/>
+    <hyperlink ref="F6" r:id="rId30"/>
+    <hyperlink ref="G5" r:id="rId31"/>
+    <hyperlink ref="I5" r:id="rId32" display="http://www.rit.edu/emcs/ptgrad/grad_admission_int.html"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId33"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId41"/>
+  <legacyDrawing r:id="rId34"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8217,17 +8236,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="144"/>
+      <c r="C1" s="146"/>
       <c r="D1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="143" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="69" t="s">
@@ -8238,13 +8257,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="142"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="66" t="s">
         <v>69</v>
       </c>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="255">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -2134,10 +2134,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>UMASS BOSTON</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>UMASS BOSTONThe Office of Graduate Admissions
 100 Morrissey Blvd.
 Boston, MA 02125-3393</t>
@@ -2181,10 +2177,226 @@
     <t>backup14</t>
   </si>
   <si>
+    <t>Northeastern.</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHANGYICHAO:Lishengrui2012</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件要有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个部分，分别是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字以上以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字以上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use this page to upload your Statement of Intent. Your statement should be a carefully written two-part essay. In the first section (up to 300 words), give your reasons for wishing to pursue graduate study. In the second section (at least 1200 words), indicate your specific interests and discuss the kind of work you would like to do in your intended field.</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要邮寄</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.umb.edu/academics/cm/masters_programs/admissions_requirements</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sa-webapp-prd.erp.umasscs.net/psc/webapp/EMPLOYEE/HRMS/c/UM_WEBAPP_MENU.UM_ADM_APP_LOGIN.GBL&amp;institution=UMBOS&amp;Career=GRAD&amp;Center=GRAD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UMASS BOSTON(Next </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的在线申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
     <t>http://damore-mckim.northeastern.edu/grad/ms-finance/</t>
-  </si>
-  <si>
-    <t>Northeastern.</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -4781,9 +4993,9 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="2" sqref="F9 F9 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -4797,9 +5009,9 @@
     <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
     <col min="9" max="9" width="11.125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="49" customWidth="1"/>
     <col min="11" max="11" width="11" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8" style="49" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="49" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="49" customWidth="1"/>
     <col min="14" max="14" width="7.625" style="49" customWidth="1"/>
     <col min="15" max="15" width="9.375" style="49" customWidth="1"/>
@@ -5158,19 +5370,27 @@
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
     </row>
-    <row r="7" spans="1:27" ht="33.75" customHeight="1">
+    <row r="7" spans="1:27" ht="40.5" customHeight="1">
       <c r="A7" s="84">
         <v>6</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="98"/>
+        <v>253</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" s="85"/>
       <c r="E7" s="116"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="101"/>
+      <c r="F7" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>248</v>
+      </c>
       <c r="I7" s="105"/>
       <c r="J7" s="87"/>
       <c r="K7" s="84"/>
@@ -5178,15 +5398,19 @@
       <c r="M7" s="84"/>
       <c r="N7" s="84"/>
       <c r="O7" s="84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
+      <c r="Q7" s="103" t="s">
+        <v>250</v>
+      </c>
       <c r="R7" s="84"/>
       <c r="S7" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="T7" s="110"/>
+        <v>235</v>
+      </c>
+      <c r="T7" s="110" t="s">
+        <v>249</v>
+      </c>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
       <c r="W7" s="90"/>
@@ -5200,14 +5424,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="85"/>
       <c r="E8" s="116"/>
       <c r="F8" s="105"/>
       <c r="G8" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="102"/>
@@ -5216,9 +5440,7 @@
       <c r="L8" s="84"/>
       <c r="M8" s="84"/>
       <c r="N8" s="84"/>
-      <c r="O8" s="84">
-        <v>2</v>
-      </c>
+      <c r="O8" s="84"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="84"/>
       <c r="R8" s="101"/>
@@ -5237,18 +5459,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="85"/>
       <c r="E9" s="117"/>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="105"/>
+      <c r="H9" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="84"/>
       <c r="I9" s="96"/>
       <c r="J9" s="87"/>
       <c r="K9" s="107"/>
@@ -5273,7 +5497,7 @@
     </row>
     <row r="10" spans="1:27" ht="51.75" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>163</v>
@@ -5308,7 +5532,7 @@
     </row>
     <row r="11" spans="1:27" ht="51.95" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>162</v>
@@ -5484,7 +5708,7 @@
     </row>
     <row r="15" spans="1:27" ht="51.95" customHeight="1">
       <c r="A15" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="83" t="s">
         <v>104</v>
@@ -5568,7 +5792,7 @@
     </row>
     <row r="17" spans="1:27" ht="51.95" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="83" t="s">
         <v>123</v>
@@ -5654,7 +5878,7 @@
     </row>
     <row r="19" spans="1:27" ht="51.95" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="133" t="s">
         <v>145</v>
@@ -5697,7 +5921,7 @@
     </row>
     <row r="20" spans="1:27" ht="51.95" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="118" t="s">
         <v>172</v>
@@ -5742,7 +5966,7 @@
     </row>
     <row r="21" spans="1:27" ht="51.95" customHeight="1">
       <c r="A21" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="118" t="s">
         <v>176</v>
@@ -5787,7 +6011,7 @@
     </row>
     <row r="22" spans="1:27" ht="51.95" customHeight="1">
       <c r="A22" s="80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" s="121" t="s">
         <v>179</v>
@@ -5824,7 +6048,7 @@
     </row>
     <row r="23" spans="1:27" ht="51.95" customHeight="1">
       <c r="A23" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" s="134" t="s">
         <v>184</v>
@@ -5903,11 +6127,13 @@
     <hyperlink ref="F6" r:id="rId30"/>
     <hyperlink ref="G5" r:id="rId31"/>
     <hyperlink ref="I5" r:id="rId32" display="http://www.rit.edu/emcs/ptgrad/grad_admission_int.html"/>
+    <hyperlink ref="F7" r:id="rId33"/>
+    <hyperlink ref="F9" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId35"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId34"/>
+  <legacyDrawing r:id="rId36"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="259">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -2140,14 +2140,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>Saint Louis Univresity</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.slu.edu/graduate-admission-home/apply-now</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>backup1</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -2175,10 +2167,6 @@
   </si>
   <si>
     <t>backup14</t>
-  </si>
-  <si>
-    <t>Northeastern.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ZHANGYICHAO:Lishengrui2012</t>
@@ -2292,9 +2280,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>https://sa-webapp-prd.erp.umasscs.net/psc/webapp/EMPLOYEE/HRMS/c/UM_WEBAPP_MENU.UM_ADM_APP_LOGIN.GBL&amp;institution=UMBOS&amp;Career=GRAD&amp;Center=GRAD</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">UMASS BOSTON(Next </t>
     </r>
@@ -2396,7 +2381,64 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
+    <t>https://sa-webapp-prd.erp.umasscs.net/psc/webapp/EMPLOYEE/HRMS/c/UM_WEBAPP_MENU.UM_ADM_APP_LOGIN.GBL&amp;institution=UMBOS&amp;Career=GRAD&amp;Center=GRAD</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
     <t>http://damore-mckim.northeastern.edu/grad/ms-finance/</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.slu.edu/graduate-admission-home/apply-now</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Northeastern.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成网申填写，待复核提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Louis University
+Graduate Admission
+One North Grand Blvd., Room 150
+St. Louis, MO 63103</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:  ZHANGYC
+PIN: 880715</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Louis Univresity</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.slu.edu/graduate-admission-home/apply-now/how-to-complete-an-online-application-for-graduate-admission#Instructions</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS Applied Financial Economics</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -4993,9 +5035,9 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" activeCellId="2" sqref="F9 F9 F9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -5004,7 +5046,7 @@
     <col min="2" max="2" width="41.875" style="49" customWidth="1"/>
     <col min="3" max="3" width="30.375" style="49" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="15" style="49" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="49" customWidth="1"/>
     <col min="8" max="8" width="13" style="49" customWidth="1"/>
@@ -5030,7 +5072,7 @@
     <col min="28" max="16384" width="8.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="51.95" customHeight="1">
+    <row r="1" spans="1:27" ht="23.25" customHeight="1">
       <c r="A1" s="132" t="s">
         <v>198</v>
       </c>
@@ -5375,7 +5417,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>82</v>
@@ -5383,13 +5425,13 @@
       <c r="D7" s="85"/>
       <c r="E7" s="116"/>
       <c r="F7" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>252</v>
+        <v>248</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>250</v>
       </c>
       <c r="H7" s="101" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I7" s="105"/>
       <c r="J7" s="87"/>
@@ -5402,14 +5444,14 @@
       </c>
       <c r="P7" s="84"/>
       <c r="Q7" s="103" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R7" s="84"/>
       <c r="S7" s="84" t="s">
         <v>235</v>
       </c>
       <c r="T7" s="110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
@@ -5424,16 +5466,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="84"/>
+        <v>256</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>258</v>
+      </c>
       <c r="D8" s="85"/>
       <c r="E8" s="116"/>
       <c r="F8" s="105"/>
       <c r="G8" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="84"/>
+        <v>252</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>255</v>
+      </c>
       <c r="I8" s="102"/>
       <c r="J8" s="84"/>
       <c r="K8" s="84"/>
@@ -5444,7 +5490,9 @@
       <c r="P8" s="84"/>
       <c r="Q8" s="84"/>
       <c r="R8" s="101"/>
-      <c r="S8" s="84"/>
+      <c r="S8" s="84" t="s">
+        <v>254</v>
+      </c>
       <c r="T8" s="84"/>
       <c r="U8" s="84"/>
       <c r="V8" s="84"/>
@@ -5459,7 +5507,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>81</v>
@@ -5467,11 +5515,13 @@
       <c r="D9" s="85"/>
       <c r="E9" s="117"/>
       <c r="F9" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="G9" s="105"/>
+        <v>251</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>257</v>
+      </c>
       <c r="H9" s="84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I9" s="96"/>
       <c r="J9" s="87"/>
@@ -5497,7 +5547,7 @@
     </row>
     <row r="10" spans="1:27" ht="51.75" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>163</v>
@@ -5532,7 +5582,7 @@
     </row>
     <row r="11" spans="1:27" ht="51.95" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>162</v>
@@ -5708,7 +5758,7 @@
     </row>
     <row r="15" spans="1:27" ht="51.95" customHeight="1">
       <c r="A15" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B15" s="83" t="s">
         <v>104</v>
@@ -5792,7 +5842,7 @@
     </row>
     <row r="17" spans="1:27" ht="51.95" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="83" t="s">
         <v>123</v>
@@ -5878,7 +5928,7 @@
     </row>
     <row r="19" spans="1:27" ht="51.95" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="133" t="s">
         <v>145</v>
@@ -5921,7 +5971,7 @@
     </row>
     <row r="20" spans="1:27" ht="51.95" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="118" t="s">
         <v>172</v>
@@ -5966,7 +6016,7 @@
     </row>
     <row r="21" spans="1:27" ht="51.95" customHeight="1">
       <c r="A21" s="80" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B21" s="118" t="s">
         <v>176</v>
@@ -6011,7 +6061,7 @@
     </row>
     <row r="22" spans="1:27" ht="51.95" customHeight="1">
       <c r="A22" s="80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" s="121" t="s">
         <v>179</v>
@@ -6048,7 +6098,7 @@
     </row>
     <row r="23" spans="1:27" ht="51.95" customHeight="1">
       <c r="A23" s="80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="134" t="s">
         <v>184</v>
@@ -6129,11 +6179,13 @@
     <hyperlink ref="I5" r:id="rId32" display="http://www.rit.edu/emcs/ptgrad/grad_admission_int.html"/>
     <hyperlink ref="F7" r:id="rId33"/>
     <hyperlink ref="F9" r:id="rId34"/>
+    <hyperlink ref="G7" r:id="rId35"/>
+    <hyperlink ref="G9" r:id="rId36" location="Instructions"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId36"/>
+  <legacyDrawing r:id="rId38"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6147,7 +6199,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6943,7 +6995,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>

--- a/documents/(MSF)schools_ZhangYiChao.xlsx
+++ b/documents/(MSF)schools_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="630" windowWidth="25500" windowHeight="18210" tabRatio="712" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3705" yWindow="630" windowWidth="13725" windowHeight="9435" tabRatio="712" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="11" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$AG$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">网申进度表!$A$1:$AA$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">网申进度表!$A$1:$AA$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">邮寄地址表!$A$1:$G$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">schools!$G$2</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="263">
   <si>
     <t>网申付款($)</t>
   </si>
@@ -2418,27 +2418,79 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>Saint Louis University
-Graduate Admission
-One North Grand Blvd., Room 150
-St. Louis, MO 63103</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>id:  ZHANGYC
 PIN: 880715</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.slu.edu/graduate-admission-home/apply-now/how-to-complete-an-online-application-for-graduate-admission#Instructions</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS Applied Financial Economics</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
     <t>Saint Louis Univresity</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.slu.edu/graduate-admission-home/apply-now/how-to-complete-an-online-application-for-graduate-admission#Instructions</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS Applied Financial Economics</t>
+    <t>https://app.applyyourself.com/common/ApplicantLogout.asp?CID=569&amp;ID=clark-som&amp;d=1%2F18%2F2013+3%3A29%3A33+AM&amp;AYID=C84A345-D854-4554-B2AA-4B9E13DC9C6</t>
+  </si>
+  <si>
+    <t>7278A5795R9
+Lishengrui2012</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMAT Code (MSF): Q4X-6X-07</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEFL Code: 5969</t>
+  </si>
+  <si>
+    <r>
+      <t>Clark(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成网申填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待复核提交，邮寄材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -3199,7 +3251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3646,6 +3698,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -5033,11 +5088,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="51.95" customHeight="1"/>
@@ -5155,7 +5210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="51.95" customHeight="1">
+    <row r="2" spans="1:27" ht="39" customHeight="1">
       <c r="A2" s="82">
         <v>1</v>
       </c>
@@ -5326,7 +5381,7 @@
       <c r="Z4" s="84"/>
       <c r="AA4" s="84"/>
     </row>
-    <row r="5" spans="1:27" ht="51.95" customHeight="1">
+    <row r="5" spans="1:27" ht="37.5" customHeight="1">
       <c r="A5" s="82">
         <v>4</v>
       </c>
@@ -5373,7 +5428,7 @@
       <c r="Z5" s="84"/>
       <c r="AA5" s="84"/>
     </row>
-    <row r="6" spans="1:27" ht="38.25" customHeight="1">
+    <row r="6" spans="1:27" ht="34.5" customHeight="1">
       <c r="A6" s="84">
         <v>5</v>
       </c>
@@ -5412,7 +5467,7 @@
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
     </row>
-    <row r="7" spans="1:27" ht="40.5" customHeight="1">
+    <row r="7" spans="1:27" ht="34.5" customHeight="1">
       <c r="A7" s="84">
         <v>6</v>
       </c>
@@ -5461,15 +5516,15 @@
       <c r="Z7" s="97"/>
       <c r="AA7" s="84"/>
     </row>
-    <row r="8" spans="1:27" ht="40.5" customHeight="1">
+    <row r="8" spans="1:27" ht="30" customHeight="1">
       <c r="A8" s="82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>258</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="116"/>
@@ -5478,20 +5533,24 @@
         <v>252</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I8" s="102"/>
       <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
+      <c r="K8" s="84" t="s">
+        <v>260</v>
+      </c>
       <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="M8" s="149" t="s">
+        <v>261</v>
+      </c>
       <c r="N8" s="84"/>
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="84"/>
       <c r="R8" s="101"/>
       <c r="S8" s="84" t="s">
-        <v>254</v>
+        <v>133</v>
       </c>
       <c r="T8" s="84"/>
       <c r="U8" s="84"/>
@@ -5504,7 +5563,7 @@
     </row>
     <row r="9" spans="1:27" ht="34.5" customHeight="1">
       <c r="A9" s="84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="139" t="s">
         <v>253</v>
@@ -5518,7 +5577,7 @@
         <v>251</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H9" s="84" t="s">
         <v>245</v>
@@ -5545,53 +5604,53 @@
       </c>
       <c r="AA9" s="84"/>
     </row>
-    <row r="10" spans="1:27" ht="51.75" customHeight="1">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:27" ht="34.5" customHeight="1">
+      <c r="A10" s="84">
+        <v>8</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="96"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+    </row>
+    <row r="11" spans="1:27" ht="51.75" customHeight="1">
+      <c r="A11" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B11" s="80" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-    </row>
-    <row r="11" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A11" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>162</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
-      <c r="E11" s="116">
-        <v>41320</v>
-      </c>
+      <c r="E11" s="115"/>
       <c r="F11" s="105" t="s">
         <v>142</v>
       </c>
@@ -5599,22 +5658,16 @@
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
       <c r="J11" s="80"/>
-      <c r="K11" s="84" t="s">
-        <v>159</v>
-      </c>
+      <c r="K11" s="84"/>
       <c r="L11" s="84"/>
-      <c r="M11" s="84" t="s">
-        <v>161</v>
-      </c>
+      <c r="M11" s="84"/>
       <c r="N11" s="84"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
       <c r="R11" s="80"/>
       <c r="S11" s="80"/>
-      <c r="T11" s="80" t="s">
-        <v>157</v>
-      </c>
+      <c r="T11" s="80"/>
       <c r="U11" s="80"/>
       <c r="V11" s="80"/>
       <c r="W11" s="80"/>
@@ -5625,335 +5678,335 @@
     </row>
     <row r="12" spans="1:27" ht="51.95" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="85"/>
+        <v>237</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="116">
-        <v>41306</v>
-      </c>
-      <c r="F12" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="84"/>
+        <v>41320</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="84" t="s">
+        <v>159</v>
+      </c>
       <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
+      <c r="M12" s="84" t="s">
+        <v>161</v>
+      </c>
       <c r="N12" s="84"/>
-      <c r="O12" s="84">
-        <v>2</v>
-      </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="R12" s="87"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
     </row>
     <row r="13" spans="1:27" ht="51.95" customHeight="1">
       <c r="A13" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+        <v>119</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="116">
+        <v>41306</v>
+      </c>
+      <c r="F13" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="108"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="96"/>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
       <c r="N13" s="84"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
+      <c r="O13" s="84">
+        <v>2</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="87"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
     </row>
     <row r="14" spans="1:27" ht="51.95" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="114" t="s">
-        <v>195</v>
+        <v>166</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
-      <c r="E14" s="116">
-        <v>41275</v>
-      </c>
+      <c r="E14" s="115"/>
       <c r="F14" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>136</v>
-      </c>
+      <c r="G14" s="80"/>
       <c r="H14" s="80"/>
-      <c r="I14" s="105" t="s">
-        <v>135</v>
-      </c>
+      <c r="I14" s="80"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="84" t="s">
-        <v>160</v>
-      </c>
+      <c r="K14" s="84"/>
       <c r="L14" s="84"/>
-      <c r="M14" s="84" t="s">
-        <v>153</v>
-      </c>
+      <c r="M14" s="84"/>
       <c r="N14" s="84"/>
-      <c r="O14" s="80" t="s">
-        <v>152</v>
-      </c>
+      <c r="O14" s="80"/>
       <c r="P14" s="80"/>
-      <c r="Q14" s="80" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q14" s="80"/>
       <c r="R14" s="80"/>
       <c r="S14" s="80"/>
-      <c r="T14" s="80" t="s">
-        <v>158</v>
-      </c>
+      <c r="T14" s="80"/>
       <c r="U14" s="80"/>
       <c r="V14" s="80"/>
       <c r="W14" s="80"/>
       <c r="X14" s="80"/>
       <c r="Y14" s="80"/>
-      <c r="Z14" s="80" t="s">
-        <v>154</v>
-      </c>
+      <c r="Z14" s="80"/>
       <c r="AA14" s="80"/>
     </row>
     <row r="15" spans="1:27" ht="51.95" customHeight="1">
       <c r="A15" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="99" t="s">
-        <v>86</v>
+        <v>167</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="116">
+        <v>41275</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>142</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="84"/>
+        <v>136</v>
+      </c>
+      <c r="H15" s="80"/>
       <c r="I15" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="84"/>
+        <v>135</v>
+      </c>
+      <c r="J15" s="80"/>
+      <c r="K15" s="84" t="s">
+        <v>160</v>
+      </c>
       <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
+      <c r="M15" s="84" t="s">
+        <v>153</v>
+      </c>
       <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA15" s="84"/>
+      <c r="O15" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA15" s="80"/>
     </row>
     <row r="16" spans="1:27" ht="51.95" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="125" t="s">
-        <v>185</v>
+        <v>238</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>104</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="G16" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="84"/>
+      <c r="I16" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="87"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" s="84"/>
     </row>
     <row r="17" spans="1:27" ht="51.95" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>123</v>
+        <v>187</v>
+      </c>
+      <c r="B17" s="125" t="s">
+        <v>185</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" ht="51.95" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136">
-        <v>41487</v>
-      </c>
-      <c r="F18" s="137" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="126" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="123"/>
-      <c r="AA18" s="123"/>
+      <c r="G18" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
     </row>
     <row r="19" spans="1:27" ht="51.95" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="123" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="C19" s="120" t="s">
+        <v>85</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="136">
-        <v>41306</v>
+        <v>41487</v>
       </c>
       <c r="F19" s="137" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="126" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="126" t="s">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H19" s="138"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="127"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="123"/>
-      <c r="M19" s="127"/>
+      <c r="M19" s="123"/>
       <c r="N19" s="123"/>
       <c r="O19" s="123"/>
       <c r="P19" s="123"/>
@@ -5962,95 +6015,93 @@
       <c r="S19" s="123"/>
       <c r="T19" s="123"/>
       <c r="U19" s="123"/>
-      <c r="V19" s="129"/>
+      <c r="V19" s="123"/>
       <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="130"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
       <c r="Z19" s="123"/>
       <c r="AA19" s="123"/>
     </row>
     <row r="20" spans="1:27" ht="51.95" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="118" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
+        <v>240</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136">
+        <v>41306</v>
+      </c>
+      <c r="F20" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="123"/>
+      <c r="I20" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="128"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
     </row>
     <row r="21" spans="1:27" ht="51.95" customHeight="1">
       <c r="A21" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>174</v>
       </c>
       <c r="D21"/>
-      <c r="E21" s="53">
-        <v>41395</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21" s="52" t="s">
-        <v>182</v>
-      </c>
+      <c r="I21" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="46" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21" s="46" t="s">
-        <v>181</v>
-      </c>
+      <c r="S21" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -6061,16 +6112,18 @@
     </row>
     <row r="22" spans="1:27" ht="51.95" customHeight="1">
       <c r="A22" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="123" t="s">
-        <v>178</v>
+        <v>242</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="D22"/>
-      <c r="E22"/>
+      <c r="E22" s="53">
+        <v>41395</v>
+      </c>
       <c r="F22" s="39" t="s">
         <v>142</v>
       </c>
@@ -6078,16 +6131,22 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22"/>
+      <c r="K22" s="52" t="s">
+        <v>182</v>
+      </c>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22"/>
+      <c r="O22" s="46" t="s">
+        <v>180</v>
+      </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
-      <c r="T22"/>
+      <c r="T22" s="46" t="s">
+        <v>181</v>
+      </c>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
@@ -6098,12 +6157,14 @@
     </row>
     <row r="23" spans="1:27" ht="51.95" customHeight="1">
       <c r="A23" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23"/>
+        <v>243</v>
+      </c>
+      <c r="B23" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="123" t="s">
+        <v>178</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="39" t="s">
@@ -6131,49 +6192,84 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
+    <row r="24" spans="1:27" ht="51.95" customHeight="1">
+      <c r="A24" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+    </row>
   </sheetData>
   <sortState ref="A2:AA23">
     <sortCondition ref="A2:A23"/>
   </sortState>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="D6:D17">
+  <conditionalFormatting sqref="D6:D18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1"/>
+    <hyperlink ref="G20" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://banner8ss.pace.edu/prod/bwskalog.P_DispLoginNon"/>
     <hyperlink ref="G8" r:id="rId3"/>
     <hyperlink ref="F2" r:id="rId4" display="http://appsrv.pace.edu/academics/view-programs/?School=GSB&amp;Cred=MS&amp;Maj=FM1&amp;Location=nyc&amp;details"/>
-    <hyperlink ref="F19" r:id="rId5" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
-    <hyperlink ref="F15" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
-    <hyperlink ref="F17" r:id="rId7" display="http://www.suffolk.edu/business/8512.html"/>
+    <hyperlink ref="F20" r:id="rId5" display="http://www.pdx.edu/gradbusiness/master-of-science-in-financial-analysis"/>
+    <hyperlink ref="F16" r:id="rId6" display="http://www.gbc.edu/degrees/gr/historical/msfinance.html"/>
+    <hyperlink ref="F18" r:id="rId7" display="http://www.suffolk.edu/business/8512.html"/>
     <hyperlink ref="F4" r:id="rId8" display="http://www.utdallas.edu/admissions/graduate/degrees/detail.php?d=951"/>
-    <hyperlink ref="F18" r:id="rId9" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
-    <hyperlink ref="F12" r:id="rId10" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
-    <hyperlink ref="Q12" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
-    <hyperlink ref="I15" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
-    <hyperlink ref="T15" r:id="rId11" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
-    <hyperlink ref="G15" r:id="rId12"/>
-    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="F19" r:id="rId9" display="http://bulletin.hofstra.edu/preview_program.php?catoid=60&amp;poid=6043"/>
+    <hyperlink ref="F13" r:id="rId10" display="http://kellstadt.depaul.edu/academics/ms-programs/"/>
+    <hyperlink ref="Q13" location="http://www.depaul.edu/university-catalog/degree-requirements/graduate/business/finance-ms/Pages/admission-information.aspx" display="要3家公司认证： ECE, EP or One Earth. Link"/>
+    <hyperlink ref="I16" location="An official copy of transcripts/statements of marks/academic records, detailing all university-level work and the diploma or degree certificate. Documents in a language other than English must be accompanied by certified English translations." display="here"/>
+    <hyperlink ref="T16" r:id="rId11" display="Statement of Intent: an explanation of why you wish to earn a graduate degree at Goldey-Beacom College. Please email this document to graduate@gbc.edu"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G18" r:id="rId13"/>
     <hyperlink ref="I4" location="http://jindal.utdallas.edu/prospective-students/admission-requirements/" display="here"/>
-    <hyperlink ref="G18" r:id="rId14"/>
-    <hyperlink ref="I19" r:id="rId15"/>
+    <hyperlink ref="G19" r:id="rId14"/>
+    <hyperlink ref="I20" r:id="rId15"/>
     <hyperlink ref="F3" r:id="rId16"/>
     <hyperlink ref="F5" r:id="rId17"/>
-    <hyperlink ref="F14" r:id="rId18"/>
-    <hyperlink ref="F13" r:id="rId19"/>
-    <hyperlink ref="F11" r:id="rId20"/>
-    <hyperlink ref="F10" r:id="rId21"/>
-    <hyperlink ref="I14" r:id="rId22"/>
-    <hyperlink ref="G14" r:id="rId23"/>
-    <hyperlink ref="I20" r:id="rId24"/>
-    <hyperlink ref="G20" r:id="rId25"/>
-    <hyperlink ref="F21" r:id="rId26"/>
-    <hyperlink ref="F22" r:id="rId27"/>
-    <hyperlink ref="F23" r:id="rId28"/>
-    <hyperlink ref="F16" r:id="rId29"/>
+    <hyperlink ref="F15" r:id="rId18"/>
+    <hyperlink ref="F14" r:id="rId19"/>
+    <hyperlink ref="F12" r:id="rId20"/>
+    <hyperlink ref="F11" r:id="rId21"/>
+    <hyperlink ref="I15" r:id="rId22"/>
+    <hyperlink ref="G15" r:id="rId23"/>
+    <hyperlink ref="I21" r:id="rId24"/>
+    <hyperlink ref="G21" r:id="rId25"/>
+    <hyperlink ref="F22" r:id="rId26"/>
+    <hyperlink ref="F23" r:id="rId27"/>
+    <hyperlink ref="F24" r:id="rId28"/>
+    <hyperlink ref="F17" r:id="rId29"/>
     <hyperlink ref="F6" r:id="rId30"/>
     <hyperlink ref="G5" r:id="rId31"/>
     <hyperlink ref="I5" r:id="rId32" display="http://www.rit.edu/emcs/ptgrad/grad_admission_int.html"/>
